--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B9C6A-EA83-4694-AEF6-0C06B92B44D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1FC3C-A22A-4415-83FC-557038DC4941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="6570" windowWidth="25695" windowHeight="15795" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="3312" yWindow="2724" windowWidth="40428" windowHeight="22476" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -413,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +452,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC9A26D"/>
+      <name val="MesloLGM NF"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -516,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -534,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,18 +861,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
   <dimension ref="A1:BO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1114,8 +1123,8 @@
       <c r="AX2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BC2">
-        <v>1</v>
+      <c r="BC2" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="BD2" s="3" t="s">
         <v>26</v>
@@ -1142,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1179,12 +1188,15 @@
         <v>119</v>
       </c>
       <c r="AX3" s="2"/>
+      <c r="BC3" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BD3" s="3"/>
       <c r="BJ3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1221,12 +1233,15 @@
         <v>119</v>
       </c>
       <c r="AX4" s="2"/>
+      <c r="BC4" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BD4" s="3"/>
       <c r="BJ4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1263,12 +1278,15 @@
         <v>119</v>
       </c>
       <c r="AX5" s="2"/>
+      <c r="BC5" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BD5" s="3"/>
       <c r="BJ5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1305,12 +1323,15 @@
         <v>119</v>
       </c>
       <c r="AX6" s="2"/>
+      <c r="BC6" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BD6" s="3"/>
       <c r="BJ6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -1344,11 +1365,14 @@
       <c r="AT7" t="s">
         <v>119</v>
       </c>
+      <c r="BC7" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1382,11 +1406,14 @@
       <c r="AT8" t="s">
         <v>119</v>
       </c>
+      <c r="BC8" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1420,11 +1447,14 @@
       <c r="AT9" t="s">
         <v>119</v>
       </c>
+      <c r="BC9" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -1458,11 +1488,14 @@
       <c r="AT10" t="s">
         <v>119</v>
       </c>
+      <c r="BC10" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -1496,11 +1529,14 @@
       <c r="AT11" t="s">
         <v>119</v>
       </c>
+      <c r="BC11" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -1534,11 +1570,14 @@
       <c r="AT12" t="s">
         <v>119</v>
       </c>
+      <c r="BC12" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -1572,11 +1611,14 @@
       <c r="AT13" t="s">
         <v>119</v>
       </c>
+      <c r="BC13" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="BJ13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1609,6 +1651,9 @@
       </c>
       <c r="AT14" t="s">
         <v>119</v>
+      </c>
+      <c r="BC14" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="BJ14" t="s">
         <v>120</v>
@@ -1632,29 +1677,29 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1720,20 +1765,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1966,6 +2011,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1978,14 +2031,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1FC3C-A22A-4415-83FC-557038DC4941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD449C-DAFA-4602-AAA2-F6B64AC054B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="2724" windowWidth="40428" windowHeight="22476" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="2940" yWindow="345" windowWidth="23115" windowHeight="19830" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
     <sheet name="Course" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Course!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Course!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="309">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -407,13 +407,776 @@
   </si>
   <si>
     <t>APOLLO Weiterbildungen</t>
+  </si>
+  <si>
+    <t>Biwe</t>
+  </si>
+  <si>
+    <t>USECASE</t>
+  </si>
+  <si>
+    <t>PartialQualification</t>
+  </si>
+  <si>
+    <t>InPerson</t>
+  </si>
+  <si>
+    <t>FullTime</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik</t>
+  </si>
+  <si>
+    <t>DE-DE</t>
+  </si>
+  <si>
+    <t>KeyPhrases</t>
+  </si>
+  <si>
+    <t>Bei der Teilqualifizierung wird der anerkannte Ausbildungsberuf Fachkraft für Lagerlogistik (m/w/d) in folgende Module aufgegliedert.
+TQ-Modul 1 - Wareneingang (11 Wochen, davon 3 Wochen im Unternehmen)
+Annehmen der Güter, Entladen und Kontrollieren der Lieferung, Prüfen der Lieferung anhand der Begleitpapiere, Abschluss Flurförderschein
+TQ-Modul 2 - Lagerung (11 Wochen, davon 3 Wochen im Unternehmen)
+Auspacken, Sortieren und Lagern der Güter anforderungsgerecht und nach wirtschaftlichen Grundsätzen unter Beachtung der Lagerordnung , Transportieren und Zuleiten der Güter zum betrieblichen Bestimmungsort
+TQ-Modul 3 - Innerbetriebliche Logistik und Kontrolle (11 Wochen, davon 3 Wochen im Unternehmen)
+Anwenden betrieblicher Informations- und Kommunikationssysteme, Standardsoftware und arbeitsplatzbezogener Software, Anwenden fachspezifischer Fremdsprachenkenntnisse, Durchführen von Bestandskontrollen und Maßnahmen der Bestandspflege
+TQ-Modul 4 - Kommissionierung und Endkontrolle (11 Wochen, davon 3 Wochen im Unternehmen)
+Erstellen von Ladelisten/Beladeplänen unter Beachtung von Ladevorschriften, Kennzeichnen, Beschriften und Sichern von Sendungen nach gesetzlichen Vorgaben, Kommissionieren und Verpacken der Güter für Sendungen und Zusammenstellen zu Ladeeinheiten
+TQ-Modul 5 - Versand (11 Wochen, davon 3 Wochen im Unternehmen)
+Kennzeichnen, Beschriften und Sichern von Sendungen nach gesetzlichen Vorgaben, Bearbeiten der Versand- und Begleitpapiere und Erstellen von Versandaufzeichnungen
+TQ-Modul 6 - Arbeitsorganisation und Qualitätssicherung (11 Wochen, davon 3 Wochen im Unternehmen)
+Mitwirken bei logistischen Planungs- und Organisationsprozessen, Mitwirken bei qualitätssichernden Maßnahmen, Planen, Organisieren und Überwachen des Einsatzes von Arbeits- und Fördermitteln</t>
+  </si>
+  <si>
+    <t>Arbeitssuchende und Beschäftigte, die keinen oder einen fachfremden Berufsabschluss haben und sich weiter qualifizieren möchten und einen anerkannten Berufsabschluss anstreben.</t>
+  </si>
+  <si>
+    <t>Mindestens Sprachniveau B1 (wünschenswert B2), hohe Lernmotivation und Konzentrationsfähigkeit, Kommunikationsfähigkeit, Führerschein. Die Eignung wird in einem persönlichen Beratungsgespräch geprüft</t>
+  </si>
+  <si>
+    <t>Die TQ unterstützt Sie beim Einstieg in den Beruf Fachkraft für Lagerlogistik (m/w/d) und gibt Ihnen die Chance auf einen höher qualifizierten Arbeitsplatz. Überschaubare Lernphasen durch fachspezifische Ausrichtung der einzelnen Module, ermöglichen ein flexibles Lernen.</t>
+  </si>
+  <si>
+    <t>Bei erfolgreicher Kompetenzfeststellung erhalten Sie nach jedem Modul ein Zertifikat inklusive Kompetenzfeststellungsergebnis, das bundesweit anerkannt ist.</t>
+  </si>
+  <si>
+    <t>Förderfähig durch einen Bildungsgutschein, die Deutsche Rentenversicherung Bund und Land sowie das Qualifizierungschancengesetz</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    &lt;![CDATA[\r\n       &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ec66b111-d8d0-4516-88ba-ee0b6fe6f695\" target=\"_blank\"&gt;Kundenbestellungen bearbeiten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/27536739-c38b-45d2-9e96-1573b1d32fdd\" target=\"_blank\"&gt;Verpackungszubehör nutzen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63\" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d5fa1ed6-6cd8-41b9-8e78-2ba168ff3457\" target=\"_blank\"&gt;Bestellungen aus dem Online-Geschäft bearbeiten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7838de1e-d65e-4a3f-b60b-e2213026116f\" target=\"_blank\"&gt;Geräte für den Materialtransport bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ab2bb44a-3956-4028-8715-8b70b1960b99\" target=\"_blank\"&gt;schwere Gewichte heben&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e0ae0101-ab8f-47a2-938b-ab0cc367b3b5\" target=\"_blank\"&gt;Lagerdatenbank pflegen&lt;/a&gt;.\r\n   \t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b91b6d4-345e-4195-a078-218514871e7b\" target=\"_blank\"&gt;effiziente Nutzung von Lagerraum sicherstellen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/28b7d7fb-0483-4877-9aaa-f990f10f16f5\" target=\"_blank\"&gt;Pick-by-Voice-Kommissionierungssysteme bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b2b8ec41-d6d1-470d-9e78-4eee515aaa3d\" target=\"_blank\"&gt;Kettensäge bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/23db1cab-e565-4a90-89f8-3a8685a20029\" target=\"_blank\"&gt;den physischen Zustand des Lagers pflegen und aufrechterhalten&lt;/a&gt;.   \r\n    ]]&gt;\r\n &lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>Bbw</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90527/fachlageristin</t>
+  </si>
+  <si>
+    <t>FACHLAGERIST*IN – Tqdigital</t>
+  </si>
+  <si>
+    <t>Mit der Teilqualifizierung können Sie Schritt für Schritt in sechs Etappen den Berufsabschluss Fachkraft für Lagerlogistik (m/w/d) erreichen. Bei erfolgreicher Kompetenzfeststellung erhalten Sie nach jeder Etappe ein Zertifikat inklusive Kompetenzfeststellungsergebnis, das bundesweit anerkannt ist. Sie haben die Möglichkeit, sich zur Externenprüfung bei der zuständigen Kammer anzumelden und damit den Berufsabschluss zu erwerben.</t>
+  </si>
+  <si>
+    <t>Arbeitsorganisation im Betreib
+Einsatz von Arbeitsmitteln (Wiegen und Messen)
+Wareneingang - Annahme von Gütern
+Lagerung von Gütern
+Kommissionierung und Verpackung
+Versand von Gütern
+Sicherheits- und Gesundheitsschutz, Umweltschutz
+Logistische Prozesse und Qualitätssicherung
+Die vermittelten Unterrichtsinhalte werden in der Praxis vertieft und in ausbildungsberechtigten Betrieben in der Region erweitert.
+Hinweis zu unseren Lernmethoden
+Live-​Online-Unterricht
+Der Unterricht findet ausschließlich online statt – mit einem*r Dozent*in im virtuellen Klassenzimmer (Adobe Connect, Vitero o. Ä.).
+Unsere Lernprozessbegleiter*innen unterstützen Sie im kompletten Schulungszeitraum.
+Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
+  </si>
+  <si>
+    <t>Arbeitssuchende
+Menschen ohne Berufsabschluss
+Beschäftigte
+Migrant*innen/Asylbewerber*innen
+Menschen mit Behinderung
+Soldat*innen</t>
+  </si>
+  <si>
+    <t>Hauptschulabschluss, technisches Grundverständnis
+Berufsabschluss oder mindestens dreijährige berufliche
+Praxis
+gute Deutschkenntnisse in Wort und Schrift
+Beratungsgespräch und bei Bedarf ein Eignungstest</t>
+  </si>
+  <si>
+    <t>Nach erfolgreicher Teilnahme an der Umschulung sind Sie Fachlagerist*in.</t>
+  </si>
+  <si>
+    <t>IHK-Abschluss
+Prüfung vor der zuständigen Kammer
+Träger-Zertifikat</t>
+  </si>
+  <si>
+    <t>Bfz</t>
+  </si>
+  <si>
+    <t>Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss Fachlagerist*in
+Als Fachlagerist*in sind Sie unter anderem in Bereichen wie der Warenannahme oder dem Lager tätig. Im Modul 1 Güterbewegung und Arbeitsschutz lernen Sie Grundlagen über den Arbeitsschutz, Umweltschutz und rechtliche Grundlagen kennen. Mit dieser Teilqualifizierung machen Sie den ersten Schritt, hin zu einem anerkannten Berufsabschluss, zu dem Sie sich mit weiteren Modulen qualifizieren können.</t>
+  </si>
+  <si>
+    <t>Nach erfolgreicher Teilnahme an diesem Modul beherrschen Sie die Güterbewegung und den Arbeitsschutz der Teilqualifizierung "Fachlagerist*in".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilqualifizierungen bieten Ihnen die Möglichkeit, in einzelnen Abschnitten Fachkenntnisse zu erwerben und sich diese Leistungen zertifizieren zu lassen. Wenn alle Module eines Berufs erfolgreich absolviert werden, ist eine Externenprüfung vor der zuständigen Kammer möglich.
+Mit der Teilqualifizierung können Sie sich Schritt für Schritt in fünf Modulen zum*zur Fachlagerist*in mit IHK-Kammerprüfung qualifizieren. </t>
+  </si>
+  <si>
+    <t>Einführung in das Berufsfeld und Vermittlung von Grundlagenwissen
+Arbeitsschutz
+Umweltschutz und rechtliche Grundlagen
+Güter im Betrieb transportieren
+Flurförderschein
+Das Gütesiegel „Eine TQ besser!" der ARBEITGEBERINITIATIVE TEILQUALIFIZIERUNG garantiert die Durchführung von Teilqualifizierungen nach festgelegten Standards.
+Nach erfolgreicher Kompetenzfeststellung erhalten Sie das bfz vbw Zertifikat Teilqualifizierung Fachlagerist*in, Modul 1: Güterbewegung und Arbeitsschutz.
+Hinweis zu unseren Lernmethoden
+Live-​Online-Unterricht
+Der Unterricht findet ausschließlich online statt – mit einem*r Dozent*in im virtuellen Klassenzimmer (Adobe Connect, Vitero o. Ä.).
+Unsere Lernprozessbegleiter*innen unterstützen Sie im kompletten Schulungszeitraum.
+Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
+  </si>
+  <si>
+    <t>Agentur für Arbeit
+Berufsförderungsdienst der Bundeswehr
+Berufsgenossenschaften
+Bildungsgutschein (BGS)
+Jobcenter
+Knappschaft-Bahn-See
+Qualifizierungschancengesetz
+Renten- und Unfallversicherungsträger
+Selbstzahler - individuelle Fördermöglichkeiten
+Transfergesellschaften</t>
+  </si>
+  <si>
+    <t>Folgende Voraussetzungen müssen Sie für die Teilqualifizierung mitbringen:
+- ausreichendes Sprachniveau (mind. B1, B2 in der digitalen Lernform),
+- hohe Lernmotivation,
+- sowohl technisches wie auch kaufmännisches Grundverständnis
+- Interesse an einer Arbeitsaufnahme im Lagerbereich
+Ihre Eignung prüfen wir gemeinsam mit Ihnen in einem persönlichen Beratungsgespräch.</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90580/fachlageristin-wareneingang-modul-2</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90531/fachlageristin-gueterbewegung-und-arbeitsschutz-modul-1</t>
+  </si>
+  <si>
+    <t>FACHLAGERIST*IN – WARENEINGANG (MODUL 2)</t>
+  </si>
+  <si>
+    <t>Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss Fachlagerist*in
+Als Fachlagerist*in nehmen Sie unter anderem Waren an und lagern diese dann sachgerecht. Außerdem machen Sie Lieferungen versandfertig oder leiten Güter an Empfänger im Betrieb weiter. Im Modul 2 Wareneingang wird Ihnen Wissen über die Güterannahme und Güterkontrolle, sowie das Tabellenkalkulations- und Lagerhaltungsprogramm vermittelt. Mit dieser Teilqualifizierung stellen Sie die Weichen hin zu einem anerkannten Berufsabschluss, für den Sie sich mit weiteren Modulen qualifizieren können.</t>
+  </si>
+  <si>
+    <t>Die betriebliche Qualifizierungsphase von 4 Wochen erfolgt bei Betrieben in der Region. 
+Inhalte
+Grundlagen Beschaffung
+Güter annehmen und kontrollieren
+Tabellenkalkulations- und Lagerhaltungsprogramm
+Erfolgsunterstützung, Kompetenzfeststellung praktisch und theoretisch
+Das Gütesiegel „Eine TQ besser!" der ARBEITGEBERINITIATIVE TEILQUALIFIZIERUNG garantiert die Durchführung von Teilqualifizierungen nach festgelegten Standards.
+Nach erfolgreicher Kompetenzfeststellung erhalten Sie das bfz vbw Zertifikat Teilqualifizierung Fachlagerist*in, Modul 2: Wareneingang.
+Hinweis zu unseren Lernmethoden
+Live-​Online-Unterricht
+Der Unterricht findet ausschließlich online statt – mit einem*r Dozent*in im virtuellen Klassenzimmer (Adobe Connect, Vitero o. Ä.).
+Unsere Lernprozessbegleiter*innen unterstützen Sie im kompletten Schulungszeitraum.
+Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90041/fachlageristin-lagerhaltung-und-warenpflege-modul-3</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90871/fachlageristin-gueterverladung-und-versand-modul-5</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90405/fachlageristin-kommissionierung-und-verpackung-modul-4</t>
+  </si>
+  <si>
+    <t>FACHLAGERIST*IN – KOMMISSIONIERUNG UND VERPACKUNG (MODUL 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss Fachlagerist*in
+Als Fachlagerist*in sind Sie unter anderem für die Annahme von Waren an und die sachgerechte Lagerung zuständig. Des Weiteren stellen Sie Lieferungen für den bereit oder leiten Güter an Empfänger im Betrieb weiter. Dieses Modul vermittelt Ihnen Kenntnisse über die Kommissionierung und die Verpackung. Mit dieser Teilqualifizierung bestreiten Sie einen wichtigen Teil des Weges zu einem anerkannten Berufsabschluss, zu dem Sie sich mit weiteren Modulen qualifizieren können.
+</t>
+  </si>
+  <si>
+    <t>Die betriebliche Qualifizierungsphase von 4 Wochen erfolgt bei Betrieben in der Region. 
+Inhalte
+Güter kommissionieren
+Güter verpacken
+Das Gütesiegel „Eine TQ besser!" der ARBEITGEBERINITIATIVE TEILQUALIFIZIERUNG garantiert die Durchführung von Teilqualifizierungen nach festgelegten Standards.
+Nach erfolgreicher Kompetenzfeststellung erhalten Sie das bfz vbw Zertifikat Teilqualifizierung Fachlagerist*in, Modul 4: Kommissionierung und Verpackung.
+Hinweis zu unseren Lernmethoden
+Live-​Online-Unterricht
+Der Unterricht findet ausschließlich online statt – mit einem*r Dozent*in im virtuellen Klassenzimmer (Adobe Connect, Vitero o. Ä.).
+Unsere Lernprozessbegleiter*innen unterstützen Sie im kompletten Schulungszeitraum.
+Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
+  </si>
+  <si>
+    <t>Nach erfolgreicher Teilnahme an diesem Modul beherrschen Sie die Kommissionierung und Verpackung der Teilqualifizierung "Fachlagerist*in"</t>
+  </si>
+  <si>
+    <t>Nach erfolgreicher Teilnahme an diesem Modul beherrschen Sie die Lagerhaltung und Warenpflege der Teilqualifizierung "Fachlagerist*in".</t>
+  </si>
+  <si>
+    <t>Nach erfolgreicher Teilnahme an diesem Modul beherrschen Sie die Güterverladung und Versand der Teilqualifizierung "Fachlagerist*in"</t>
+  </si>
+  <si>
+    <t>Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss Fachlagerist*in
+Als Fachlagerist*in sind Sie für die Warenannahmen und deren sachgerechte Lagerung verantwortlich. Zudem stellen Sie zum Beispiel Lieferungen zum weiteren Versand zusammen oder leiten Güter an Empfänger im Betrieb weiter. In diesem Modul lernen Sie die Grundlagen über die Optimierung von logistischen Prozesse und die Güterbearbeitung kennen. Mit dieser Teilqualifizierung gehen Sie einen wichtigen Schritt hin zu einem anerkannten Berufsabschluss, zu dem Sie sich mit weiteren Modulen qualifizieren können.</t>
+  </si>
+  <si>
+    <t>FACHLAGERIST*IN – LAGERHALTUNG UND WARENPFLEGE (MODUL 3)</t>
+  </si>
+  <si>
+    <t>Mit der Teilqualifizierung können Sie sich Schritt für Schritt in fünf Modulen zum*zur Fachlagerist*in mit IHK-Kammerprüfung qualifizieren. 
+Die betriebliche Qualifizierungsphase von 4 Wochen erfolgt bei Betrieben in der Region. 
+Inhalte
+Güter lagern
+Güter bearbeiten inkl. Inventur
+Logistische Prozesse optimieren (Grundlagen)
+Kennzahlen ermitteln und auswerten (Grundlagen)
+Das Gütesiegel „Eine TQ besser!" der ARBEITGEBERINITIATIVE TEILQUALIFIZIERUNG garantiert die Durchführung von Teilqualifizierungen nach festgelegten Standards.
+Nach erfolgreicher Kompetenzfeststellung erhalten Sie das bfz vbw Zertifikat Teilqualifizierung Fachlagerist*in, Modul 3: Lagerhaltung und Warenpflege.
+Hinweis zu unseren Lernmethoden
+Live-​Online-Unterricht
+Der Unterricht findet ausschließlich online statt – mit einem*r Dozent*in im virtuellen Klassenzimmer (Adobe Connect, Vitero o. Ä.).
+Unsere Lernprozessbegleiter*innen unterstützen Sie im kompletten Schulungszeitraum.
+Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
+  </si>
+  <si>
+    <t>FACHLAGERIST*IN – GÜTERVERLADUNG UND VERSAND (MODUL 5)</t>
+  </si>
+  <si>
+    <t>Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss Fachlagerist*in
+Als Fachlagerist*in nehmen Sie unter anderem Waren an und lagern diese sachgerecht. Sie machen des Weiteren Lieferungen versandfertig oder leiten verschiedene Güter an Empfänger im Betrieb weiter. Güter verladen und versenden sind die Hauptinhalte von diesem Modul 5. Mit dieser Teilqualifizierung stellen Sie die Weichen für einen anerkannten Berufsabschluss, für dem Sie sich mit weiteren Modulen qualifizieren können.</t>
+  </si>
+  <si>
+    <t>Teilqualifizierungen bieten Ihnen die Möglichkeit, in einzelnen Abschnitten Fachkenntnisse zu erwerben und sich diese Leistungen zertifizieren zu lassen. Wenn alle Module eines Berufsbildes erfolgreich absolviert werden, ist eine Externenprüfung vor der zuständigen Kammer möglich. 
+Mit der Teilqualifizierung können Sie sich Schritt für Schritt in fünf Modulen zum*zur Fachlagerist*in mit IHK-Kammerprüfung qualifizieren.
+Die betriebliche Qualifizierungsphase von 4 Wochen erfolgt bei Betrieben in der Region. 
+Inhalte
+Güter verladen inkl. Ladungssicherung
+Güter versenden
+Das Gütesiegel „Eine TQ besser!" der ARBEITGEBERINITIATIVE TEILQUALIFIZIERUNG garantiert die Durchführung von Teilqualifizierungen nach festgelegten Standards.
+Nach erfolgreicher Kompetenzfeststellung erhalten Sie das bfz vbw Zertifikat Teilqualifizierung Fachlagerist*in, Modul 5: Güterverladung und Versand.
+Hinweis zu unseren Lernmethoden
+Live-​Online-Unterricht
+Der Unterricht findet ausschließlich online statt – mit einem*r Dozent*in im virtuellen Klassenzimmer (Adobe Connect, Vitero o. Ä.).
+Unsere Lernprozessbegleiter*innen unterstützen Sie im kompletten Schulungszeitraum.
+Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
+  </si>
+  <si>
+    <t>Tuev</t>
+  </si>
+  <si>
+    <t>Im Lager werden Produkte gelagert und umgeschlagen, kommissioniert, konfektioniert, verpackt, zum Versand vorbereitet oder auch Retouren bearbeitet. Mit diesem Seminar erhalten Sie einen fundierten und praxisorientierten Einblick in die Aufgaben der Lager- und Materialwirtschaft bei der betrieblichen Leistungserstellung und die wichtigsten Abwicklungsprozesse in der Lagerlogistik. Damit verfügen Sie über das notwendige "Handwerkszeug" für Ihre täglichen, operativen Aufgaben in einer modernen betrieblichen Lagerlogistik.</t>
+  </si>
+  <si>
+    <t>Grundlagen der Lagerwirtschaft kompakt.</t>
+  </si>
+  <si>
+    <t>https://akademie.tuv.com/weiterbildungen/grundlagen-der-lagerwirtschaft-kompakt-557431</t>
+  </si>
+  <si>
+    <t>Lagermitarbeiter mit ersten praktischen Berufserfahrungen, Nachwuchskräfte sowie Quereinsteiger im Bereich Lager, Materialwirtschaft und Logistik.</t>
+  </si>
+  <si>
+    <t>Sie erhalten das notwendige Grundlagenwissen zum Einstieg in die komplexe Welt der Lagerlogistik.
+Sie lernen alle im Lager zu verrichtenden Tätigkeiten und Prozesse vom Wareneingang über die Lagerung, Kommissionierung bis zum Versand anhand vieler praktischer Beispiele kennen.
+Mit der Teilnahme legen Sie das Fundament für Ihre erfolgreiche Tätigkeit in der betrieblichen Lagerlogistik und für einen weiteren Ausbau Ihrer Handlungskompetenz im operativen Alltag.</t>
+  </si>
+  <si>
+    <t>1. Die Lagerwirtschaft im Unternehmen
+- Bedeutung und Aufgaben
+- Lagerprozesse im Überblick
+2. Lagersysteme und Lagertechnik
+- Flurfördermittel
+- Lagermittel
+- Verpackungseinheiten
+- Lagerverwaltung und -steuerung
+- Wearables: Pick-by-Vision, Pick-by-Voice
+- Automatisierung im Lager - Ausblick Industrie 4.0
+3. Unfallverhütung
+- Gefahrenquellen im Lager
+- Potentiell Gefahren beim Transport erkennen
+- Gefahren vermeiden
+- Fehler erkennen und vermeiden
+- Richtiges Verhalten bei Unfällen
+4. Lagern im Logistikprozess
+- Lagerfunktionen
+- Lagertypen
+- Lagerhalter
+5. Prozesse im Lager
+- Wareneingang
+- Wareneingangskontrolle
+- Ware einlagern
+- Ware lagern
+6. Auftragsabwicklung und Kommissionierung
+- Auftrag annehmen und kommissionieren
+- Auftrag zusammenstellen und versandfertig machen
+7. Warenausgang
+- Ware verpacken und sichern
+- Ware verladen und versenden
+8. Warenbestände
+- Ware identifizieren und buchen
+- Inventur durchführen
+- Bestandsarten
+9. Die Wichtigkeit von Ordnung und Sauberkeit10. Wirtschaftlichkeitsfaktor Lager
+- Ausgleichsfunktionen und Aufgaben
+- Anforderungen und Kosten
+11. Prozesse verbessern
+- Kennzahlen in der Lagerlogistik
+- Vermeidung von Fehlern im Lager
+- Was kann ich dazu beitragen?</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>ab 1.300,00 €
+Nettopreis (zzgl. MwSt.)
+ab 1.547,00 €
+Bruttopreis (inkl. MwSt.)</t>
+  </si>
+  <si>
+    <t>ContactId</t>
+  </si>
+  <si>
+    <t>ContactMail</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t>info-stuttgart@biwe.de</t>
+  </si>
+  <si>
+    <t>BBQ Stuttgart</t>
+  </si>
+  <si>
+    <t>0711 252875-19</t>
+  </si>
+  <si>
+    <t>OnAndOffline</t>
+  </si>
+  <si>
+    <t>https://www.bbw-seminare.de/seminarinfos/eca/10647/fachkraft-fuer-lagerlogistik-ihk/</t>
+  </si>
+  <si>
+    <t>Berufsbegleitende Nachqualifizierung mit Vorbereitung auf die Externenprüfung (IHK)
+Im Lehrgang „Fachkraft für Lagerlogistik mit Vorbereitung auf die Externenprüfung (IHK)“ werden die Teilnehmer auf das Tätigkeitsprofil des Fachlageristen vorbereitet. Das Lehrgangskonzept beinhaltet zudem alle relevanten Inhalte für die Teilnahme an der Externenprüfung zum Erwerb des Berufsabschlusses „Fachkraft für Lagerlogistik (IHK)“.</t>
+  </si>
+  <si>
+    <t>Inhalte
+Wirtschafts- und Sozialkunde 
+Sicherheit und Gesundheitsschutz bei der Arbeit, Umweltschutz 
+Arbeitsorganisation, Information und Kommunikation
+Güterkontrolle und qualitätssichernde Maßnahmen 
+Buchführung 
+Annahme von Gütern 
+Lagerung von Gütern 
+Kommissionierung und Verpackung von Gütern 
+Versand von Gütern
+Lagerung/Warenpflege 
+Prozesse der Lagerlogistik 
+Rationeller und qualitätssichernder Güterumschlag 
+Intensive Prüfungsvorbereitung auf die 3 Teile der Theorieprüfung
+Intensive Prüfungsvorbereitung auf die praktische und die schriftlich-praktische Prüfung</t>
+  </si>
+  <si>
+    <t>Der Lehrgang richtet sich speziell an Mitarbeiter, die keinen oder einen fachfremden Berufsabschluss haben, aber einschlägige betriebliche Praxiserfahrung im Lager- oder Logistikbereich mitbringen. Auf diesem Praxiswissen aufbauend werden die Inhalte der Ausbildung in einem kompakten Lehrgang berufsbegleitend vermittelt.</t>
+  </si>
+  <si>
+    <t>Arbeitsagentur
+BA-Förderung nach dem Qualifizierungschancengesetz für Beschäftigte</t>
+  </si>
+  <si>
+    <t>Voraussetzungen
+Geringqualifizierte (Ungelernte ohne Berufsabschluss oder Berufs-entfremdete die mehr als 4 Jahre nicht im erlernten Beruf tätig sind)
+Zum Zeitpunkt der Anmeldung zur IHK-Prüfung muss eine viereinhalb-jährige Tätigkeit im Lager- bzw. Logistikbereich nachgewiesen werden</t>
+  </si>
+  <si>
+    <t>Mira Bernhart</t>
+  </si>
+  <si>
+    <t>mira.bernhart@bbw.de</t>
+  </si>
+  <si>
+    <t>+499317973261</t>
+  </si>
+  <si>
+    <t>Termin1 Start</t>
+  </si>
+  <si>
+    <t>Termin1 Ende</t>
+  </si>
+  <si>
+    <t>Termin2 Start</t>
+  </si>
+  <si>
+    <t>Termin2 Ende</t>
+  </si>
+  <si>
+    <t>Termin3 Start</t>
+  </si>
+  <si>
+    <t>Termin3 Ende</t>
+  </si>
+  <si>
+    <t>14.06.2023</t>
+  </si>
+  <si>
+    <t>16.06.2023</t>
+  </si>
+  <si>
+    <t>+4980013535577</t>
+  </si>
+  <si>
+    <t>servicecenter@de.tuv.com</t>
+  </si>
+  <si>
+    <t>Service Center</t>
+  </si>
+  <si>
+    <t>Christine Ziegler</t>
+  </si>
+  <si>
+    <t>07391 58751-13</t>
+  </si>
+  <si>
+    <t>christine.ziegler@bfz.de</t>
+  </si>
+  <si>
+    <t>13.02.2023</t>
+  </si>
+  <si>
+    <t>19.05.2023</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90531/fachlageristin-gueterbewegung-und-arbeitsschutz-modul-1?r%5Bl%5D%5Bd%5D=50&amp;r%5Bl%5D%5Bl%5D=71634%20Ludwigsburg</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90580/fachlageristin-wareneingang-modul-2?r%5Bl%5D%5Bd%5D=50&amp;r%5Bl%5D%5Bl%5D=71634%20Ludwigsburg#box_eventlist</t>
+  </si>
+  <si>
+    <t>Link Termin</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90041/fachlageristin-lagerhaltung-und-warenpflege-modul-3?r%5Bl%5D%5Bd%5D=50&amp;r%5Bl%5D%5Bl%5D=71634%20Ludwigsburg%20#box_eventlist</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90405/fachlageristin-kommissionierung-und-verpackung-modul-4?r%5Bl%5D%5Bd%5D=50&amp;r%5Bl%5D%5Bl%5D=71634%20Ludwigsburg#box_eventlist</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90871/fachlageristin-gueterverladung-und-versand-modul-5?r%5Bl%5D%5Bd%5D=50&amp;r%5Bl%5D%5Bl%5D=71634%20Ludwigsburg%20#box_eventlist</t>
+  </si>
+  <si>
+    <t>07.06.2024</t>
+  </si>
+  <si>
+    <t>13 Wochen , Vollzeit</t>
+  </si>
+  <si>
+    <t>16 Monate, Vollzeit</t>
+  </si>
+  <si>
+    <t>25.08.2023</t>
+  </si>
+  <si>
+    <t>12 Wochen , Vollzeit</t>
+  </si>
+  <si>
+    <t>Fachkraft für Lagerlogistik (IHK)</t>
+  </si>
+  <si>
+    <t>06.02.2023</t>
+  </si>
+  <si>
+    <t>12.05.2023</t>
+  </si>
+  <si>
+    <t>Hinweis Preis: Bei Förderung durch die Agentur für Arbeit mit einem Bildungsgutschein ist der Lehrgang kostenfrei!</t>
+  </si>
+  <si>
+    <t>22.05.2023</t>
+  </si>
+  <si>
+    <t>23.01.2023</t>
+  </si>
+  <si>
+    <t>28.04.2023</t>
+  </si>
+  <si>
+    <t>15.05.2023</t>
+  </si>
+  <si>
+    <t>04.08.2023</t>
+  </si>
+  <si>
+    <t>02.05.2023</t>
+  </si>
+  <si>
+    <t>21.07.2023</t>
+  </si>
+  <si>
+    <t>21.08.2023</t>
+  </si>
+  <si>
+    <t>24.11.2023</t>
+  </si>
+  <si>
+    <t>https://akademie.tuv.com/weiterbildungen/praxiswissen-wareneingang-aufbau-workshop-fuer-lagerleiter-473630</t>
+  </si>
+  <si>
+    <t>Praxiswissen Wareneingang - Aufbau-Workshop für Lagerleiter.</t>
+  </si>
+  <si>
+    <t>Verbesserungspotenziale erkennen, Servicequalität optimieren und Logistikkosten reduzieren.
+Abwicklungsfehler und organisatorische Mängel im Wareneingang nehmen direkten Einfluss auf alle folgenden logistischen Prozesse und können wesentliche Ursache für hohe Logistikkosten und schlechte Servicequalität sein. Unser Workshop hilft Ihnen, komplexe Verantwortlichkeiten im Abwicklungsprozess Ihres Wareneingangs richtig einzuordnen und diese mit modernen Methoden umzusetzen.</t>
+  </si>
+  <si>
+    <t>UnPublishingDate</t>
+  </si>
+  <si>
+    <t>01.12.2022</t>
+  </si>
+  <si>
+    <t>Fachkraft für Lagerlogistik - TQ</t>
+  </si>
+  <si>
+    <t>FACHLAGERIST*IN – GÜTERBEWEGUNG UND ARBEITSSCHUTZ (MODUL 1)</t>
+  </si>
+  <si>
+    <t>Lagerleiter, Fach- und Führungskräfte aus Wareneingang, Lager, Versand, Materialwirtschaft und Logistik.</t>
+  </si>
+  <si>
+    <t>Sie kennen die grundlegenden Aufgaben des Wareneingangs und wissen diese gezielt mit den notwendigen Instrumenten und Methoden im operativen Tagesgeschäft umzusetzen.
+Sie erhalten einen umfassenden, praxisbezogenen Leitfaden, um Teilprozesse im Wareneingang zu optimieren und Abweichungen zu korrigieren.
+Sie erreichen logistische Zielgrößen wie niedrige Bestände, kurze Durchlaufzeiten, Termintreue und guten Lieferservice mit geeigneten Methoden und wissen diese nachhaltig sicherzustellen.
+Sie berücksichtigen die Akteure im betrieblichen Leistungsprozess und verbessern damit nachhaltig die Material-, Informations- und Kommunikationsschnittstellen.</t>
+  </si>
+  <si>
+    <t>ab 975,00 €
+Nettopreis (zzgl. MwSt.)
+ab 1.160,25 €
+Bruttopreis (inkl. MwSt.)</t>
+  </si>
+  <si>
+    <t>5 Module je 11 Wochen</t>
+  </si>
+  <si>
+    <t>68 Wochen</t>
+  </si>
+  <si>
+    <t>11 Wochen</t>
+  </si>
+  <si>
+    <t>13 Wochen</t>
+  </si>
+  <si>
+    <t>12 Wochen</t>
+  </si>
+  <si>
+    <t>3 Tage</t>
+  </si>
+  <si>
+    <t>2 Tage</t>
+  </si>
+  <si>
+    <t>06.11.2023</t>
+  </si>
+  <si>
+    <t>08.11.2023</t>
+  </si>
+  <si>
+    <t>07.02.2023</t>
+  </si>
+  <si>
+    <t>30.11.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>Fachlagerist m/w/d Teilqualifizierung</t>
+  </si>
+  <si>
+    <t>Fachlageristen nehmen Waren an und lagern diese sachgerecht. Sie stellen Lieferungen für den Versand zusammen bzw. leiten Güter an die entsprechenden Stellen im Betrieb weiter. Der IHK-Berufsabschluss Fachlagerist wird in 5 Teilqualifizierungen (TQ) zerlegt. Dies ermöglicht die Kombination aus Beschäftigungs- und Qualifizierungsphasen.
+TQ5: Versand
+-	Fachtheorie: Güter verladen und Güter versenden
+-	Fachpraxis: Ladegewicht und benötigten Frachtraum ermitteln
+-	Fachpraxis: Verladung der zusammengestellten Ware unter Beachtung der Ladevorschriften</t>
+  </si>
+  <si>
+    <t>Sofort / Individueller Einstieg</t>
+  </si>
+  <si>
+    <t>Dauer nach Vorgabe (3 bis 6 Monate)</t>
+  </si>
+  <si>
+    <t>Präsenz</t>
+  </si>
+  <si>
+    <t>Förderbar über Bildungsgutschein</t>
+  </si>
+  <si>
+    <t>KAUFMANN*FRAU IM E-​COMMERCE – WARENWIRTSCHAFT UND ONLINEVERTRIEB (MODUL 1)</t>
+  </si>
+  <si>
+    <t>Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss E-Commerce
+Als Kaufmann*frau im E-Commerce verkaufen Sie Produkte und Dienstleistungen über das Internet. Im Modul Warenwirtschaft und Onlinevertrieb lernen Sie unter anderem Online-Vertriebskanäle auszuwählen und einzusetzen. Mit dieser Teilqualifizierung legen Sie den ersten Schritt zurück, hin zu einem anerkannten Berufsabschluss, zu dem Sie sich mit weiteren Modulen qualifizieren können.</t>
+  </si>
+  <si>
+    <t>Beschäftigte
+Arbeitssuchende
+Berufsrückkehrer*innen
+Menschen ohne Berufsabschluss</t>
+  </si>
+  <si>
+    <t>Folgende Voraussetzungen müssen Sie für die Teilqualifizierung mitbringen:
+- Sprachniveau B2
+- hohe Lernmotivation und Konzentrationsfähigkeit,
+- Grundkenntnisse bzw. Grundverständnis im kaufmännischen Bereich.
+Ihre Eignung prüfen wir gemeinsam mit Ihnen in einem persönlichen Beratungsgespräch.</t>
+  </si>
+  <si>
+    <t>07.07.2023</t>
+  </si>
+  <si>
+    <t>Ismail Debre</t>
+  </si>
+  <si>
+    <t>ismail.debre@bfz.de</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90512/kaufmannfrau-im-e-commerce-5-module</t>
+  </si>
+  <si>
+    <t>Mindestens Sprachniveau B1 (wünschenswert B2), hohe Lernmotivation und Konzentrationsfähigkeit, Grundkenntnisse bzw. Grundverständnis im kaufmännischen Bereich. Die Eignung wird in einem persönlichen Beratungsgespräch geprüft</t>
+  </si>
+  <si>
+    <t>Die TQ unterstützt Sie beim Einstieg in den Beruf Kaufmann im E-Commerce (m/w/d) und gibt Ihnen die Chance auf einen höher qualifizierten Arbeitsplatz. Überschaubare Lernphasen durch fachspezifische Ausrichtung der einzelnen Module, ermöglichen ein flexibles Lernen.</t>
+  </si>
+  <si>
+    <t>5 Module je 15 Wochen</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungsportal/themen/coaching-qualifizierung/einzelansicht/tq-ecommerce-hybrid</t>
+  </si>
+  <si>
+    <t>15 Wochen</t>
+  </si>
+  <si>
+    <t>Kaufmann im E-Commerce - TQ</t>
+  </si>
+  <si>
+    <t>Kaufmann im E-Commerce - TQ (Modul 1)</t>
+  </si>
+  <si>
+    <t>Sie lernen bequem von zuhause aus oder bei uns vor Ort (Hybrid-Kurs)
+Mit der Teilqualifizierung können Sie Schritt für Schritt in sechs Etappen den Berufsabschluss Kaufmann im E-Commerce (m/w/d) erreichen. Bei erfolgreicher Kompetenzfeststellung erhalten Sie nach jeder Etappe ein Zertifikat inklusive Kompetenzfeststellungsergebnis, das bundesweit anerkannt ist. Sie haben die Möglichkeit, sich zur Externenprüfung bei der zuständigen Kammer anzumelden und damit den Berufsabschluss zu erwerben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://esco.ec.europa.eu/de/classification/occupation?uri=http%3A//data.europa.eu/esco/occupation/cd94def5-3442-4c2e-ae3d-0761a3008bcb </t>
+  </si>
+  <si>
+    <t>info-bbq@biwe.de</t>
+  </si>
+  <si>
+    <t>BBQ Bildung und Berufliche Qualifizierung gGmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+49 (0)711 135340-0  </t>
+  </si>
+  <si>
+    <t>Kaufmann*frau im E-​Commerce (5 Module)</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs/eca-90154/kaufmannfrau-im-e-commerce-warenwirtschaft-und-onlinevertrieb-modul-1?r%5Bl%5D%5Bd%5D=25&amp;r%5Bl%5D%5Bl%5D=81929%20M%C3%BCnchen#box_eventlist</t>
+  </si>
+  <si>
+    <t>beratung@bfz.de</t>
+  </si>
+  <si>
+    <t>24 Monate, Vollzeit</t>
+  </si>
+  <si>
+    <t>19 Wochen</t>
+  </si>
+  <si>
+    <t>Teilzeit, Vollzeit möglich https://www.bfz.de/kurs/eca-90154/pdf/90154-23-001-4/kaufmannfrau-im-e-commerce-warenwirtschaft-und-onlinevertrieb-modul-1.pdf https://www.bfz.de/kurs/eca-90154/pdf/90154-23-003-4/kaufmannfrau-im-e-commerce-warenwirtschaft-und-onlinevertrieb-modul-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilqualifizierung zur schrittweisen Vorbereitung auf den Berufsabschluss E-Commerce
+Als Kaufmann*frau im E-Commerce verkaufen Sie Produkte und Dienstleistungen über das Internet. Mit dieser Teilqualifizierung legen Sie den ersten Schritt zurück, hin zu einem anerkannten Berufsabschluss, zu dem Sie sich mit Hilfe dieser Module qualifizieren können. </t>
+  </si>
+  <si>
+    <t>Umschulung im digitalen Lernformat in Vollzeit
+Als Fachlagerist*in nehmen Sie Waren an und lagern sie sachgerecht. Zudem stellen Sie Lieferungen für den Versand zusammen oder leiten Güter an Empfänger im Betrieb weiter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modularmaßnahme E – Commerce - Modul 1 Online Vertrieb </t>
+  </si>
+  <si>
+    <t>4 Monate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie haben eine kaufmännische Ausbildung und wollen Ihr Qualifikationsprofil um den Bereich des E-Commerce erweitern? Dann ist diese Weiterbildung das Richtige für Sie.　 
+Der Onlinehandel ist eine Zukunftsbranche, die stetig weiterwächst. Immer mehr Unternehmen bauen ihr Online-Angebot aus und suchen dafür nach qualifizierten Fachkräften. Mitarbeiter: innen im E-Commerce betreuen Verkaufs- und Kaufprozesse von Waren oder Dienstleistungen im Internet und Online-Kundenservice. Sie haben Aufgaben im Einkauf, Werbung, Logistik oder auch in der IT. Auch die Kommunikation mit Kunden rund um Beratung, Bestellung und Reklamationen, die Auswahl und Pflege von Webshops oder virtuellen Marktplätzen können zu ihren Aufgaben gehören. </t>
+  </si>
+  <si>
+    <t>Förderung über Bildungsgutschein möglich, Förderung über Qualifizierungschancengesetz (für Arbeitnehmer) -&gt; Kosten werden über Förderung übernommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.01.2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.05.2023 </t>
+  </si>
+  <si>
+    <t>0221 806-9000</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.bbw-seminare.de/inhouse-angebote/</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kontakt</t>
+  </si>
+  <si>
+    <t>https://akademie.tuv.com/ueber-die-akademie</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,8 +1222,81 @@
       <name val="MesloLGM NF"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +1306,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -544,6 +1404,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,18 +1772,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
   <dimension ref="A1:BO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" ht="12.75" customHeight="1">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1151,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1196,7 +2107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1241,7 +2152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1286,7 +2197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1331,7 +2242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -1372,7 +2283,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1413,7 +2324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1454,7 +2365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -1495,7 +2406,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -1536,7 +2447,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -1577,7 +2488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -1618,7 +2529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1671,117 +2582,1603 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="18"/>
+    <col min="26" max="26" width="14" style="18" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="21" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1"/>
+    <col min="33" max="36" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" s="13" customFormat="1" ht="18.75">
+      <c r="A1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="W1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="16.5" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA3">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA4">
+        <v>101</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA5">
+        <v>101</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA6">
+        <v>101</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA7">
+        <v>101</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA8">
+        <v>101</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" t="s">
+        <v>228</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V9" s="22"/>
+      <c r="Y9" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA9">
+        <v>102</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="T10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="X10" s="16">
+        <v>1547</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z10" s="19"/>
+      <c r="AA10">
+        <v>201</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="25">
+        <v>1</v>
+      </c>
+      <c r="B11" s="25">
+        <v>201</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X11" s="29">
+        <v>1160.25</v>
+      </c>
+      <c r="Y11" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>201</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC11" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE11" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF11" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG11" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH11" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="U12" t="s">
+        <v>268</v>
+      </c>
+      <c r="X12" s="31">
+        <v>2245</v>
+      </c>
+      <c r="AE12" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="33">
+        <v>2</v>
+      </c>
+      <c r="B13" s="33">
+        <v>30</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="V13" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC13" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD13" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE13" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK13" s="40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="38">
+        <v>2</v>
+      </c>
+      <c r="B14" s="38">
+        <v>31</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA14" s="38">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC14" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD14" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE14" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK14" s="40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M15" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V15" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA15">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" t="s">
+        <v>269</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V16" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA16">
+        <v>130</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE16" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" t="s">
+        <v>297</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U17" t="s">
+        <v>300</v>
+      </c>
+      <c r="X17" s="31"/>
+      <c r="AD17" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE17" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="X18" s="31"/>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="X19" s="31"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="X20" s="31"/>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="X21" s="31"/>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="X22" s="31"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="X23" s="31"/>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="X24" s="31"/>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="X25" s="31"/>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="X26" s="31"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="X27" s="31"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="X28" s="31"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="X29" s="31"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="X30" s="31"/>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="X31" s="31"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="X32" s="31"/>
+    </row>
+    <row r="33" spans="24:24">
+      <c r="X33" s="31"/>
+    </row>
+    <row r="34" spans="24:24">
+      <c r="X34" s="31"/>
+    </row>
+    <row r="35" spans="24:24">
+      <c r="X35" s="31"/>
+    </row>
+    <row r="36" spans="24:24">
+      <c r="X36" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}"/>
+  <autoFilter ref="A1:W1" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{8CC932C3-7FF1-4CBE-AC5F-95D1BAEB23AF}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{ACC795F6-27FB-4197-8E77-BAE6FD4B0977}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{CBF31EA4-BAC3-4796-BE40-CEC49FABEC17}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{1D9E1721-DB68-45F1-90B7-29871AB19B58}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{70E61FC4-8007-404D-AEF8-FA2202FCAE72}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{6326C6C4-846F-445B-94B9-39AA99BD3A59}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{AAFAB3C4-B342-4536-997A-0499A8339412}"/>
+    <hyperlink ref="L8" r:id="rId8" xr:uid="{A87129C6-742E-4634-8EF7-9D02FE56ECE4}"/>
+    <hyperlink ref="L7" r:id="rId9" xr:uid="{DC2E6AD3-0F1C-4C39-8E22-ECF39C842305}"/>
+    <hyperlink ref="L10" r:id="rId10" xr:uid="{962798D7-DDB3-4B72-8B32-A21A9CC92FDD}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{6A91C522-B523-4DCF-8EBC-EB217DAFD8EE}"/>
+    <hyperlink ref="K9" r:id="rId12" xr:uid="{EC2B592D-886B-4EB9-98C9-E47522CA1664}"/>
+    <hyperlink ref="L9" r:id="rId13" xr:uid="{08438625-AA4C-4A90-95C3-FFD691995563}"/>
+    <hyperlink ref="AB9" r:id="rId14" xr:uid="{32840A4E-0CD2-4B19-A0A2-603207BD0F39}"/>
+    <hyperlink ref="AB10" r:id="rId15" xr:uid="{0FC945F7-0BCC-40F4-B4E3-E6F894016718}"/>
+    <hyperlink ref="AB3" r:id="rId16" xr:uid="{892FEFC0-275E-4B58-BD6C-D9BDFE0D4683}"/>
+    <hyperlink ref="Z4" r:id="rId17" xr:uid="{E7F32542-A0E9-4257-B181-0F070656A46B}"/>
+    <hyperlink ref="Z5" r:id="rId18" location="box_eventlist" xr:uid="{C91DC913-B4BE-439E-A172-CABC5BD9135C}"/>
+    <hyperlink ref="Z6" r:id="rId19" location="box_eventlist" xr:uid="{67A1985E-7360-40D8-B1A5-0A0A8347F1F3}"/>
+    <hyperlink ref="Z7" r:id="rId20" location="box_eventlist" xr:uid="{F523150D-BBB4-4101-92F0-B403FD1E1E29}"/>
+    <hyperlink ref="Z8" r:id="rId21" location="box_eventlist" xr:uid="{65FC9304-735F-4591-8831-97A124A03080}"/>
+    <hyperlink ref="AB4" r:id="rId22" xr:uid="{BB033F2D-BA45-4EC2-BECD-C271083EA49F}"/>
+    <hyperlink ref="AB5" r:id="rId23" xr:uid="{80E71080-A796-482D-AFE8-057F9DD033C2}"/>
+    <hyperlink ref="AB6" r:id="rId24" xr:uid="{4216133B-27C6-4840-BBCB-2927320E7BB9}"/>
+    <hyperlink ref="AB7" r:id="rId25" xr:uid="{A33E7745-3088-4FC7-B9F6-334EAF876555}"/>
+    <hyperlink ref="AB8" r:id="rId26" xr:uid="{B7593B2F-2A95-4944-9B48-B5659E284681}"/>
+    <hyperlink ref="K4" r:id="rId27" xr:uid="{C3130B72-0165-4E90-8275-C0F9022E4C0E}"/>
+    <hyperlink ref="K5" r:id="rId28" location="box_eventlist" xr:uid="{957040E1-67C5-4C26-B28E-7B78E078A5B7}"/>
+    <hyperlink ref="K6" r:id="rId29" location="box_eventlist" xr:uid="{E9D9A156-D816-48E2-A815-401344FDB15B}"/>
+    <hyperlink ref="K7" r:id="rId30" location="box_eventlist" xr:uid="{B4B69F15-159A-4D92-A803-846AF90EDB5A}"/>
+    <hyperlink ref="K8" r:id="rId31" location="box_eventlist" xr:uid="{DFC53AA5-6BCF-4F4C-818C-223B1B6F83F4}"/>
+    <hyperlink ref="K11" r:id="rId32" xr:uid="{42F0FFF5-ECD4-4C5D-A6B2-1A2796827423}"/>
+    <hyperlink ref="L11" r:id="rId33" xr:uid="{906417F1-A115-42CA-9DB1-2AA6F270AF56}"/>
+    <hyperlink ref="AB11" r:id="rId34" xr:uid="{2B99C277-A524-44C4-959D-A259057E2DCF}"/>
+    <hyperlink ref="L13" r:id="rId35" xr:uid="{01120292-E8C0-424E-8346-241376FE0528}"/>
+    <hyperlink ref="L14" r:id="rId36" xr:uid="{CD05EDE3-8105-4C85-A64E-DB39DD3B1620}"/>
+    <hyperlink ref="K13" r:id="rId37" xr:uid="{B5D4D292-0041-4DEA-BE63-83D14D66EDDB}"/>
+    <hyperlink ref="K14" r:id="rId38" xr:uid="{87A2E6C2-43A2-48E0-8F5D-55926481A8FA}"/>
+    <hyperlink ref="V13" r:id="rId39" xr:uid="{5CF90B70-0399-4A08-A04C-285E4080E9BB}"/>
+    <hyperlink ref="V14" r:id="rId40" xr:uid="{57563E15-8C24-4A36-8605-01E183D2335C}"/>
+    <hyperlink ref="AB13" r:id="rId41" xr:uid="{E57EB0D7-F269-4C81-858F-424E1536E6FB}"/>
+    <hyperlink ref="AB14" r:id="rId42" xr:uid="{6EFD9474-17B2-407A-9635-9617C89A7061}"/>
+    <hyperlink ref="L16" r:id="rId43" location="box_eventlist" xr:uid="{C8D18862-2904-4DC9-BCD9-EF2E4CE8F840}"/>
+    <hyperlink ref="L15" r:id="rId44" xr:uid="{CF3A4B1E-6246-4153-BCA5-6DEA7CD8128F}"/>
+    <hyperlink ref="K16" r:id="rId45" location="box_eventlist" xr:uid="{B01E5353-4015-4146-9B14-1B1CCE53F5E5}"/>
+    <hyperlink ref="K15" r:id="rId46" xr:uid="{560D83FF-C50C-4694-8721-F77C0BFF08C5}"/>
+    <hyperlink ref="AB15" r:id="rId47" xr:uid="{4011499F-8062-43B8-A75C-A9079EF2DB52}"/>
+    <hyperlink ref="AB16" r:id="rId48" xr:uid="{B6B3C075-FA6C-467D-8AA6-1D1EED92C415}"/>
+    <hyperlink ref="V15" r:id="rId49" xr:uid="{A072C560-8B04-430B-B1F6-B028E5FA9574}"/>
+    <hyperlink ref="V16" r:id="rId50" xr:uid="{ACA9C9AF-B973-43C4-9DB4-EBC4EECAAE25}"/>
+    <hyperlink ref="AK9" r:id="rId51" xr:uid="{E1E89324-2E73-407A-A30A-BDBE667C6060}"/>
+    <hyperlink ref="AK3" r:id="rId52" xr:uid="{D29EF5FB-36E0-463F-8BF5-132FE5F9A756}"/>
+    <hyperlink ref="AK4:AK8" r:id="rId53" display="https://www.bfz.de/kontakt" xr:uid="{01FE9A2A-D98E-4C72-A768-E4E97D2D26C9}"/>
+    <hyperlink ref="AK10" r:id="rId54" xr:uid="{D3534D7D-125C-4937-A705-03B6F4680DED}"/>
+    <hyperlink ref="AK11" r:id="rId55" xr:uid="{3D21D631-AA2F-409E-9F5C-4559889C3D91}"/>
+    <hyperlink ref="AK12" r:id="rId56" xr:uid="{D9C7ECDE-18FC-4416-B929-BE0EAB7C5622}"/>
+    <hyperlink ref="AK13" r:id="rId57" xr:uid="{90BE5531-03FA-4904-8588-E71407AF76F4}"/>
+    <hyperlink ref="AK14" r:id="rId58" xr:uid="{4132C431-E473-45EF-83C8-DB75A0F0851B}"/>
+    <hyperlink ref="AK15" r:id="rId59" xr:uid="{967ECC8C-EFCA-431C-874F-910F1558F1C8}"/>
+    <hyperlink ref="AK16" r:id="rId60" xr:uid="{32AE002E-D17E-4E2A-B510-AA0C0E1F52E7}"/>
+    <hyperlink ref="AK17" r:id="rId61" xr:uid="{9B55CF75-F045-419D-A6A4-15C1B4651E38}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422B2238F8DAAD478C0837055D4C9439" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cc5534cd780fd9e31c09b047b200ae0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8859808f-556d-416b-ba10-3a64d67cd7c4" xmlns:ns4="0a02612f-c061-4319-bfdb-b5863aa27d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47912ec95e7c0f2f58d4b636259ebaea" ns3:_="" ns4:_="">
     <xsd:import namespace="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
@@ -2010,10 +4407,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
+    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2036,20 +4461,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
-    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD449C-DAFA-4602-AAA2-F6B64AC054B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB96F4A6-3EFF-40F1-95FA-4B2370A2BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="345" windowWidth="23115" windowHeight="19830" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="26790" yWindow="4635" windowWidth="23820" windowHeight="19830" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="370">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>&lt;Label TextType=\"Html\"&gt;\r\n    &lt;![CDATA[\r\n       &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ec66b111-d8d0-4516-88ba-ee0b6fe6f695\" target=\"_blank\"&gt;Kundenbestellungen bearbeiten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/27536739-c38b-45d2-9e96-1573b1d32fdd\" target=\"_blank\"&gt;Verpackungszubehör nutzen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63\" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d5fa1ed6-6cd8-41b9-8e78-2ba168ff3457\" target=\"_blank\"&gt;Bestellungen aus dem Online-Geschäft bearbeiten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7838de1e-d65e-4a3f-b60b-e2213026116f\" target=\"_blank\"&gt;Geräte für den Materialtransport bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ab2bb44a-3956-4028-8715-8b70b1960b99\" target=\"_blank\"&gt;schwere Gewichte heben&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e0ae0101-ab8f-47a2-938b-ab0cc367b3b5\" target=\"_blank\"&gt;Lagerdatenbank pflegen&lt;/a&gt;.\r\n   \t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b91b6d4-345e-4195-a078-218514871e7b\" target=\"_blank\"&gt;effiziente Nutzung von Lagerraum sicherstellen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/28b7d7fb-0483-4877-9aaa-f990f10f16f5\" target=\"_blank\"&gt;Pick-by-Voice-Kommissionierungssysteme bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b2b8ec41-d6d1-470d-9e78-4eee515aaa3d\" target=\"_blank\"&gt;Kettensäge bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/23db1cab-e565-4a90-89f8-3a8685a20029\" target=\"_blank\"&gt;den physischen Zustand des Lagers pflegen und aufrechterhalten&lt;/a&gt;.   \r\n    ]]&gt;\r\n &lt;/Label&gt;</t>
-  </si>
-  <si>
-    <t>Bbw</t>
   </si>
   <si>
     <t>Online</t>
@@ -520,9 +517,6 @@
 Träger-Zertifikat</t>
   </si>
   <si>
-    <t>Bfz</t>
-  </si>
-  <si>
     <t>Teilqualifizierung zur schrittweisen Qualifizierung bis zum Berufsabschluss Fachlagerist*in
 Als Fachlagerist*in sind Sie unter anderem in Bereichen wie der Warenannahme oder dem Lager tätig. Im Modul 1 Güterbewegung und Arbeitsschutz lernen Sie Grundlagen über den Arbeitsschutz, Umweltschutz und rechtliche Grundlagen kennen. Mit dieser Teilqualifizierung machen Sie den ersten Schritt, hin zu einem anerkannten Berufsabschluss, zu dem Sie sich mit weiteren Modulen qualifizieren können.</t>
   </si>
@@ -680,13 +674,7 @@
 Sie wollen die Qualifizierung von zu Hause aus machen? Hierzu benötigen Sie die Zustimmung des Kostenträgers. Bei digitalen Umschulungen ist zusätzlich das Einverständnis der regionalen Kammer erforderlich.</t>
   </si>
   <si>
-    <t>Tuev</t>
-  </si>
-  <si>
     <t>Im Lager werden Produkte gelagert und umgeschlagen, kommissioniert, konfektioniert, verpackt, zum Versand vorbereitet oder auch Retouren bearbeitet. Mit diesem Seminar erhalten Sie einen fundierten und praxisorientierten Einblick in die Aufgaben der Lager- und Materialwirtschaft bei der betrieblichen Leistungserstellung und die wichtigsten Abwicklungsprozesse in der Lagerlogistik. Damit verfügen Sie über das notwendige "Handwerkszeug" für Ihre täglichen, operativen Aufgaben in einer modernen betrieblichen Lagerlogistik.</t>
-  </si>
-  <si>
-    <t>Grundlagen der Lagerwirtschaft kompakt.</t>
   </si>
   <si>
     <t>https://akademie.tuv.com/weiterbildungen/grundlagen-der-lagerwirtschaft-kompakt-557431</t>
@@ -915,9 +903,6 @@
     <t>12.05.2023</t>
   </si>
   <si>
-    <t>Hinweis Preis: Bei Förderung durch die Agentur für Arbeit mit einem Bildungsgutschein ist der Lehrgang kostenfrei!</t>
-  </si>
-  <si>
     <t>22.05.2023</t>
   </si>
   <si>
@@ -945,16 +930,6 @@
     <t>24.11.2023</t>
   </si>
   <si>
-    <t>https://akademie.tuv.com/weiterbildungen/praxiswissen-wareneingang-aufbau-workshop-fuer-lagerleiter-473630</t>
-  </si>
-  <si>
-    <t>Praxiswissen Wareneingang - Aufbau-Workshop für Lagerleiter.</t>
-  </si>
-  <si>
-    <t>Verbesserungspotenziale erkennen, Servicequalität optimieren und Logistikkosten reduzieren.
-Abwicklungsfehler und organisatorische Mängel im Wareneingang nehmen direkten Einfluss auf alle folgenden logistischen Prozesse und können wesentliche Ursache für hohe Logistikkosten und schlechte Servicequalität sein. Unser Workshop hilft Ihnen, komplexe Verantwortlichkeiten im Abwicklungsprozess Ihres Wareneingangs richtig einzuordnen und diese mit modernen Methoden umzusetzen.</t>
-  </si>
-  <si>
     <t>UnPublishingDate</t>
   </si>
   <si>
@@ -967,21 +942,6 @@
     <t>FACHLAGERIST*IN – GÜTERBEWEGUNG UND ARBEITSSCHUTZ (MODUL 1)</t>
   </si>
   <si>
-    <t>Lagerleiter, Fach- und Führungskräfte aus Wareneingang, Lager, Versand, Materialwirtschaft und Logistik.</t>
-  </si>
-  <si>
-    <t>Sie kennen die grundlegenden Aufgaben des Wareneingangs und wissen diese gezielt mit den notwendigen Instrumenten und Methoden im operativen Tagesgeschäft umzusetzen.
-Sie erhalten einen umfassenden, praxisbezogenen Leitfaden, um Teilprozesse im Wareneingang zu optimieren und Abweichungen zu korrigieren.
-Sie erreichen logistische Zielgrößen wie niedrige Bestände, kurze Durchlaufzeiten, Termintreue und guten Lieferservice mit geeigneten Methoden und wissen diese nachhaltig sicherzustellen.
-Sie berücksichtigen die Akteure im betrieblichen Leistungsprozess und verbessern damit nachhaltig die Material-, Informations- und Kommunikationsschnittstellen.</t>
-  </si>
-  <si>
-    <t>ab 975,00 €
-Nettopreis (zzgl. MwSt.)
-ab 1.160,25 €
-Bruttopreis (inkl. MwSt.)</t>
-  </si>
-  <si>
     <t>5 Module je 11 Wochen</t>
   </si>
   <si>
@@ -1000,22 +960,10 @@
     <t>3 Tage</t>
   </si>
   <si>
-    <t>2 Tage</t>
-  </si>
-  <si>
     <t>06.11.2023</t>
   </si>
   <si>
     <t>08.11.2023</t>
-  </si>
-  <si>
-    <t>07.02.2023</t>
-  </si>
-  <si>
-    <t>30.11.2023</t>
-  </si>
-  <si>
-    <t>01.12.2023</t>
   </si>
   <si>
     <t>Fachlagerist m/w/d Teilqualifizierung</t>
@@ -1037,9 +985,6 @@
     <t>Präsenz</t>
   </si>
   <si>
-    <t>Förderbar über Bildungsgutschein</t>
-  </si>
-  <si>
     <t>KAUFMANN*FRAU IM E-​COMMERCE – WARENWIRTSCHAFT UND ONLINEVERTRIEB (MODUL 1)</t>
   </si>
   <si>
@@ -1118,9 +1063,6 @@
     <t>beratung@bfz.de</t>
   </si>
   <si>
-    <t>24 Monate, Vollzeit</t>
-  </si>
-  <si>
     <t>19 Wochen</t>
   </si>
   <si>
@@ -1138,25 +1080,16 @@
     <t xml:space="preserve">Modularmaßnahme E – Commerce - Modul 1 Online Vertrieb </t>
   </si>
   <si>
-    <t>4 Monate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sie haben eine kaufmännische Ausbildung und wollen Ihr Qualifikationsprofil um den Bereich des E-Commerce erweitern? Dann ist diese Weiterbildung das Richtige für Sie.　 
 Der Onlinehandel ist eine Zukunftsbranche, die stetig weiterwächst. Immer mehr Unternehmen bauen ihr Online-Angebot aus und suchen dafür nach qualifizierten Fachkräften. Mitarbeiter: innen im E-Commerce betreuen Verkaufs- und Kaufprozesse von Waren oder Dienstleistungen im Internet und Online-Kundenservice. Sie haben Aufgaben im Einkauf, Werbung, Logistik oder auch in der IT. Auch die Kommunikation mit Kunden rund um Beratung, Bestellung und Reklamationen, die Auswahl und Pflege von Webshops oder virtuellen Marktplätzen können zu ihren Aufgaben gehören. </t>
   </si>
   <si>
-    <t>Förderung über Bildungsgutschein möglich, Förderung über Qualifizierungschancengesetz (für Arbeitnehmer) -&gt; Kosten werden über Förderung übernommen</t>
-  </si>
-  <si>
     <t xml:space="preserve">30.01.2022 </t>
   </si>
   <si>
     <t xml:space="preserve">31.05.2023 </t>
   </si>
   <si>
-    <t>0221 806-9000</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -1170,13 +1103,268 @@
   </si>
   <si>
     <t>https://www.biwe-bbq.de/</t>
+  </si>
+  <si>
+    <t>https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8</t>
+  </si>
+  <si>
+    <t>Die Teilqualifizierungen Fachlagerist (IHK) richten sich an Arbeitsuchende mit Berufserfahrung und Interesse an einer Tätigkeit Bereich Lagerlogistik.</t>
+  </si>
+  <si>
+    <t>Nach BBiG ist keine bestimmte Schulbildung vorgeschrieben (i.d.R. mind. Hauptschulabschluss). Interessenten sollten sich unverbindlich zu ihren Möglichkeiten beraten lassen.</t>
+  </si>
+  <si>
+    <t>Bildungsgutschein
+Berufsförderungsdienst der Bundeswehr (BFD)
+Berufsgenossenschaft
+Deutsche Rentenversicherung (DRV)
+Qualifizierungschancengesetz (für Arbeitnehmer)
+Selbstzahlung möglich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachlageristen finden Beschäftigung in Unternehmen nahezu aller Wirtschaftsbereiche.
+</t>
+  </si>
+  <si>
+    <t>Anerkannte Teilqualifikation
+Teilnahmebescheinigung TÜV Rheinland Akademie</t>
+  </si>
+  <si>
+    <t>44 Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zielsetzung: Teilnahme an der Externenprüfung und Erwerb des Facharbeiterabschlusses „Fachkraft für Lagerlogistik (IHK)". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung auf die Externenprüfung </t>
+  </si>
+  <si>
+    <t>Grundlagen der Lagerwirtschaft kompakt</t>
+  </si>
+  <si>
+    <t>https://www.tuv.com/jobfit</t>
+  </si>
+  <si>
+    <t>UseCaseId</t>
+  </si>
+  <si>
+    <t>SURVEY014</t>
+  </si>
+  <si>
+    <t>SURVEY015</t>
+  </si>
+  <si>
+    <t>SURVEY016</t>
+  </si>
+  <si>
+    <t>SURVEY017</t>
+  </si>
+  <si>
+    <t>SURVEY018</t>
+  </si>
+  <si>
+    <t>SURVEY019</t>
+  </si>
+  <si>
+    <t>SURVEY020</t>
+  </si>
+  <si>
+    <t>SURVEY021</t>
+  </si>
+  <si>
+    <t>SURVEY022</t>
+  </si>
+  <si>
+    <t>SURVEY023</t>
+  </si>
+  <si>
+    <t>SURVEY024</t>
+  </si>
+  <si>
+    <t>SURVEY025</t>
+  </si>
+  <si>
+    <t>SURVEY026</t>
+  </si>
+  <si>
+    <t>SURVEY027</t>
+  </si>
+  <si>
+    <t>SURVEY028</t>
+  </si>
+  <si>
+    <t>SURVEY029</t>
+  </si>
+  <si>
+    <t>SURVEY030</t>
+  </si>
+  <si>
+    <t>SURVEY031</t>
+  </si>
+  <si>
+    <t>SURVEY032</t>
+  </si>
+  <si>
+    <t>SURVEY033</t>
+  </si>
+  <si>
+    <t>SURVEY034</t>
+  </si>
+  <si>
+    <t>SURVEY035</t>
+  </si>
+  <si>
+    <t>SURVEY036</t>
+  </si>
+  <si>
+    <t>SURVEY037</t>
+  </si>
+  <si>
+    <t>SURVEY038</t>
+  </si>
+  <si>
+    <t>SURVEY039</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungsportal/themen/coaching-qualifizierung/einzelansicht/tq-ecommerce-hybrid?</t>
+  </si>
+  <si>
+    <t>https://kurse.tuv.com/details/e-commerce-weiterbildung-fuer-kaufleute_wftth</t>
+  </si>
+  <si>
+    <t>Die Weiterbildung richtet sich sowohl an Arbeitssuchende als auch an Beschäftigte mit kaufmännischer Berufsausbildung oder langjähriger Berufserfahrung, die ihr kaufmännisches Profil mit dieser Zusatzqualifikation um den Bereich E-Commerce erweitern möchten.</t>
+  </si>
+  <si>
+    <t>Für die E-Commerce Weiterbildung für Kaufleute benötigen Sie eine kaufmännische Ausbildung oder langjährige Berufserfahrung im kaufmännischen Bereich.</t>
+  </si>
+  <si>
+    <t>Mit dieser Weiterbildung erweitern Sie Ihr vorhandenes kaufmännische Wissen um den Bereich E-Commerce, um kaufmännische Aufgaben im Onlinehandel übernehmen zu können.
+Sie kennen die Besonderheiten des Onlinehandels und können grundlegende kaufmännischen Aufgaben im Unternehmen übernehmen.
+Sie können Ihr neu erlerntes Wissen im Bereich Onlinehandel und Online Shop Management zielführend einsetzen und verfügen über das nötige Rüstzeug, um sowohl bestehende Webshops zu pflegen und zu optimieren, als auch neue Online Shops aufbauen zu können.
+Sie erlangen die Fähigkeit, Markt- und Zielgruppenanalysen durchzuführen.
+Sie beherrschen die kunden-und serviceorientierte Kommunikation im Onlinehandel.</t>
+  </si>
+  <si>
+    <t>Teilnahmebescheinigung TÜV Rheinland Akademie</t>
+  </si>
+  <si>
+    <t>Bildungsgutschein
+Qualifizierungschancengesetz (für Arbeitnehmer)</t>
+  </si>
+  <si>
+    <t>3 bis 6 Monate</t>
+  </si>
+  <si>
+    <t>Nadja Seidel</t>
+  </si>
+  <si>
+    <t>+49800117727720</t>
+  </si>
+  <si>
+    <t>bbw</t>
+  </si>
+  <si>
+    <t>TüV Rheinland Akademie</t>
+  </si>
+  <si>
+    <t>bfz</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik?1</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik?2</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik?3</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik?4</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik?5</t>
+  </si>
+  <si>
+    <t>TQ-Modul 1 - Wareneingang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQ-Modul 2 - Lagerung </t>
+  </si>
+  <si>
+    <t>TQ-Modul 3 - Innerbetriebliche Logistik und Kontrolle</t>
+  </si>
+  <si>
+    <t>TQ-Modul 4 - Kommissionierung und Endkontrolle</t>
+  </si>
+  <si>
+    <t>TQ-Modul 5 - Versand</t>
+  </si>
+  <si>
+    <t>TQ-Modul 6 - Arbeitsorganisation und Qualitätssicherung</t>
+  </si>
+  <si>
+    <t>https://www.biwe-bbq.de/weiterbildungen/anzeige/tq-lagerlogistik?6</t>
+  </si>
+  <si>
+    <t>Mitwirken bei logistischen Planungs- und Organisationsprozessen, Mitwirken bei qualitätssichernden Maßnahmen, Planen, Organisieren und Überwachen des Einsatzes von Arbeits- und Fördermitteln</t>
+  </si>
+  <si>
+    <t>Annehmen der Güter, Entladen und Kontrollieren der Lieferung, Prüfen der Lieferung anhand der Begleitpapiere, Abschluss Flurförderschein</t>
+  </si>
+  <si>
+    <t>Auspacken, Sortieren und Lagern der Güter anforderungsgerecht und nach wirtschaftlichen Grundsätzen unter Beachtung der Lagerordnung , Transportieren und Zuleiten der Güter zum betrieblichen Bestimmungsort</t>
+  </si>
+  <si>
+    <t>Anwenden betrieblicher Informations- und Kommunikationssysteme, Standardsoftware und arbeitsplatzbezogener Software, Anwenden fachspezifischer Fremdsprachenkenntnisse, Durchführen von Bestandskontrollen und Maßnahmen der Bestandspflege</t>
+  </si>
+  <si>
+    <t>Erstellen von Ladelisten/Beladeplänen unter Beachtung von Ladevorschriften, Kennzeichnen, Beschriften und Sichern von Sendungen nach gesetzlichen Vorgaben, Kommissionieren und Verpacken der Güter für Sendungen und Zusammenstellen zu Ladeeinheiten</t>
+  </si>
+  <si>
+    <t>Kennzeichnen, Beschriften und Sichern von Sendungen nach gesetzlichen Vorgaben, Bearbeiten der Versand- und Begleitpapiere und Erstellen von Versandaufzeichnungen</t>
+  </si>
+  <si>
+    <t>https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8?1</t>
+  </si>
+  <si>
+    <t>https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8?2</t>
+  </si>
+  <si>
+    <t>https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8?3</t>
+  </si>
+  <si>
+    <t>https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8?4</t>
+  </si>
+  <si>
+    <t>TQ2: Innerbetrieblicher Transport</t>
+  </si>
+  <si>
+    <t>TQ1: Wareneingang</t>
+  </si>
+  <si>
+    <t>TQ3: Lagerung von Gütern</t>
+  </si>
+  <si>
+    <t>TQ4: Kommissionierung</t>
+  </si>
+  <si>
+    <t>TQ5: Versand</t>
+  </si>
+  <si>
+    <t>2.880,00 € MwSt. Frei - Hinweis Preis: Bei Förderung durch die Agentur für Arbeit mit einem Bildungsgutschein ist der Lehrgang kostenfrei!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung </t>
+  </si>
+  <si>
+    <t>24 Monate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,12 +1418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF666666"/>
       <name val="Open Sans"/>
@@ -1256,11 +1438,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -1295,8 +1472,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,6 +1513,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,9 +1577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1401,29 +1595,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1431,22 +1618,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
@@ -1454,7 +1634,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1770,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
-  <dimension ref="A1:BO14"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,810 +1989,2102 @@
     <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:68" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="BP1" s="5" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="14">
         <v>6</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" s="14">
+        <v>1</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="U2" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="U2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AK2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BC2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BE2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="14">
         <v>5</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="14">
         <v>0</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="14">
         <v>0</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="14">
         <v>2</v>
       </c>
+      <c r="BP2" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="14">
         <v>6</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" s="14">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="U3" t="s">
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="s">
+      <c r="AK3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AX3" s="2"/>
-      <c r="BC3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD3" s="3"/>
-      <c r="BJ3" t="s">
+      <c r="AX3" s="20"/>
+      <c r="BC3" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD3" s="15"/>
+      <c r="BJ3" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP3" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="14">
         <v>6</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="U4" t="s">
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="U4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="s">
+      <c r="AK4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AX4" s="2"/>
-      <c r="BC4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD4" s="3"/>
-      <c r="BJ4" t="s">
+      <c r="AX4" s="20"/>
+      <c r="BC4" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD4" s="15"/>
+      <c r="BJ4" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP4" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="14">
         <v>6</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="U5" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="U5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="AK5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AX5" s="2"/>
-      <c r="BC5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD5" s="3"/>
-      <c r="BJ5" t="s">
+      <c r="AX5" s="20"/>
+      <c r="BC5" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD5" s="15"/>
+      <c r="BJ5" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP5" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="14">
         <v>6</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="U6" t="s">
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="U6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="AK6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AX6" s="2"/>
-      <c r="BC6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD6" s="3"/>
-      <c r="BJ6" t="s">
+      <c r="AX6" s="20"/>
+      <c r="BC6" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD6" s="15"/>
+      <c r="BJ6" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP6" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:67">
-      <c r="A7" t="s">
+    <row r="7" spans="1:68" s="14" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="14">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AK7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ7" t="s">
+      <c r="BC7" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ7" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP7" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:67">
-      <c r="A8" t="s">
+    <row r="8" spans="1:68" s="14" customFormat="1">
+      <c r="A8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" s="14">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="s">
+      <c r="AK8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BC8" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ8" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP8" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:67">
-      <c r="A9" t="s">
+    <row r="9" spans="1:68" s="14" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="14">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" s="14">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AT9" t="s">
+      <c r="AK9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ9" t="s">
+      <c r="BC9" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ9" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP9" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:67">
-      <c r="A10" t="s">
+    <row r="10" spans="1:68" s="14" customFormat="1">
+      <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="14">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" s="14">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="s">
+      <c r="AK10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BC10" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ10" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP10" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:67">
-      <c r="A11" t="s">
+    <row r="11" spans="1:68" s="14" customFormat="1">
+      <c r="A11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="14">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
-      <c r="AT11" t="s">
+      <c r="AK11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BC11" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ11" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP11" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:67">
-      <c r="A12" t="s">
+    <row r="12" spans="1:68" s="14" customFormat="1">
+      <c r="A12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="14">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="s">
+      <c r="AK12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ12" t="s">
+      <c r="BC12" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ12" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP12" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:67">
-      <c r="A13" t="s">
+    <row r="13" spans="1:68" s="14" customFormat="1">
+      <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="14">
         <v>6</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AT13" t="s">
+      <c r="AK13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BC13" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ13" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="BP13" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:67">
-      <c r="A14" t="s">
+    <row r="14" spans="1:68" s="14" customFormat="1">
+      <c r="A14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="14">
         <v>6</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
-      <c r="AT14" t="s">
+      <c r="AK14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BC14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BC14" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ14" s="14" t="s">
         <v>120</v>
+      </c>
+      <c r="BP14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="38">
+        <v>6</v>
+      </c>
+      <c r="N15" s="38">
+        <v>1</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="U15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK15" s="38">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC15" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD15" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF15" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI15" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ15" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM15" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="38">
+        <v>2</v>
+      </c>
+      <c r="BP15" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="38">
+        <v>6</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="U16" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK16" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX16" s="40"/>
+      <c r="BC16" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD16" s="42"/>
+      <c r="BJ16" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP16" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="38">
+        <v>6</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="U17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK17" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX17" s="40"/>
+      <c r="BC17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD17" s="42"/>
+      <c r="BJ17" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP17" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="38">
+        <v>6</v>
+      </c>
+      <c r="N18" s="38">
+        <v>1</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="U18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK18" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX18" s="40"/>
+      <c r="BC18" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD18" s="42"/>
+      <c r="BJ18" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP18" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="38">
+        <v>6</v>
+      </c>
+      <c r="N19" s="38">
+        <v>1</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="U19" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK19" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX19" s="40"/>
+      <c r="BC19" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD19" s="42"/>
+      <c r="BJ19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP19" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" s="38" customFormat="1">
+      <c r="A20" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="38">
+        <v>6</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC20" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ20" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP20" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" s="38" customFormat="1">
+      <c r="A21" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="38">
+        <v>6</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP21" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" s="38" customFormat="1">
+      <c r="A22" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="38">
+        <v>6</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK22" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC22" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ22" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP22" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" s="38" customFormat="1">
+      <c r="A23" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="38">
+        <v>6</v>
+      </c>
+      <c r="N23" s="38">
+        <v>1</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ23" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP23" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" s="38" customFormat="1">
+      <c r="A24" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="38">
+        <v>6</v>
+      </c>
+      <c r="N24" s="38">
+        <v>1</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK24" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC24" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ24" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP24" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" s="38" customFormat="1">
+      <c r="A25" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="38">
+        <v>6</v>
+      </c>
+      <c r="N25" s="38">
+        <v>1</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK25" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC25" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ25" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP25" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" s="38" customFormat="1">
+      <c r="A26" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="38">
+        <v>6</v>
+      </c>
+      <c r="N26" s="38">
+        <v>1</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK26" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC26" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ26" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP26" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" s="38" customFormat="1">
+      <c r="A27" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="38">
+        <v>6</v>
+      </c>
+      <c r="N27" s="38">
+        <v>1</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK27" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC27" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ27" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP27" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A28" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="43">
+        <v>6</v>
+      </c>
+      <c r="N28" s="43">
+        <v>1</v>
+      </c>
+      <c r="O28" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="U28" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK28" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT28" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW28" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX28" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC28" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD28" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF28" s="43">
+        <v>5</v>
+      </c>
+      <c r="BI28" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ28" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM28" s="43">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="43">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="43">
+        <v>2</v>
+      </c>
+      <c r="BP28" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A29" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="43">
+        <v>6</v>
+      </c>
+      <c r="N29" s="43">
+        <v>1</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="U29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX29" s="45"/>
+      <c r="BC29" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD29" s="47"/>
+      <c r="BJ29" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP29" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="43">
+        <v>6</v>
+      </c>
+      <c r="N30" s="43">
+        <v>1</v>
+      </c>
+      <c r="O30" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="U30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX30" s="45"/>
+      <c r="BC30" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD30" s="47"/>
+      <c r="BJ30" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP30" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A31" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="43">
+        <v>6</v>
+      </c>
+      <c r="N31" s="43">
+        <v>1</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="U31" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK31" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX31" s="45"/>
+      <c r="BC31" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD31" s="47"/>
+      <c r="BJ31" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP31" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A32" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="43">
+        <v>6</v>
+      </c>
+      <c r="N32" s="43">
+        <v>1</v>
+      </c>
+      <c r="O32" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="U32" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX32" s="45"/>
+      <c r="BC32" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD32" s="47"/>
+      <c r="BJ32" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP32" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68" s="43" customFormat="1">
+      <c r="A33" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="43">
+        <v>6</v>
+      </c>
+      <c r="N33" s="43">
+        <v>1</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC33" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ33" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP33" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68" s="43" customFormat="1">
+      <c r="A34" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="43">
+        <v>6</v>
+      </c>
+      <c r="N34" s="43">
+        <v>1</v>
+      </c>
+      <c r="O34" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK34" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC34" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ34" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP34" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68" s="43" customFormat="1">
+      <c r="A35" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="43">
+        <v>6</v>
+      </c>
+      <c r="N35" s="43">
+        <v>1</v>
+      </c>
+      <c r="O35" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U35" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK35" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC35" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ35" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP35" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68" s="43" customFormat="1">
+      <c r="A36" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="43">
+        <v>6</v>
+      </c>
+      <c r="N36" s="43">
+        <v>1</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK36" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC36" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ36" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP36" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68" s="43" customFormat="1">
+      <c r="A37" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="43">
+        <v>6</v>
+      </c>
+      <c r="N37" s="43">
+        <v>1</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK37" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC37" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ37" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP37" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" s="43" customFormat="1">
+      <c r="A38" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="43">
+        <v>6</v>
+      </c>
+      <c r="N38" s="43">
+        <v>1</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK38" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC38" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ38" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP38" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" s="43" customFormat="1">
+      <c r="A39" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="43">
+        <v>6</v>
+      </c>
+      <c r="N39" s="43">
+        <v>1</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK39" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC39" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ39" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP39" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" s="43" customFormat="1">
+      <c r="A40" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="43">
+        <v>6</v>
+      </c>
+      <c r="N40" s="43">
+        <v>1</v>
+      </c>
+      <c r="O40" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK40" s="43">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC40" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ40" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP40" s="43">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AX2" r:id="rId1" xr:uid="{5C81AC78-3D99-4DBA-80B6-F5AA3154C2C8}"/>
+    <hyperlink ref="AX15" r:id="rId2" xr:uid="{5DB99358-8224-438C-BD04-6B9F90AE89DF}"/>
+    <hyperlink ref="AX28" r:id="rId3" xr:uid="{A2960A3B-6E5F-4726-807B-7EADE771BCF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}">
-  <dimension ref="A1:AK36"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2597,10 +4095,10 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="109.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2612,128 +4110,129 @@
     <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="18"/>
-    <col min="26" max="26" width="14" style="18" customWidth="1"/>
+    <col min="24" max="24" width="31.42578125" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="14"/>
+    <col min="26" max="26" width="14" style="14" customWidth="1"/>
     <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28" customWidth="1"/>
     <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" style="21" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="17" customWidth="1"/>
     <col min="32" max="32" width="16.42578125" customWidth="1"/>
     <col min="33" max="36" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="13" customFormat="1" ht="18.75">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:37" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="AC1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="Z1" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AG1" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>304</v>
+      <c r="AK1" s="10" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="16.5" customHeight="1">
@@ -2752,7 +4251,7 @@
       <c r="F2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H2" t="s">
@@ -2761,25 +4260,25 @@
       <c r="I2" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>127</v>
       </c>
       <c r="M2" t="s">
         <v>128</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>130</v>
       </c>
       <c r="Q2" t="s">
@@ -2804,583 +4303,502 @@
         <v>1</v>
       </c>
       <c r="AB2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1">
+    <row r="3" spans="1:37" ht="16.5" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>139</v>
+      <c r="J3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="M3" t="s">
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" t="s">
         <v>136</v>
       </c>
-      <c r="Y3" s="18" t="s">
-        <v>225</v>
-      </c>
       <c r="AA3">
-        <v>101</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>184</v>
       </c>
       <c r="AC3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>306</v>
+        <v>185</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1">
+    <row r="4" spans="1:37" ht="16.5" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>155</v>
+      <c r="J4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="M4" t="s">
         <v>128</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V4" t="s">
         <v>136</v>
       </c>
-      <c r="Y4" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>217</v>
-      </c>
       <c r="AA4">
-        <v>101</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>184</v>
       </c>
       <c r="AC4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>306</v>
+        <v>185</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
+    <row r="5" spans="1:37" ht="16.5" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>154</v>
+      <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="M5" t="s">
         <v>128</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V5" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="O5" t="s">
+        <v>355</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" t="s">
         <v>136</v>
       </c>
-      <c r="Y5" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>218</v>
-      </c>
       <c r="AA5">
-        <v>101</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE5" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>306</v>
+        <v>185</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>159</v>
+      <c r="J6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="M6" t="s">
         <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>169</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="O6" t="s">
+        <v>356</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V6" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="AA6">
-        <v>101</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD6" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>306</v>
+        <v>185</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1">
+    <row r="7" spans="1:37" ht="16.5" customHeight="1">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>161</v>
+      <c r="J7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="M7" t="s">
         <v>128</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V7" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="O7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" t="s">
+        <v>135</v>
+      </c>
+      <c r="V7" t="s">
         <v>136</v>
       </c>
-      <c r="Z7" s="24" t="s">
-        <v>221</v>
-      </c>
       <c r="AA7">
-        <v>101</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>184</v>
       </c>
       <c r="AC7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD7" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>306</v>
+        <v>185</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1">
+    <row r="8" spans="1:37" ht="16.5" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>160</v>
+      <c r="J8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="M8" t="s">
         <v>128</v>
       </c>
       <c r="N8" t="s">
-        <v>171</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="O8" t="s">
+        <v>352</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" t="s">
+        <v>135</v>
+      </c>
+      <c r="V8" t="s">
         <v>136</v>
       </c>
-      <c r="Z8" s="24" t="s">
-        <v>222</v>
-      </c>
       <c r="AA8">
-        <v>101</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>306</v>
+        <v>185</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1">
@@ -3388,73 +4806,88 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
         <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" t="s">
-        <v>191</v>
       </c>
       <c r="I9" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>192</v>
+      <c r="J9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="M9" t="s">
         <v>128</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="V9" s="22"/>
-      <c r="Y9" s="18" t="s">
-        <v>231</v>
+        <v>139</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="AA9">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>199</v>
+        <v>101</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="AC9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD9" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>305</v>
+        <v>208</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1">
@@ -3462,174 +4895,189 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>177</v>
+      <c r="J10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="M10" t="s">
         <v>128</v>
       </c>
       <c r="N10" t="s">
-        <v>176</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="T10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="23"/>
-      <c r="X10" s="16">
-        <v>1547</v>
-      </c>
-      <c r="Y10" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z10" s="19"/>
+        <v>239</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="AA10">
-        <v>201</v>
-      </c>
-      <c r="AB10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AC10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE10" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AD10" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>207</v>
-      </c>
       <c r="AF10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>307</v>
+        <v>212</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="25">
-        <v>1</v>
-      </c>
-      <c r="B11" s="25">
-        <v>201</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="9" t="s">
+    <row r="11" spans="1:37" ht="15" customHeight="1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>138</v>
+      <c r="H11" t="s">
+        <v>137</v>
       </c>
       <c r="I11" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="X11" s="29">
-        <v>1160.25</v>
-      </c>
-      <c r="Y11" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>201</v>
-      </c>
-      <c r="AB11" s="27" t="s">
+      <c r="N11" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA11">
+        <v>101</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AC11" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD11" s="30" t="s">
+      <c r="AC11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD11" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AE11" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF11" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG11" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH11" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>307</v>
+      <c r="AE11" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1">
@@ -3637,548 +5085,1452 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>202</v>
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>337</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
         <v>126</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>266</v>
+      <c r="J12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="M12" t="s">
         <v>128</v>
       </c>
       <c r="N12" t="s">
-        <v>263</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="U12" t="s">
-        <v>268</v>
-      </c>
-      <c r="X12" s="31">
-        <v>2245</v>
-      </c>
-      <c r="AE12" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>307</v>
+        <v>167</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA12">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="33">
-        <v>2</v>
-      </c>
-      <c r="B13" s="33">
-        <v>30</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="34" t="s">
+    <row r="13" spans="1:37" ht="15" customHeight="1">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>138</v>
+      <c r="H13" t="s">
+        <v>137</v>
       </c>
       <c r="I13" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="M13" s="33" t="s">
+      <c r="J13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="T13" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="U13" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="V13" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA13" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="40" t="s">
+      <c r="N13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" t="s">
+        <v>151</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA13">
+        <v>101</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AC13" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD13" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE13" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK13" s="40" t="s">
-        <v>308</v>
-      </c>
     </row>
-    <row r="14" spans="1:37" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="38">
-        <v>2</v>
-      </c>
-      <c r="B14" s="38">
-        <v>31</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="39" t="s">
+    <row r="14" spans="1:37" ht="15" customHeight="1">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="38" t="s">
-        <v>138</v>
+      <c r="H14" t="s">
+        <v>137</v>
       </c>
       <c r="I14" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="M14" s="38" t="s">
+      <c r="J14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="S14" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="T14" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="V14" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA14" s="38">
-        <v>30</v>
-      </c>
-      <c r="AB14" s="40" t="s">
+      <c r="N14" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA14">
+        <v>101</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK14" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="AC14" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD14" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE14" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK14" s="40" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="I15" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>276</v>
+      <c r="J15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="M15" t="s">
         <v>128</v>
       </c>
       <c r="N15" t="s">
-        <v>289</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V15" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>191</v>
+      </c>
+      <c r="R15" t="s">
+        <v>193</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="X15" s="12">
+        <v>2880</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA15">
+        <v>102</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK15" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="AA15">
-        <v>130</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK15" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" t="s">
         <v>137</v>
-      </c>
-      <c r="F16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" t="s">
-        <v>138</v>
       </c>
       <c r="I16" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>290</v>
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="M16" t="s">
         <v>128</v>
       </c>
       <c r="N16" t="s">
-        <v>269</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V16" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y16" s="18" t="s">
-        <v>294</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="T16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="V16" s="19"/>
+      <c r="X16" s="12">
+        <v>1547</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="15"/>
       <c r="AA16">
-        <v>130</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>275</v>
+        <v>201</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="AC16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE16" s="21" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>203</v>
       </c>
       <c r="AF16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK16" s="2" t="s">
-        <v>306</v>
+        <v>204</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="I17" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>298</v>
+      <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="M17" t="s">
         <v>128</v>
       </c>
       <c r="N17" t="s">
-        <v>297</v>
-      </c>
-      <c r="O17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X17" s="12">
+        <v>2245</v>
+      </c>
+      <c r="Y17" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>201</v>
+      </c>
+      <c r="AB17" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC17" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK17" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="U17" t="s">
-        <v>300</v>
-      </c>
-      <c r="X17" s="31"/>
-      <c r="AD17" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE17" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>307</v>
-      </c>
     </row>
-    <row r="18" spans="1:37">
-      <c r="X18" s="31"/>
+    <row r="18" spans="1:37" ht="15" customHeight="1">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M18" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" t="s">
+        <v>363</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="48"/>
+      <c r="AA18" s="21">
+        <v>201</v>
+      </c>
+      <c r="AB18" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC18" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD18" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
-      <c r="X19" s="31"/>
+    <row r="19" spans="1:37" ht="15" customHeight="1">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" t="s">
+        <v>338</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" t="s">
+        <v>362</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="48"/>
+      <c r="AA19" s="21">
+        <v>201</v>
+      </c>
+      <c r="AB19" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC19" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD19" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
-      <c r="X20" s="31"/>
+    <row r="20" spans="1:37" ht="15" customHeight="1">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" t="s">
+        <v>364</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="48"/>
+      <c r="AA20" s="21">
+        <v>201</v>
+      </c>
+      <c r="AB20" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD20" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
-      <c r="X21" s="31"/>
+    <row r="21" spans="1:37" ht="15" customHeight="1">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" t="s">
+        <v>365</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="48"/>
+      <c r="AA21" s="21">
+        <v>201</v>
+      </c>
+      <c r="AB21" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="22" spans="1:37">
-      <c r="X22" s="31"/>
+    <row r="22" spans="1:37" ht="15" customHeight="1">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" t="s">
+        <v>366</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="48"/>
+      <c r="AA22" s="21">
+        <v>201</v>
+      </c>
+      <c r="AB22" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC22" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD22" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="23" spans="1:37">
-      <c r="X23" s="31"/>
+    <row r="23" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="24">
+        <v>2</v>
+      </c>
+      <c r="B23" s="24">
+        <v>30</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="U23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="V23" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA23" s="24">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD23" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE23" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF23" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK23" s="31" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="24" spans="1:37">
-      <c r="X24" s="31"/>
+    <row r="24" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="29">
+        <v>2</v>
+      </c>
+      <c r="B24" s="29">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="V24" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC24" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD24" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE24" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF24" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK24" s="31" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="25" spans="1:37">
-      <c r="X25" s="31"/>
+    <row r="25" spans="1:37" ht="15" customHeight="1">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V25" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA25">
+        <v>130</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC25" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="26" spans="1:37">
-      <c r="X26" s="31"/>
+    <row r="26" spans="1:37" ht="15" customHeight="1">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" t="s">
+        <v>337</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V26" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA26">
+        <v>130</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="27" spans="1:37">
-      <c r="X27" s="31"/>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="X28" s="31"/>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="X29" s="31"/>
-    </row>
-    <row r="30" spans="1:37">
-      <c r="X30" s="31"/>
-    </row>
-    <row r="31" spans="1:37">
-      <c r="X31" s="31"/>
-    </row>
-    <row r="32" spans="1:37">
-      <c r="X32" s="31"/>
-    </row>
-    <row r="33" spans="24:24">
-      <c r="X33" s="31"/>
-    </row>
-    <row r="34" spans="24:24">
-      <c r="X34" s="31"/>
-    </row>
-    <row r="35" spans="24:24">
-      <c r="X35" s="31"/>
-    </row>
-    <row r="36" spans="24:24">
-      <c r="X36" s="31"/>
+    <row r="27" spans="1:37" ht="15" customHeight="1">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>230</v>
+      </c>
+      <c r="D27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" t="s">
+        <v>338</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M27" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27" t="s">
+        <v>280</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R27" t="s">
+        <v>330</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA27">
+        <v>201</v>
+      </c>
+      <c r="AB27" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE27" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{8CC932C3-7FF1-4CBE-AC5F-95D1BAEB23AF}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{ACC795F6-27FB-4197-8E77-BAE6FD4B0977}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{CBF31EA4-BAC3-4796-BE40-CEC49FABEC17}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{1D9E1721-DB68-45F1-90B7-29871AB19B58}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{70E61FC4-8007-404D-AEF8-FA2202FCAE72}"/>
-    <hyperlink ref="L5" r:id="rId6" xr:uid="{6326C6C4-846F-445B-94B9-39AA99BD3A59}"/>
-    <hyperlink ref="L6" r:id="rId7" xr:uid="{AAFAB3C4-B342-4536-997A-0499A8339412}"/>
-    <hyperlink ref="L8" r:id="rId8" xr:uid="{A87129C6-742E-4634-8EF7-9D02FE56ECE4}"/>
-    <hyperlink ref="L7" r:id="rId9" xr:uid="{DC2E6AD3-0F1C-4C39-8E22-ECF39C842305}"/>
-    <hyperlink ref="L10" r:id="rId10" xr:uid="{962798D7-DDB3-4B72-8B32-A21A9CC92FDD}"/>
-    <hyperlink ref="K10" r:id="rId11" xr:uid="{6A91C522-B523-4DCF-8EBC-EB217DAFD8EE}"/>
-    <hyperlink ref="K9" r:id="rId12" xr:uid="{EC2B592D-886B-4EB9-98C9-E47522CA1664}"/>
-    <hyperlink ref="L9" r:id="rId13" xr:uid="{08438625-AA4C-4A90-95C3-FFD691995563}"/>
-    <hyperlink ref="AB9" r:id="rId14" xr:uid="{32840A4E-0CD2-4B19-A0A2-603207BD0F39}"/>
-    <hyperlink ref="AB10" r:id="rId15" xr:uid="{0FC945F7-0BCC-40F4-B4E3-E6F894016718}"/>
-    <hyperlink ref="AB3" r:id="rId16" xr:uid="{892FEFC0-275E-4B58-BD6C-D9BDFE0D4683}"/>
-    <hyperlink ref="Z4" r:id="rId17" xr:uid="{E7F32542-A0E9-4257-B181-0F070656A46B}"/>
-    <hyperlink ref="Z5" r:id="rId18" location="box_eventlist" xr:uid="{C91DC913-B4BE-439E-A172-CABC5BD9135C}"/>
-    <hyperlink ref="Z6" r:id="rId19" location="box_eventlist" xr:uid="{67A1985E-7360-40D8-B1A5-0A0A8347F1F3}"/>
-    <hyperlink ref="Z7" r:id="rId20" location="box_eventlist" xr:uid="{F523150D-BBB4-4101-92F0-B403FD1E1E29}"/>
-    <hyperlink ref="Z8" r:id="rId21" location="box_eventlist" xr:uid="{65FC9304-735F-4591-8831-97A124A03080}"/>
-    <hyperlink ref="AB4" r:id="rId22" xr:uid="{BB033F2D-BA45-4EC2-BECD-C271083EA49F}"/>
-    <hyperlink ref="AB5" r:id="rId23" xr:uid="{80E71080-A796-482D-AFE8-057F9DD033C2}"/>
-    <hyperlink ref="AB6" r:id="rId24" xr:uid="{4216133B-27C6-4840-BBCB-2927320E7BB9}"/>
-    <hyperlink ref="AB7" r:id="rId25" xr:uid="{A33E7745-3088-4FC7-B9F6-334EAF876555}"/>
-    <hyperlink ref="AB8" r:id="rId26" xr:uid="{B7593B2F-2A95-4944-9B48-B5659E284681}"/>
-    <hyperlink ref="K4" r:id="rId27" xr:uid="{C3130B72-0165-4E90-8275-C0F9022E4C0E}"/>
-    <hyperlink ref="K5" r:id="rId28" location="box_eventlist" xr:uid="{957040E1-67C5-4C26-B28E-7B78E078A5B7}"/>
-    <hyperlink ref="K6" r:id="rId29" location="box_eventlist" xr:uid="{E9D9A156-D816-48E2-A815-401344FDB15B}"/>
-    <hyperlink ref="K7" r:id="rId30" location="box_eventlist" xr:uid="{B4B69F15-159A-4D92-A803-846AF90EDB5A}"/>
-    <hyperlink ref="K8" r:id="rId31" location="box_eventlist" xr:uid="{DFC53AA5-6BCF-4F4C-818C-223B1B6F83F4}"/>
-    <hyperlink ref="K11" r:id="rId32" xr:uid="{42F0FFF5-ECD4-4C5D-A6B2-1A2796827423}"/>
-    <hyperlink ref="L11" r:id="rId33" xr:uid="{906417F1-A115-42CA-9DB1-2AA6F270AF56}"/>
-    <hyperlink ref="AB11" r:id="rId34" xr:uid="{2B99C277-A524-44C4-959D-A259057E2DCF}"/>
-    <hyperlink ref="L13" r:id="rId35" xr:uid="{01120292-E8C0-424E-8346-241376FE0528}"/>
-    <hyperlink ref="L14" r:id="rId36" xr:uid="{CD05EDE3-8105-4C85-A64E-DB39DD3B1620}"/>
-    <hyperlink ref="K13" r:id="rId37" xr:uid="{B5D4D292-0041-4DEA-BE63-83D14D66EDDB}"/>
-    <hyperlink ref="K14" r:id="rId38" xr:uid="{87A2E6C2-43A2-48E0-8F5D-55926481A8FA}"/>
-    <hyperlink ref="V13" r:id="rId39" xr:uid="{5CF90B70-0399-4A08-A04C-285E4080E9BB}"/>
-    <hyperlink ref="V14" r:id="rId40" xr:uid="{57563E15-8C24-4A36-8605-01E183D2335C}"/>
-    <hyperlink ref="AB13" r:id="rId41" xr:uid="{E57EB0D7-F269-4C81-858F-424E1536E6FB}"/>
-    <hyperlink ref="AB14" r:id="rId42" xr:uid="{6EFD9474-17B2-407A-9635-9617C89A7061}"/>
-    <hyperlink ref="L16" r:id="rId43" location="box_eventlist" xr:uid="{C8D18862-2904-4DC9-BCD9-EF2E4CE8F840}"/>
-    <hyperlink ref="L15" r:id="rId44" xr:uid="{CF3A4B1E-6246-4153-BCA5-6DEA7CD8128F}"/>
-    <hyperlink ref="K16" r:id="rId45" location="box_eventlist" xr:uid="{B01E5353-4015-4146-9B14-1B1CCE53F5E5}"/>
-    <hyperlink ref="K15" r:id="rId46" xr:uid="{560D83FF-C50C-4694-8721-F77C0BFF08C5}"/>
-    <hyperlink ref="AB15" r:id="rId47" xr:uid="{4011499F-8062-43B8-A75C-A9079EF2DB52}"/>
-    <hyperlink ref="AB16" r:id="rId48" xr:uid="{B6B3C075-FA6C-467D-8AA6-1D1EED92C415}"/>
-    <hyperlink ref="V15" r:id="rId49" xr:uid="{A072C560-8B04-430B-B1F6-B028E5FA9574}"/>
-    <hyperlink ref="V16" r:id="rId50" xr:uid="{ACA9C9AF-B973-43C4-9DB4-EBC4EECAAE25}"/>
-    <hyperlink ref="AK9" r:id="rId51" xr:uid="{E1E89324-2E73-407A-A30A-BDBE667C6060}"/>
-    <hyperlink ref="AK3" r:id="rId52" xr:uid="{D29EF5FB-36E0-463F-8BF5-132FE5F9A756}"/>
-    <hyperlink ref="AK4:AK8" r:id="rId53" display="https://www.bfz.de/kontakt" xr:uid="{01FE9A2A-D98E-4C72-A768-E4E97D2D26C9}"/>
-    <hyperlink ref="AK10" r:id="rId54" xr:uid="{D3534D7D-125C-4937-A705-03B6F4680DED}"/>
-    <hyperlink ref="AK11" r:id="rId55" xr:uid="{3D21D631-AA2F-409E-9F5C-4559889C3D91}"/>
-    <hyperlink ref="AK12" r:id="rId56" xr:uid="{D9C7ECDE-18FC-4416-B929-BE0EAB7C5622}"/>
-    <hyperlink ref="AK13" r:id="rId57" xr:uid="{90BE5531-03FA-4904-8588-E71407AF76F4}"/>
-    <hyperlink ref="AK14" r:id="rId58" xr:uid="{4132C431-E473-45EF-83C8-DB75A0F0851B}"/>
-    <hyperlink ref="AK15" r:id="rId59" xr:uid="{967ECC8C-EFCA-431C-874F-910F1558F1C8}"/>
-    <hyperlink ref="AK16" r:id="rId60" xr:uid="{32AE002E-D17E-4E2A-B510-AA0C0E1F52E7}"/>
-    <hyperlink ref="AK17" r:id="rId61" xr:uid="{9B55CF75-F045-419D-A6A4-15C1B4651E38}"/>
+    <hyperlink ref="L9" r:id="rId3" xr:uid="{CBF31EA4-BAC3-4796-BE40-CEC49FABEC17}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{1D9E1721-DB68-45F1-90B7-29871AB19B58}"/>
+    <hyperlink ref="L10" r:id="rId5" xr:uid="{70E61FC4-8007-404D-AEF8-FA2202FCAE72}"/>
+    <hyperlink ref="L11" r:id="rId6" xr:uid="{6326C6C4-846F-445B-94B9-39AA99BD3A59}"/>
+    <hyperlink ref="L12" r:id="rId7" xr:uid="{AAFAB3C4-B342-4536-997A-0499A8339412}"/>
+    <hyperlink ref="L14" r:id="rId8" xr:uid="{A87129C6-742E-4634-8EF7-9D02FE56ECE4}"/>
+    <hyperlink ref="L13" r:id="rId9" xr:uid="{DC2E6AD3-0F1C-4C39-8E22-ECF39C842305}"/>
+    <hyperlink ref="L16" r:id="rId10" xr:uid="{962798D7-DDB3-4B72-8B32-A21A9CC92FDD}"/>
+    <hyperlink ref="K16" r:id="rId11" xr:uid="{6A91C522-B523-4DCF-8EBC-EB217DAFD8EE}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{EC2B592D-886B-4EB9-98C9-E47522CA1664}"/>
+    <hyperlink ref="L15" r:id="rId13" xr:uid="{08438625-AA4C-4A90-95C3-FFD691995563}"/>
+    <hyperlink ref="AB15" r:id="rId14" xr:uid="{32840A4E-0CD2-4B19-A0A2-603207BD0F39}"/>
+    <hyperlink ref="AB16" r:id="rId15" xr:uid="{0FC945F7-0BCC-40F4-B4E3-E6F894016718}"/>
+    <hyperlink ref="AB9" r:id="rId16" xr:uid="{892FEFC0-275E-4B58-BD6C-D9BDFE0D4683}"/>
+    <hyperlink ref="Z10" r:id="rId17" xr:uid="{E7F32542-A0E9-4257-B181-0F070656A46B}"/>
+    <hyperlink ref="Z11" r:id="rId18" location="box_eventlist" xr:uid="{C91DC913-B4BE-439E-A172-CABC5BD9135C}"/>
+    <hyperlink ref="Z12" r:id="rId19" location="box_eventlist" xr:uid="{67A1985E-7360-40D8-B1A5-0A0A8347F1F3}"/>
+    <hyperlink ref="Z13" r:id="rId20" location="box_eventlist" xr:uid="{F523150D-BBB4-4101-92F0-B403FD1E1E29}"/>
+    <hyperlink ref="Z14" r:id="rId21" location="box_eventlist" xr:uid="{65FC9304-735F-4591-8831-97A124A03080}"/>
+    <hyperlink ref="AB10" r:id="rId22" xr:uid="{BB033F2D-BA45-4EC2-BECD-C271083EA49F}"/>
+    <hyperlink ref="AB11" r:id="rId23" xr:uid="{80E71080-A796-482D-AFE8-057F9DD033C2}"/>
+    <hyperlink ref="AB12" r:id="rId24" xr:uid="{4216133B-27C6-4840-BBCB-2927320E7BB9}"/>
+    <hyperlink ref="AB13" r:id="rId25" xr:uid="{A33E7745-3088-4FC7-B9F6-334EAF876555}"/>
+    <hyperlink ref="AB14" r:id="rId26" xr:uid="{B7593B2F-2A95-4944-9B48-B5659E284681}"/>
+    <hyperlink ref="K10" r:id="rId27" xr:uid="{C3130B72-0165-4E90-8275-C0F9022E4C0E}"/>
+    <hyperlink ref="K11" r:id="rId28" location="box_eventlist" xr:uid="{957040E1-67C5-4C26-B28E-7B78E078A5B7}"/>
+    <hyperlink ref="K12" r:id="rId29" location="box_eventlist" xr:uid="{E9D9A156-D816-48E2-A815-401344FDB15B}"/>
+    <hyperlink ref="K13" r:id="rId30" location="box_eventlist" xr:uid="{B4B69F15-159A-4D92-A803-846AF90EDB5A}"/>
+    <hyperlink ref="K14" r:id="rId31" location="box_eventlist" xr:uid="{DFC53AA5-6BCF-4F4C-818C-223B1B6F83F4}"/>
+    <hyperlink ref="L23" r:id="rId32" xr:uid="{01120292-E8C0-424E-8346-241376FE0528}"/>
+    <hyperlink ref="L24" r:id="rId33" xr:uid="{CD05EDE3-8105-4C85-A64E-DB39DD3B1620}"/>
+    <hyperlink ref="K23" r:id="rId34" xr:uid="{B5D4D292-0041-4DEA-BE63-83D14D66EDDB}"/>
+    <hyperlink ref="K24" r:id="rId35" xr:uid="{87A2E6C2-43A2-48E0-8F5D-55926481A8FA}"/>
+    <hyperlink ref="V23" r:id="rId36" xr:uid="{5CF90B70-0399-4A08-A04C-285E4080E9BB}"/>
+    <hyperlink ref="V24" r:id="rId37" xr:uid="{57563E15-8C24-4A36-8605-01E183D2335C}"/>
+    <hyperlink ref="AB23" r:id="rId38" xr:uid="{E57EB0D7-F269-4C81-858F-424E1536E6FB}"/>
+    <hyperlink ref="AB24" r:id="rId39" xr:uid="{6EFD9474-17B2-407A-9635-9617C89A7061}"/>
+    <hyperlink ref="L26" r:id="rId40" location="box_eventlist" xr:uid="{C8D18862-2904-4DC9-BCD9-EF2E4CE8F840}"/>
+    <hyperlink ref="L25" r:id="rId41" xr:uid="{CF3A4B1E-6246-4153-BCA5-6DEA7CD8128F}"/>
+    <hyperlink ref="K26" r:id="rId42" location="box_eventlist" xr:uid="{B01E5353-4015-4146-9B14-1B1CCE53F5E5}"/>
+    <hyperlink ref="K25" r:id="rId43" xr:uid="{560D83FF-C50C-4694-8721-F77C0BFF08C5}"/>
+    <hyperlink ref="AB25" r:id="rId44" xr:uid="{4011499F-8062-43B8-A75C-A9079EF2DB52}"/>
+    <hyperlink ref="AB26" r:id="rId45" xr:uid="{B6B3C075-FA6C-467D-8AA6-1D1EED92C415}"/>
+    <hyperlink ref="V25" r:id="rId46" xr:uid="{A072C560-8B04-430B-B1F6-B028E5FA9574}"/>
+    <hyperlink ref="V26" r:id="rId47" xr:uid="{ACA9C9AF-B973-43C4-9DB4-EBC4EECAAE25}"/>
+    <hyperlink ref="AK15" r:id="rId48" xr:uid="{E1E89324-2E73-407A-A30A-BDBE667C6060}"/>
+    <hyperlink ref="AK9" r:id="rId49" xr:uid="{D29EF5FB-36E0-463F-8BF5-132FE5F9A756}"/>
+    <hyperlink ref="AK10:AK14" r:id="rId50" display="https://www.bfz.de/kontakt" xr:uid="{01FE9A2A-D98E-4C72-A768-E4E97D2D26C9}"/>
+    <hyperlink ref="AK16" r:id="rId51" xr:uid="{D3534D7D-125C-4937-A705-03B6F4680DED}"/>
+    <hyperlink ref="AK17" r:id="rId52" xr:uid="{D9C7ECDE-18FC-4416-B929-BE0EAB7C5622}"/>
+    <hyperlink ref="AK23" r:id="rId53" xr:uid="{90BE5531-03FA-4904-8588-E71407AF76F4}"/>
+    <hyperlink ref="AK24" r:id="rId54" xr:uid="{4132C431-E473-45EF-83C8-DB75A0F0851B}"/>
+    <hyperlink ref="AK25" r:id="rId55" xr:uid="{967ECC8C-EFCA-431C-874F-910F1558F1C8}"/>
+    <hyperlink ref="AK26" r:id="rId56" xr:uid="{32AE002E-D17E-4E2A-B510-AA0C0E1F52E7}"/>
+    <hyperlink ref="AK27" r:id="rId57" xr:uid="{9B55CF75-F045-419D-A6A4-15C1B4651E38}"/>
+    <hyperlink ref="K17" r:id="rId58" xr:uid="{73C2C5F3-5693-4141-A13D-AB0D61286DE4}"/>
+    <hyperlink ref="L17" r:id="rId59" xr:uid="{72FAA729-AF59-4B7F-B7E1-1BF5365B8300}"/>
+    <hyperlink ref="K27" r:id="rId60" xr:uid="{59054A54-D8BC-4BAE-B891-9EE57491BF87}"/>
+    <hyperlink ref="L27" r:id="rId61" xr:uid="{EE87C004-AD33-4F6D-9F69-234C5B45E813}"/>
+    <hyperlink ref="AB27" r:id="rId62" xr:uid="{43E4E22D-2353-47C6-962C-282B4DAD0206}"/>
+    <hyperlink ref="K3" r:id="rId63" xr:uid="{6A2CD4C1-9FA7-4A49-9671-A65AEE73E570}"/>
+    <hyperlink ref="K4" r:id="rId64" xr:uid="{952D54BC-67B6-4027-94FB-74FDBE183114}"/>
+    <hyperlink ref="K5" r:id="rId65" xr:uid="{0D3190A1-7899-4A1F-8751-BBE9542C077A}"/>
+    <hyperlink ref="K6" r:id="rId66" xr:uid="{C32D12A7-17CB-49A2-908C-13F68DDD709F}"/>
+    <hyperlink ref="K7" r:id="rId67" xr:uid="{F0994CD8-909A-4B18-B384-BE0C584D8AF0}"/>
+    <hyperlink ref="L3" r:id="rId68" xr:uid="{966D7BF0-AD34-47B7-AEDF-4CC97958444C}"/>
+    <hyperlink ref="L4" r:id="rId69" xr:uid="{CF3FAD84-E1F6-4DBC-B0BA-F85EF7E1B01B}"/>
+    <hyperlink ref="L5" r:id="rId70" xr:uid="{F24A8A9A-F61A-473F-9DFE-E595709A8AE7}"/>
+    <hyperlink ref="L6" r:id="rId71" xr:uid="{73AA0CC1-2726-4393-893C-19CDE5842ECF}"/>
+    <hyperlink ref="L7" r:id="rId72" xr:uid="{7590E594-42F2-4B8B-A450-3FDCA03506D7}"/>
+    <hyperlink ref="K8" r:id="rId73" xr:uid="{82B5C7DE-572B-424B-A833-39DBEAC0DF05}"/>
+    <hyperlink ref="L8" r:id="rId74" xr:uid="{7833EB82-6227-4C5C-A9BE-90498D941F4D}"/>
+    <hyperlink ref="AK2" r:id="rId75" xr:uid="{18AABD3B-ABE1-4A1A-B268-2AE795995136}"/>
+    <hyperlink ref="AK3:AK8" r:id="rId76" display="https://www.biwe-bbq.de/" xr:uid="{4F964EE0-6DCE-4C19-ACDA-A9821F9F18F7}"/>
+    <hyperlink ref="K18:K22" r:id="rId77" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{2A2D1141-2DA6-4B81-AE0A-ADC4484CD435}"/>
+    <hyperlink ref="L18:L22" r:id="rId78" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{56F47F7D-4B3E-46B4-8E8B-09539867D065}"/>
+    <hyperlink ref="L18" r:id="rId79" xr:uid="{2C29D128-D9A8-492E-AACF-FA615EDAB134}"/>
+    <hyperlink ref="L19" r:id="rId80" xr:uid="{4D68E410-2CBF-4B61-80E5-A31067D28FB9}"/>
+    <hyperlink ref="L20" r:id="rId81" xr:uid="{95E4273F-D56C-43A6-BB36-309B838ED87F}"/>
+    <hyperlink ref="L21" r:id="rId82" xr:uid="{419901E4-2C1C-4714-9D1F-0C6AEFF5D32C}"/>
+    <hyperlink ref="L22" r:id="rId83" xr:uid="{21385D65-3105-48F8-B0A4-C7AF1F3C5215}"/>
+    <hyperlink ref="AB17" r:id="rId84" xr:uid="{D1D6E1C8-BBB3-4F7A-A585-730F64FC1B26}"/>
+    <hyperlink ref="AB18" r:id="rId85" xr:uid="{B155B452-481A-4F85-A7CE-E3D2A48243F3}"/>
+    <hyperlink ref="AB19" r:id="rId86" xr:uid="{ED4C8710-6305-4A3F-BDB4-047929C88E0C}"/>
+    <hyperlink ref="AB20" r:id="rId87" xr:uid="{E0BC63D7-2D21-469D-A37D-7D86139EE370}"/>
+    <hyperlink ref="AB21" r:id="rId88" xr:uid="{35ECB41A-E383-4125-B00B-745085A2792B}"/>
+    <hyperlink ref="AB22" r:id="rId89" xr:uid="{6A1A4F41-9DC2-4EF3-8DB7-ABD498007AF6}"/>
+    <hyperlink ref="AK18:AK22" r:id="rId90" display="https://www.tuv.com/jobfit" xr:uid="{1B110CE9-70AC-4DF5-BB2C-2952170F79CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId91"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422B2238F8DAAD478C0837055D4C9439" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cc5534cd780fd9e31c09b047b200ae0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8859808f-556d-416b-ba10-3a64d67cd7c4" xmlns:ns4="0a02612f-c061-4319-bfdb-b5863aa27d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47912ec95e7c0f2f58d4b636259ebaea" ns3:_="" ns4:_="">
     <xsd:import namespace="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
@@ -4407,38 +6759,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
-    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4461,9 +6785,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
+    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB96F4A6-3EFF-40F1-95FA-4B2370A2BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07696C-8262-4007-9717-D163C4D3A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26790" yWindow="4635" windowWidth="23820" windowHeight="19830" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="373">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>0-1-2-3-4-5</t>
-  </si>
-  <si>
-    <t>Umgang mit digitalen Endgeräten</t>
   </si>
   <si>
     <t>Use equipment such as monitor, mouse, keyboard, storage devices, printers and scanners to perform operations such as plugging in, starting up, shutting down, rebooting, saving files and other operations.</t>
@@ -340,31 +337,10 @@
     <t xml:space="preserve">Findest du den Weiterbildungs-Bereich an der Stelle, an der du ihn vermutet hast?  </t>
   </si>
   <si>
-    <t>Wie hat dir das Feature gefallen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warum hast du die Felder nicht ausgefüllt? </t>
-  </si>
-  <si>
-    <t>Warum verlässt du die App?</t>
-  </si>
-  <si>
     <t>Wie hilfreich ist das Assessment-Ergebnis für Dich?</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie hilfreich ist das Assessment-Ergebnis für Dich? </t>
-  </si>
-  <si>
-    <t>Was hat nicht wie erwartet funktioniert?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wie wohl fühlst du dich dabei, einer Künstlichen Intelligenz deine Daten zu geben? </t>
-  </si>
-  <si>
-    <t>Wenn “unwohl”: Aus welchem Grund fühlst du dich unwohl damit?</t>
-  </si>
-  <si>
-    <t>Wenn du eine Sache an diesem Produkt verbessern könntest, was wäre das und aus welchem Grund?</t>
   </si>
   <si>
     <t>Was hat dir an der App am besten gefallen?</t>
@@ -1359,12 +1335,45 @@
   <si>
     <t>24 Monate</t>
   </si>
+  <si>
+    <t>Hat die App Deine Erwartungen erfüllt, und wenn nicht, was hat nicht funktioniert?</t>
+  </si>
+  <si>
+    <t>Ich habe die Funktionsweise des Kometenztests verstanden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hätte ein Problem damit, meine persönlichen, beruflichen Erfahrungen in einer App einzutragen. </t>
+  </si>
+  <si>
+    <t>Fühlst Du Dich unwohl mit der App? Wenn ja, warum fühlst Du Dich unwohl mit der App?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn du eine Sache an diesem Produkt verbessern könntest, was wäre das und aus welchem Grund? </t>
+  </si>
+  <si>
+    <t>Vorschläge macht die App auf Basis des Benutzerprofiles, wie passend findest Du die Vorschläge?</t>
+  </si>
+  <si>
+    <t>Der Kompetenztest für die "Fachkraft für Lagerlogistik" hat mir gefallen?</t>
+  </si>
+  <si>
+    <t>Den Sebsttest für Digitale Kompetenz finde ich hilfreich?</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,232 +1987,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AP45" sqref="AP45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BF1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="BG1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="BJ1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="BK1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>20</v>
@@ -2221,7 +2230,7 @@
         <v>19</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
@@ -2232,34 +2241,34 @@
         <v>1</v>
       </c>
       <c r="AR2" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AT2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AX2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="BC2" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BE2" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="BF2" s="14">
         <v>5</v>
       </c>
       <c r="BI2" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="BJ2" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BM2" s="14">
         <v>0</v>
@@ -2274,15 +2283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>20</v>
@@ -2307,30 +2316,33 @@
       <c r="AK3" s="14">
         <v>1</v>
       </c>
+      <c r="AR3" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT3" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX3" s="20"/>
       <c r="BC3" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD3" s="15"/>
       <c r="BJ3" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>20</v>
@@ -2355,30 +2367,33 @@
       <c r="AK4" s="14">
         <v>1</v>
       </c>
+      <c r="AR4" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT4" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX4" s="20"/>
       <c r="BC4" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD4" s="15"/>
       <c r="BJ4" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>20</v>
@@ -2403,30 +2418,33 @@
       <c r="AK5" s="14">
         <v>1</v>
       </c>
+      <c r="AR5" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT5" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX5" s="20"/>
       <c r="BC5" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD5" s="15"/>
       <c r="BJ5" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>101</v>
+        <v>363</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>20</v>
@@ -2451,30 +2469,33 @@
       <c r="AK6" s="14">
         <v>1</v>
       </c>
+      <c r="AR6" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT6" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX6" s="20"/>
       <c r="BC6" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD6" s="15"/>
       <c r="BJ6" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP6" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="14" customFormat="1">
+    <row r="7" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>20</v>
@@ -2497,28 +2518,31 @@
       <c r="AK7" s="14">
         <v>1</v>
       </c>
+      <c r="AR7" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT7" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC7" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ7" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="14" customFormat="1">
+    <row r="8" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>101</v>
+        <v>364</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>20</v>
@@ -2541,28 +2565,31 @@
       <c r="AK8" s="14">
         <v>1</v>
       </c>
+      <c r="AR8" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT8" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC8" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ8" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="14" customFormat="1">
+    <row r="9" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>20</v>
@@ -2585,28 +2612,31 @@
       <c r="AK9" s="14">
         <v>1</v>
       </c>
+      <c r="AR9" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT9" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC9" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ9" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="14" customFormat="1">
+    <row r="10" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>20</v>
@@ -2629,28 +2659,31 @@
       <c r="AK10" s="14">
         <v>1</v>
       </c>
+      <c r="AR10" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT10" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC10" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ10" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="14" customFormat="1">
+    <row r="11" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>20</v>
@@ -2673,28 +2706,31 @@
       <c r="AK11" s="14">
         <v>1</v>
       </c>
+      <c r="AR11" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AT11" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC11" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ11" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP11" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="14" customFormat="1">
+    <row r="12" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>106</v>
+        <v>366</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
@@ -2717,28 +2753,31 @@
       <c r="AK12" s="14">
         <v>1</v>
       </c>
+      <c r="AR12" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT12" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC12" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ12" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="14" customFormat="1">
+    <row r="13" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>20</v>
@@ -2761,28 +2800,31 @@
       <c r="AK13" s="14">
         <v>1</v>
       </c>
+      <c r="AR13" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AT13" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC13" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ13" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP13" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="14" customFormat="1">
+    <row r="14" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>20</v>
@@ -2805,28 +2847,31 @@
       <c r="AK14" s="14">
         <v>1</v>
       </c>
+      <c r="AR14" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT14" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC14" s="37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ14" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP14" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
@@ -2844,7 +2889,7 @@
         <v>19</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
@@ -2854,35 +2899,35 @@
       <c r="AK15" s="38">
         <v>1</v>
       </c>
-      <c r="AR15" s="38" t="s">
+      <c r="AR15" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT15" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AT15" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW15" s="38" t="s">
+      <c r="AX15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AX15" s="40" t="s">
+      <c r="BC15" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BC15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD15" s="42" t="s">
+      <c r="BE15" s="38" t="s">
         <v>26</v>
-      </c>
-      <c r="BE15" s="38" t="s">
-        <v>27</v>
       </c>
       <c r="BF15" s="38">
         <v>5</v>
       </c>
       <c r="BI15" s="38" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="BJ15" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BM15" s="38">
         <v>0</v>
@@ -2897,15 +2942,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>20</v>
@@ -2930,30 +2975,33 @@
       <c r="AK16" s="38">
         <v>1</v>
       </c>
+      <c r="AR16" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT16" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX16" s="40"/>
       <c r="BC16" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD16" s="42"/>
       <c r="BJ16" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP16" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>99</v>
+        <v>109</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
@@ -2978,30 +3026,33 @@
       <c r="AK17" s="38">
         <v>1</v>
       </c>
+      <c r="AR17" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT17" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX17" s="40"/>
       <c r="BC17" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD17" s="42"/>
       <c r="BJ17" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP17" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>20</v>
@@ -3026,30 +3077,33 @@
       <c r="AK18" s="38">
         <v>1</v>
       </c>
+      <c r="AR18" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT18" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX18" s="40"/>
       <c r="BC18" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD18" s="42"/>
       <c r="BJ18" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP18" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>20</v>
@@ -3074,30 +3128,33 @@
       <c r="AK19" s="38">
         <v>1</v>
       </c>
+      <c r="AR19" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT19" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX19" s="40"/>
       <c r="BC19" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD19" s="42"/>
       <c r="BJ19" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP19" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="38" customFormat="1">
+    <row r="20" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>20</v>
@@ -3120,28 +3177,31 @@
       <c r="AK20" s="38">
         <v>1</v>
       </c>
+      <c r="AR20" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT20" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC20" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ20" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP20" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:68" s="38" customFormat="1">
+    <row r="21" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>20</v>
@@ -3164,28 +3224,31 @@
       <c r="AK21" s="38">
         <v>1</v>
       </c>
+      <c r="AR21" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT21" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC21" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ21" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP21" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="38" customFormat="1">
+    <row r="22" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>20</v>
@@ -3208,28 +3271,31 @@
       <c r="AK22" s="38">
         <v>1</v>
       </c>
+      <c r="AR22" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT22" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC22" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ22" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP22" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:68" s="38" customFormat="1">
+    <row r="23" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>20</v>
@@ -3252,28 +3318,31 @@
       <c r="AK23" s="38">
         <v>1</v>
       </c>
+      <c r="AR23" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT23" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC23" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ23" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP23" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:68" s="38" customFormat="1">
+    <row r="24" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>20</v>
@@ -3296,28 +3365,31 @@
       <c r="AK24" s="38">
         <v>1</v>
       </c>
+      <c r="AR24" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AT24" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC24" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ24" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP24" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:68" s="38" customFormat="1">
+    <row r="25" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>20</v>
@@ -3340,28 +3412,31 @@
       <c r="AK25" s="38">
         <v>1</v>
       </c>
+      <c r="AR25" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT25" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC25" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ25" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP25" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:68" s="38" customFormat="1">
+    <row r="26" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>20</v>
@@ -3384,28 +3459,31 @@
       <c r="AK26" s="38">
         <v>1</v>
       </c>
+      <c r="AR26" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AT26" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC26" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ26" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP26" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:68" s="38" customFormat="1">
+    <row r="27" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>20</v>
@@ -3428,28 +3506,31 @@
       <c r="AK27" s="38">
         <v>1</v>
       </c>
+      <c r="AR27" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT27" s="38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC27" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ27" s="38" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP27" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+    <row r="28" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>20</v>
@@ -3467,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="P28" s="43" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -3477,35 +3558,35 @@
       <c r="AK28" s="43">
         <v>1</v>
       </c>
-      <c r="AR28" s="43" t="s">
+      <c r="AR28" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW28" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AT28" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW28" s="43" t="s">
+      <c r="AX28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AX28" s="45" t="s">
+      <c r="BC28" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="BC28" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD28" s="47" t="s">
+      <c r="BE28" s="43" t="s">
         <v>26</v>
-      </c>
-      <c r="BE28" s="43" t="s">
-        <v>27</v>
       </c>
       <c r="BF28" s="43">
         <v>5</v>
       </c>
       <c r="BI28" s="43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="BJ28" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BM28" s="43">
         <v>0</v>
@@ -3520,15 +3601,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+    <row r="29" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>20</v>
@@ -3553,30 +3634,33 @@
       <c r="AK29" s="43">
         <v>1</v>
       </c>
+      <c r="AR29" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT29" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX29" s="45"/>
       <c r="BC29" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD29" s="47"/>
       <c r="BJ29" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP29" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>99</v>
+        <v>109</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>20</v>
@@ -3601,30 +3685,33 @@
       <c r="AK30" s="43">
         <v>1</v>
       </c>
+      <c r="AR30" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT30" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX30" s="45"/>
       <c r="BC30" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD30" s="47"/>
       <c r="BJ30" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP30" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+    <row r="31" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E31" s="43" t="s">
         <v>20</v>
@@ -3649,30 +3736,33 @@
       <c r="AK31" s="43">
         <v>1</v>
       </c>
+      <c r="AR31" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT31" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX31" s="45"/>
       <c r="BC31" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD31" s="47"/>
       <c r="BJ31" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP31" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="E32" s="43" t="s">
         <v>20</v>
@@ -3697,30 +3787,33 @@
       <c r="AK32" s="43">
         <v>1</v>
       </c>
+      <c r="AR32" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT32" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AX32" s="45"/>
       <c r="BC32" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD32" s="47"/>
       <c r="BJ32" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP32" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:68" s="43" customFormat="1">
+    <row r="33" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>20</v>
@@ -3743,28 +3836,31 @@
       <c r="AK33" s="43">
         <v>1</v>
       </c>
+      <c r="AR33" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="AT33" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC33" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ33" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP33" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:68" s="43" customFormat="1">
+    <row r="34" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>20</v>
@@ -3787,28 +3883,31 @@
       <c r="AK34" s="43">
         <v>1</v>
       </c>
+      <c r="AR34" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT34" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC34" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ34" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP34" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:68" s="43" customFormat="1">
+    <row r="35" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="E35" s="43" t="s">
         <v>20</v>
@@ -3831,28 +3930,31 @@
       <c r="AK35" s="43">
         <v>1</v>
       </c>
+      <c r="AR35" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT35" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC35" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ35" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP35" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:68" s="43" customFormat="1">
+    <row r="36" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="E36" s="43" t="s">
         <v>20</v>
@@ -3875,28 +3977,31 @@
       <c r="AK36" s="43">
         <v>1</v>
       </c>
+      <c r="AR36" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT36" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC36" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ36" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP36" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:68" s="43" customFormat="1">
+    <row r="37" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>20</v>
@@ -3919,28 +4024,31 @@
       <c r="AK37" s="43">
         <v>1</v>
       </c>
+      <c r="AR37" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AT37" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC37" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ37" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP37" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:68" s="43" customFormat="1">
+    <row r="38" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>20</v>
@@ -3963,28 +4071,31 @@
       <c r="AK38" s="43">
         <v>1</v>
       </c>
+      <c r="AR38" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT38" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC38" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ38" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP38" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:68" s="43" customFormat="1">
+    <row r="39" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="E39" s="43" t="s">
         <v>20</v>
@@ -4007,28 +4118,31 @@
       <c r="AK39" s="43">
         <v>1</v>
       </c>
+      <c r="AR39" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AT39" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC39" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ39" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP39" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:68" s="43" customFormat="1">
+    <row r="40" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>20</v>
@@ -4051,14 +4165,17 @@
       <c r="AK40" s="43">
         <v>1</v>
       </c>
+      <c r="AR40" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="AT40" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BC40" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BJ40" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BP40" s="43">
         <v>3</v>
@@ -4080,57 +4197,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.42578125" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="14"/>
+    <col min="12" max="12" width="109.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.44140625" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="14"/>
     <col min="26" max="26" width="14" style="14" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" style="17" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
     <col min="33" max="36" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:37" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
@@ -4190,52 +4307,52 @@
         <v>18</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5" customHeight="1">
+    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4243,79 +4360,79 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="Q2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
         <v>124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" t="s">
         <v>125</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="U2" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
         <v>128</v>
       </c>
-      <c r="N2" t="s">
-        <v>238</v>
-      </c>
-      <c r="O2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V2" t="s">
-        <v>136</v>
-      </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5" customHeight="1">
+    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4323,80 +4440,80 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N3" t="s">
+        <v>337</v>
+      </c>
+      <c r="O3" t="s">
         <v>345</v>
-      </c>
-      <c r="O3" t="s">
-        <v>353</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5" customHeight="1">
+    <row r="4" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4404,80 +4521,80 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O4" t="s">
         <v>346</v>
-      </c>
-      <c r="O4" t="s">
-        <v>354</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5" customHeight="1">
+    <row r="5" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4485,80 +4602,80 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N5" t="s">
+        <v>339</v>
+      </c>
+      <c r="O5" t="s">
         <v>347</v>
-      </c>
-      <c r="O5" t="s">
-        <v>355</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD5" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4566,80 +4683,80 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s">
+        <v>340</v>
+      </c>
+      <c r="O6" t="s">
         <v>348</v>
-      </c>
-      <c r="O6" t="s">
-        <v>356</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD6" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5" customHeight="1">
+    <row r="7" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4647,80 +4764,80 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
+        <v>341</v>
+      </c>
+      <c r="O7" t="s">
         <v>349</v>
-      </c>
-      <c r="O7" t="s">
-        <v>357</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD7" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="16.5" customHeight="1">
+    <row r="8" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4728,80 +4845,80 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O8" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD8" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4809,88 +4926,88 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="U9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N9" t="s">
-        <v>139</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>142</v>
-      </c>
-      <c r="R9" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="Y9" s="14" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA9">
         <v>101</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE9" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF9" t="s">
         <v>211</v>
       </c>
-      <c r="AF9" t="s">
-        <v>219</v>
-      </c>
       <c r="AK9" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4898,94 +5015,94 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" t="s">
+        <v>231</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N10" t="s">
-        <v>239</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>142</v>
-      </c>
-      <c r="R10" t="s">
-        <v>151</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="Y10" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AA10">
         <v>101</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE10" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AF10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4993,94 +5110,94 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F11" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N11" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>142</v>
-      </c>
-      <c r="R11" t="s">
-        <v>151</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="Y11" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AA11">
         <v>101</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AF11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5088,94 +5205,94 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N12" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>142</v>
-      </c>
-      <c r="R12" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="Y12" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA12">
         <v>101</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AF12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5183,97 +5300,97 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N13" t="s">
-        <v>160</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>142</v>
-      </c>
-      <c r="R13" t="s">
-        <v>151</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="Z13" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA13">
         <v>101</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AF13" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AH13" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5281,97 +5398,97 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N14" t="s">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>142</v>
-      </c>
-      <c r="R14" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="Z14" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AA14">
         <v>101</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD14" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE14" s="17" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AF14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AG14" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AH14" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5379,83 +5496,83 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="R15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="V15" s="18"/>
       <c r="X15" s="12">
         <v>2880</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AA15">
         <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AC15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5463,88 +5580,88 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="R16" s="9"/>
       <c r="T16" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="V16" s="19"/>
       <c r="X16" s="12">
         <v>1547</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16">
         <v>201</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AE16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AH16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5552,79 +5669,79 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="X17" s="12">
         <v>2245</v>
       </c>
       <c r="Y17" s="48" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AA17" s="21">
         <v>201</v>
       </c>
       <c r="AB17" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC17" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5632,55 +5749,55 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N18" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="48"/>
@@ -5688,19 +5805,19 @@
         <v>201</v>
       </c>
       <c r="AB18" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC18" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5708,55 +5825,55 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N19" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="48"/>
@@ -5764,19 +5881,19 @@
         <v>201</v>
       </c>
       <c r="AB19" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5784,55 +5901,55 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="48"/>
@@ -5840,19 +5957,19 @@
         <v>201</v>
       </c>
       <c r="AB20" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC20" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5860,55 +5977,55 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E21" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F21" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="48"/>
@@ -5916,19 +6033,19 @@
         <v>201</v>
       </c>
       <c r="AB21" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC21" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD21" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5936,55 +6053,55 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N22" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="48"/>
@@ -5992,19 +6109,19 @@
         <v>201</v>
       </c>
       <c r="AB22" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC22" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AD22" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>2</v>
       </c>
@@ -6012,82 +6129,82 @@
         <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="T23" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="R23" s="24" t="s">
+      <c r="U23" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="V23" s="34" t="s">
         <v>261</v>
-      </c>
-      <c r="S23" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="T23" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="U23" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="V23" s="34" t="s">
-        <v>269</v>
       </c>
       <c r="AA23" s="24">
         <v>30</v>
       </c>
       <c r="AB23" s="31" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AC23" s="24" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AD23" s="28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AE23" s="24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AF23" s="24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK23" s="31" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>2</v>
       </c>
@@ -6095,85 +6212,85 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="T24" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="O24" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="R24" s="29" t="s">
+      <c r="U24" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="V24" s="34" t="s">
         <v>261</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="U24" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="V24" s="34" t="s">
-        <v>269</v>
       </c>
       <c r="AA24" s="29">
         <v>30</v>
       </c>
       <c r="AB24" s="31" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AC24" s="29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AD24" s="33" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AE24" s="29" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AF24" s="29" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK24" s="31" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6181,73 +6298,73 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" t="s">
+        <v>265</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" t="s">
-        <v>273</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="U25" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="V25" s="34" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AA25">
         <v>130</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AC25" s="21" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6255,82 +6372,82 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E26" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F26" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M26" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M26" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" t="s">
-        <v>253</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="U26" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="V26" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y26" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="AA26">
         <v>130</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AC26" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6338,80 +6455,80 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E27" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F27" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N27" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R27" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="48" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AA27">
         <v>201</v>
       </c>
       <c r="AB27" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AC27" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AD27" s="17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AE27" s="17" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6514,20 +6631,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6760,14 +6877,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6780,6 +6889,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07696C-8262-4007-9717-D163C4D3A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4800A3FF-70D3-4BF6-B6B0-AA1C007DC895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="371">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>0-1-2-3-4-5</t>
-  </si>
-  <si>
-    <t>Use equipment such as monitor, mouse, keyboard, storage devices, printers and scanners to perform operations such as plugging in, starting up, shutting down, rebooting, saving files and other operations.</t>
-  </si>
-  <si>
-    <t>http://data.europa.eu/esco/skill/6b2f8802-0cbf-436e-a37f-ca55ede41bbc</t>
   </si>
   <si>
     <t>Im Folgenden kannst Du an einem Test zur Selbsteinschätzung deiner digitalen Kompetenzen teilnehmen.
@@ -1373,7 +1367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,7 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1652,7 +1646,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1661,7 +1654,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1987,232 +1979,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AP45" sqref="AP45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:AR40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BF1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="BG1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI1" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="BJ1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="BK1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BP1" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="BO1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>20</v>
@@ -2228,9 +2220,6 @@
       </c>
       <c r="O2" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
@@ -2241,34 +2230,29 @@
         <v>1</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX2" s="20"/>
+      <c r="BC2" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="BE2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="BC2" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE2" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="BF2" s="14">
         <v>5</v>
       </c>
       <c r="BI2" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BJ2" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BM2" s="14">
         <v>0</v>
@@ -2283,15 +2267,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>20</v>
@@ -2308,8 +2292,6 @@
       <c r="O3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
       <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
@@ -2317,32 +2299,51 @@
         <v>1</v>
       </c>
       <c r="AR3" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AT3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC3" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF3" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AX3" s="20"/>
-      <c r="BC3" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD3" s="15"/>
       <c r="BJ3" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="14">
+        <v>2</v>
       </c>
       <c r="BP3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>20</v>
@@ -2359,8 +2360,6 @@
       <c r="O4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
       <c r="U4" s="14" t="s">
         <v>22</v>
       </c>
@@ -2368,32 +2367,51 @@
         <v>1</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AT4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC4" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AX4" s="20"/>
-      <c r="BC4" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD4" s="15"/>
       <c r="BJ4" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="14">
+        <v>2</v>
       </c>
       <c r="BP4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>20</v>
@@ -2410,8 +2428,6 @@
       <c r="O5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
       <c r="U5" s="14" t="s">
         <v>22</v>
       </c>
@@ -2419,32 +2435,51 @@
         <v>1</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AT5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC5" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF5" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AX5" s="20"/>
-      <c r="BC5" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD5" s="15"/>
       <c r="BJ5" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="14">
+        <v>2</v>
       </c>
       <c r="BP5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>20</v>
@@ -2461,8 +2496,6 @@
       <c r="O6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
       <c r="U6" s="14" t="s">
         <v>22</v>
       </c>
@@ -2470,32 +2503,51 @@
         <v>1</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AT6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC6" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF6" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AX6" s="20"/>
-      <c r="BC6" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD6" s="15"/>
       <c r="BJ6" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="14">
+        <v>2</v>
       </c>
       <c r="BP6" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>369</v>
+        <v>98</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>20</v>
@@ -2519,30 +2571,51 @@
         <v>1</v>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AT7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC7" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF7" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC7" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ7" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="14">
+        <v>2</v>
       </c>
       <c r="BP7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>364</v>
+        <v>94</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>20</v>
@@ -2559,6 +2632,11 @@
       <c r="O8" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="P8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
       <c r="U8" s="14" t="s">
         <v>22</v>
       </c>
@@ -2566,30 +2644,52 @@
         <v>1</v>
       </c>
       <c r="AR8" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AT8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX8" s="20"/>
+      <c r="BC8" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF8" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC8" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ8" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="14">
+        <v>2</v>
       </c>
       <c r="BP8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>20</v>
@@ -2606,6 +2706,8 @@
       <c r="O9" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
       <c r="U9" s="14" t="s">
         <v>22</v>
       </c>
@@ -2613,30 +2715,52 @@
         <v>1</v>
       </c>
       <c r="AR9" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AT9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX9" s="20"/>
+      <c r="BC9" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF9" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC9" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ9" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="14">
+        <v>2</v>
       </c>
       <c r="BP9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>20</v>
@@ -2653,6 +2777,8 @@
       <c r="O10" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
       <c r="U10" s="14" t="s">
         <v>22</v>
       </c>
@@ -2660,30 +2786,52 @@
         <v>1</v>
       </c>
       <c r="AR10" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AT10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX10" s="20"/>
+      <c r="BC10" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF10" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC10" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ10" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="14">
+        <v>2</v>
       </c>
       <c r="BP10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>20</v>
@@ -2700,6 +2848,8 @@
       <c r="O11" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
       <c r="U11" s="14" t="s">
         <v>22</v>
       </c>
@@ -2707,30 +2857,52 @@
         <v>1</v>
       </c>
       <c r="AR11" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AT11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX11" s="20"/>
+      <c r="BC11" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF11" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC11" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ11" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="14">
+        <v>2</v>
       </c>
       <c r="BP11" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
@@ -2754,30 +2926,51 @@
         <v>1</v>
       </c>
       <c r="AR12" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AT12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC12" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF12" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC12" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ12" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="14">
+        <v>2</v>
       </c>
       <c r="BP12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>20</v>
@@ -2801,30 +2994,51 @@
         <v>1</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AT13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC13" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF13" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI13" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC13" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ13" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="14">
+        <v>2</v>
       </c>
       <c r="BP13" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>20</v>
@@ -2848,30 +3062,51 @@
         <v>1</v>
       </c>
       <c r="AR14" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AT14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC14" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF14" s="14">
+        <v>5</v>
+      </c>
+      <c r="BI14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BC14" s="37" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ14" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="14">
+        <v>2</v>
       </c>
       <c r="BP14" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
@@ -2888,46 +3123,36 @@
       <c r="O15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
       <c r="U15" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AK15" s="38">
         <v>1</v>
       </c>
-      <c r="AR15" s="14" t="s">
-        <v>370</v>
+      <c r="AR15" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="AT15" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW15" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX15" s="39"/>
+      <c r="BC15" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AX15" s="40" t="s">
+      <c r="BE15" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="BC15" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD15" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE15" s="38" t="s">
-        <v>26</v>
       </c>
       <c r="BF15" s="38">
         <v>5</v>
       </c>
       <c r="BI15" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BJ15" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BM15" s="38">
         <v>0</v>
@@ -2942,15 +3167,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>362</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>20</v>
@@ -2967,41 +3192,59 @@
       <c r="O16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
       <c r="U16" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AK16" s="38">
         <v>1</v>
       </c>
-      <c r="AR16" s="14" t="s">
-        <v>371</v>
+      <c r="AR16" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="AT16" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX16" s="39"/>
+      <c r="BC16" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF16" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI16" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="AX16" s="40"/>
-      <c r="BC16" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD16" s="42"/>
       <c r="BJ16" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM16" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="38">
+        <v>2</v>
       </c>
       <c r="BP16" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>368</v>
+        <v>107</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>363</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
@@ -3018,41 +3261,59 @@
       <c r="O17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
       <c r="U17" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AK17" s="38">
         <v>1</v>
       </c>
-      <c r="AR17" s="14" t="s">
-        <v>370</v>
+      <c r="AR17" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="AT17" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX17" s="39"/>
+      <c r="BC17" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE17" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF17" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI17" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="AX17" s="40"/>
-      <c r="BC17" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD17" s="42"/>
       <c r="BJ17" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM17" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="38">
+        <v>2</v>
       </c>
       <c r="BP17" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>360</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>20</v>
@@ -3069,41 +3330,59 @@
       <c r="O18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
       <c r="U18" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AK18" s="38">
         <v>1</v>
       </c>
-      <c r="AR18" s="14" t="s">
-        <v>370</v>
+      <c r="AR18" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="AT18" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX18" s="39"/>
+      <c r="BC18" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD18" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF18" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI18" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="AX18" s="40"/>
-      <c r="BC18" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD18" s="42"/>
       <c r="BJ18" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM18" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="38">
+        <v>2</v>
       </c>
       <c r="BP18" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>363</v>
+        <v>107</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>364</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>20</v>
@@ -3120,41 +3399,59 @@
       <c r="O19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
       <c r="U19" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AK19" s="38">
         <v>1</v>
       </c>
-      <c r="AR19" s="14" t="s">
-        <v>370</v>
+      <c r="AR19" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="AT19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX19" s="39"/>
+      <c r="BC19" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD19" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF19" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="AX19" s="40"/>
-      <c r="BC19" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD19" s="42"/>
       <c r="BJ19" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM19" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="38">
+        <v>2</v>
       </c>
       <c r="BP19" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>369</v>
+        <v>107</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>20</v>
@@ -3177,31 +3474,52 @@
       <c r="AK20" s="38">
         <v>1</v>
       </c>
-      <c r="AR20" s="14" t="s">
-        <v>370</v>
+      <c r="AR20" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="AT20" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC20" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF20" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI20" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC20" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ20" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM20" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="38">
+        <v>2</v>
       </c>
       <c r="BP20" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>364</v>
+        <v>107</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>20</v>
@@ -3218,37 +3536,61 @@
       <c r="O21" s="38" t="s">
         <v>19</v>
       </c>
+      <c r="P21" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="U21" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AK21" s="38">
         <v>1</v>
       </c>
-      <c r="AR21" s="14" t="s">
-        <v>371</v>
+      <c r="AR21" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="AT21" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD21" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE21" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF21" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC21" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ21" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM21" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="38">
+        <v>2</v>
       </c>
       <c r="BP21" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>365</v>
+        <v>107</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>366</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>20</v>
@@ -3271,31 +3613,52 @@
       <c r="AK22" s="38">
         <v>1</v>
       </c>
-      <c r="AR22" s="14" t="s">
-        <v>371</v>
+      <c r="AR22" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="AT22" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC22" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF22" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI22" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC22" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ22" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM22" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="38">
+        <v>2</v>
       </c>
       <c r="BP22" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>362</v>
+        <v>107</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>20</v>
@@ -3318,31 +3681,52 @@
       <c r="AK23" s="38">
         <v>1</v>
       </c>
-      <c r="AR23" s="14" t="s">
-        <v>371</v>
+      <c r="AR23" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="AT23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC23" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD23" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF23" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI23" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC23" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ23" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="38">
+        <v>2</v>
       </c>
       <c r="BP23" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>361</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>20</v>
@@ -3365,31 +3749,52 @@
       <c r="AK24" s="38">
         <v>1</v>
       </c>
-      <c r="AR24" s="14" t="s">
-        <v>372</v>
+      <c r="AR24" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="AT24" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC24" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD24" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE24" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF24" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI24" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC24" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ24" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM24" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="38">
+        <v>2</v>
       </c>
       <c r="BP24" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>366</v>
+        <v>107</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>367</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>20</v>
@@ -3412,31 +3817,52 @@
       <c r="AK25" s="38">
         <v>1</v>
       </c>
-      <c r="AR25" s="14" t="s">
-        <v>371</v>
+      <c r="AR25" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="AT25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC25" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD25" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF25" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI25" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC25" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ25" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="38">
+        <v>2</v>
       </c>
       <c r="BP25" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>367</v>
+        <v>107</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>20</v>
@@ -3459,31 +3885,52 @@
       <c r="AK26" s="38">
         <v>1</v>
       </c>
-      <c r="AR26" s="14" t="s">
-        <v>372</v>
+      <c r="AR26" s="38" t="s">
+        <v>370</v>
       </c>
       <c r="AT26" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC26" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD26" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF26" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI26" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC26" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ26" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="38">
+        <v>2</v>
       </c>
       <c r="BP26" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:68" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>365</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>20</v>
@@ -3506,690 +3953,943 @@
       <c r="AK27" s="38">
         <v>1</v>
       </c>
-      <c r="AR27" s="14" t="s">
-        <v>371</v>
+      <c r="AR27" s="38" t="s">
+        <v>370</v>
       </c>
       <c r="AT27" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC27" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD27" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE27" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF27" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI27" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="BC27" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="BJ27" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="BM27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="38">
+        <v>2</v>
       </c>
       <c r="BP27" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="42">
+        <v>6</v>
+      </c>
+      <c r="N28" s="42">
+        <v>1</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK28" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT28" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX28" s="43"/>
+      <c r="BC28" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE28" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF28" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ28" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM28" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP28" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="42">
+        <v>6</v>
+      </c>
+      <c r="N29" s="42">
+        <v>1</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT29" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX29" s="43"/>
+      <c r="BC29" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF29" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ29" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM29" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP29" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C30" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="42">
+        <v>6</v>
+      </c>
+      <c r="N30" s="42">
+        <v>1</v>
+      </c>
+      <c r="O30" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK30" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT30" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="AX30" s="43"/>
+      <c r="BC30" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF30" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ30" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM30" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP30" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="42">
+        <v>6</v>
+      </c>
+      <c r="N31" s="42">
+        <v>1</v>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK31" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT31" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX31" s="43"/>
+      <c r="BC31" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE31" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF31" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI31" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ31" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM31" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP31" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="42">
+        <v>6</v>
+      </c>
+      <c r="N32" s="42">
+        <v>1</v>
+      </c>
+      <c r="O32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK32" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT32" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX32" s="43"/>
+      <c r="BC32" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD32" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE32" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF32" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ32" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM32" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP32" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="42">
+        <v>6</v>
+      </c>
+      <c r="N33" s="42">
+        <v>1</v>
+      </c>
+      <c r="O33" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK33" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT33" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC33" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD33" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF33" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ33" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM33" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP33" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="42">
+        <v>6</v>
+      </c>
+      <c r="N34" s="42">
+        <v>1</v>
+      </c>
+      <c r="O34" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="U34" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK34" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT34" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC34" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD34" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE34" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF34" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ34" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM34" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP34" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="42">
+        <v>6</v>
+      </c>
+      <c r="N35" s="42">
+        <v>1</v>
+      </c>
+      <c r="O35" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U35" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK35" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT35" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC35" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD35" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE35" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF35" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ35" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM35" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN35" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO35" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP35" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J36" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L36" s="42">
         <v>6</v>
       </c>
-      <c r="N28" s="43">
-        <v>1</v>
-      </c>
-      <c r="O28" s="43" t="s">
+      <c r="N36" s="42">
+        <v>1</v>
+      </c>
+      <c r="O36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="U36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK36" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT36" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC36" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE36" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF36" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI36" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ36" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="U28" s="43" t="s">
+      <c r="BM36" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN36" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP36" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="42">
+        <v>6</v>
+      </c>
+      <c r="N37" s="42">
+        <v>1</v>
+      </c>
+      <c r="O37" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AK28" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR28" s="14" t="s">
+      <c r="AK37" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT37" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC37" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD37" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE37" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF37" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI37" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ37" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM37" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP37" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="42">
+        <v>6</v>
+      </c>
+      <c r="N38" s="42">
+        <v>1</v>
+      </c>
+      <c r="O38" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK38" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT38" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC38" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD38" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE38" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF38" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ38" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM38" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP38" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="42">
+        <v>6</v>
+      </c>
+      <c r="N39" s="42">
+        <v>1</v>
+      </c>
+      <c r="O39" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK39" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="AT28" s="43" t="s">
+      <c r="AT39" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC39" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD39" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE39" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF39" s="42">
+        <v>5</v>
+      </c>
+      <c r="BI39" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AW28" s="43" t="s">
+      <c r="BJ39" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM39" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN39" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="42">
+        <v>2</v>
+      </c>
+      <c r="BP39" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="42">
+        <v>6</v>
+      </c>
+      <c r="N40" s="42">
+        <v>1</v>
+      </c>
+      <c r="O40" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK40" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT40" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC40" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD40" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AX28" s="45" t="s">
+      <c r="BE40" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BC28" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD28" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE28" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF28" s="43">
+      <c r="BF40" s="42">
         <v>5</v>
       </c>
-      <c r="BI28" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ28" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM28" s="43">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="43">
-        <v>0</v>
-      </c>
-      <c r="BO28" s="43">
+      <c r="BI40" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ40" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM40" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN40" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="42">
         <v>2</v>
       </c>
-      <c r="BP28" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="43">
-        <v>6</v>
-      </c>
-      <c r="N29" s="43">
-        <v>1</v>
-      </c>
-      <c r="O29" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="U29" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK29" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX29" s="45"/>
-      <c r="BC29" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD29" s="47"/>
-      <c r="BJ29" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP29" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="43">
-        <v>6</v>
-      </c>
-      <c r="N30" s="43">
-        <v>1</v>
-      </c>
-      <c r="O30" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="U30" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK30" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AT30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX30" s="45"/>
-      <c r="BC30" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD30" s="47"/>
-      <c r="BJ30" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP30" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="43">
-        <v>6</v>
-      </c>
-      <c r="N31" s="43">
-        <v>1</v>
-      </c>
-      <c r="O31" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="U31" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK31" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AT31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX31" s="45"/>
-      <c r="BC31" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD31" s="47"/>
-      <c r="BJ31" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP31" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:68" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="43">
-        <v>6</v>
-      </c>
-      <c r="N32" s="43">
-        <v>1</v>
-      </c>
-      <c r="O32" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="U32" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK32" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR32" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AT32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX32" s="45"/>
-      <c r="BC32" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD32" s="47"/>
-      <c r="BJ32" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP32" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="43">
-        <v>6</v>
-      </c>
-      <c r="N33" s="43">
-        <v>1</v>
-      </c>
-      <c r="O33" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U33" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK33" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AT33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC33" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ33" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP33" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="43">
-        <v>6</v>
-      </c>
-      <c r="N34" s="43">
-        <v>1</v>
-      </c>
-      <c r="O34" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U34" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK34" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR34" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC34" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ34" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP34" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="43">
-        <v>6</v>
-      </c>
-      <c r="N35" s="43">
-        <v>1</v>
-      </c>
-      <c r="O35" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U35" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK35" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR35" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC35" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ35" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP35" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="43">
-        <v>6</v>
-      </c>
-      <c r="N36" s="43">
-        <v>1</v>
-      </c>
-      <c r="O36" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U36" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK36" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC36" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ36" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP36" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="43">
-        <v>6</v>
-      </c>
-      <c r="N37" s="43">
-        <v>1</v>
-      </c>
-      <c r="O37" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U37" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK37" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT37" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC37" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ37" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP37" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="43">
-        <v>6</v>
-      </c>
-      <c r="N38" s="43">
-        <v>1</v>
-      </c>
-      <c r="O38" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U38" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK38" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC38" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ38" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP38" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="43">
-        <v>6</v>
-      </c>
-      <c r="N39" s="43">
-        <v>1</v>
-      </c>
-      <c r="O39" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U39" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK39" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR39" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC39" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ39" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP39" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:68" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="43">
-        <v>6</v>
-      </c>
-      <c r="N40" s="43">
-        <v>1</v>
-      </c>
-      <c r="O40" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U40" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK40" s="43">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC40" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ40" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP40" s="43">
+      <c r="BP40" s="42">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BP14">
+    <sortCondition ref="AR2:AR14"/>
+    <sortCondition ref="A2:A14"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="AX2" r:id="rId1" xr:uid="{5C81AC78-3D99-4DBA-80B6-F5AA3154C2C8}"/>
-    <hyperlink ref="AX15" r:id="rId2" xr:uid="{5DB99358-8224-438C-BD04-6B9F90AE89DF}"/>
-    <hyperlink ref="AX28" r:id="rId3" xr:uid="{A2960A3B-6E5F-4726-807B-7EADE771BCF4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4204,50 +4904,50 @@
       <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.44140625" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="14"/>
+    <col min="12" max="12" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.42578125" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="14"/>
     <col min="26" max="26" width="14" style="14" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28" customWidth="1"/>
-    <col min="29" max="29" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" style="17" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="17" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1"/>
     <col min="33" max="36" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="10" customFormat="1" ht="18.75">
       <c r="A1" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
@@ -4307,213 +5007,213 @@
         <v>18</v>
       </c>
       <c r="W1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="16.5" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC1" s="10" t="s">
+      <c r="R2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AC2" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>276</v>
+      <c r="AD2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:37" ht="16.5" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
         <v>116</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M3" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T2" t="s">
-        <v>126</v>
-      </c>
-      <c r="U2" t="s">
-        <v>127</v>
-      </c>
-      <c r="V2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" t="s">
-        <v>120</v>
-      </c>
       <c r="N3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" t="s">
         <v>123</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>124</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>125</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>126</v>
       </c>
-      <c r="U3" t="s">
-        <v>127</v>
-      </c>
-      <c r="V3" t="s">
-        <v>128</v>
-      </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AC3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="AK3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="16.5" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4521,80 +5221,80 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
         <v>116</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M4" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M4" t="s">
-        <v>120</v>
-      </c>
       <c r="N4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" t="s">
         <v>123</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>124</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>125</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>126</v>
       </c>
-      <c r="U4" t="s">
-        <v>127</v>
-      </c>
-      <c r="V4" t="s">
-        <v>128</v>
-      </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD4" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD4" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="AK4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="16.5" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4602,80 +5302,80 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M5" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M5" t="s">
-        <v>120</v>
-      </c>
       <c r="N5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" t="s">
         <v>123</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>124</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>125</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>126</v>
       </c>
-      <c r="U5" t="s">
-        <v>127</v>
-      </c>
-      <c r="V5" t="s">
-        <v>128</v>
-      </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD5" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AC5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD5" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="AK5" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4683,80 +5383,80 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
         <v>116</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M6" t="s">
-        <v>120</v>
-      </c>
       <c r="N6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" t="s">
         <v>123</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>124</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>125</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>126</v>
       </c>
-      <c r="U6" t="s">
-        <v>127</v>
-      </c>
-      <c r="V6" t="s">
-        <v>128</v>
-      </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD6" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AC6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="AK6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="16.5" customHeight="1">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4764,80 +5464,80 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
         <v>116</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M7" t="s">
-        <v>120</v>
-      </c>
       <c r="N7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" t="s">
         <v>123</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>124</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>125</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>126</v>
       </c>
-      <c r="U7" t="s">
-        <v>127</v>
-      </c>
-      <c r="V7" t="s">
-        <v>128</v>
-      </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="AK7" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="16.5" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4845,80 +5545,80 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
         <v>116</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M8" t="s">
-        <v>120</v>
-      </c>
       <c r="N8" t="s">
+        <v>340</v>
+      </c>
+      <c r="O8" t="s">
         <v>342</v>
-      </c>
-      <c r="O8" t="s">
-        <v>344</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" t="s">
         <v>123</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>124</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>125</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>126</v>
       </c>
-      <c r="U8" t="s">
-        <v>127</v>
-      </c>
-      <c r="V8" t="s">
-        <v>128</v>
-      </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AC8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD8" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="AK8" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="15" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4926,88 +5626,88 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" t="s">
         <v>116</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" t="s">
         <v>129</v>
       </c>
-      <c r="I9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" t="s">
-        <v>120</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" t="s">
         <v>133</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="U9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA9">
         <v>101</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE9" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AE9" s="17" t="s">
-        <v>203</v>
-      </c>
       <c r="AF9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15" customHeight="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5015,94 +5715,94 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" t="s">
         <v>229</v>
       </c>
-      <c r="D10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" t="s">
-        <v>231</v>
-      </c>
       <c r="O10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>134</v>
-      </c>
-      <c r="R10" t="s">
-        <v>143</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA10">
         <v>101</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF10" t="s">
         <v>202</v>
       </c>
-      <c r="AC10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>204</v>
-      </c>
       <c r="AK10" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" customHeight="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5110,94 +5810,94 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
         <v>116</v>
       </c>
-      <c r="H11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" t="s">
         <v>144</v>
       </c>
-      <c r="M11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="Q11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA11">
         <v>101</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" customHeight="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5205,94 +5905,94 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" t="s">
         <v>116</v>
       </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s">
-        <v>120</v>
-      </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="Q12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA12">
         <v>101</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5300,97 +6000,97 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" t="s">
         <v>116</v>
       </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M13" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="P13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="Q13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" t="s">
-        <v>143</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="T13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="V13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AA13">
         <v>101</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE13" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG13" t="s">
         <v>220</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>221</v>
       </c>
-      <c r="AG13" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>223</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" customHeight="1">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5398,97 +6098,97 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
         <v>116</v>
       </c>
-      <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M14" t="s">
-        <v>120</v>
-      </c>
       <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="Q14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA14">
         <v>101</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD14" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE14" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG14" t="s">
         <v>224</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>225</v>
       </c>
-      <c r="AG14" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>227</v>
-      </c>
       <c r="AK14" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="15" customHeight="1">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5496,83 +6196,83 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s">
         <v>116</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="P15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" t="s">
+        <v>183</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="T15" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" t="s">
-        <v>216</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>183</v>
-      </c>
-      <c r="R15" t="s">
-        <v>185</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="V15" s="18"/>
       <c r="X15" s="12">
         <v>2880</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AA15">
         <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD15" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="AD15" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="AK15" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="15" customHeight="1">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5580,88 +6280,88 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" t="s">
         <v>116</v>
       </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" t="s">
-        <v>120</v>
-      </c>
       <c r="N16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="R16" s="9"/>
       <c r="T16" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V16" s="19"/>
       <c r="X16" s="12">
         <v>1547</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16">
         <v>201</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AH16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="15" customHeight="1">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5669,79 +6369,79 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" t="s">
         <v>116</v>
       </c>
-      <c r="H17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="N17" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R17" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M17" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q17" s="2" t="s">
+      <c r="S17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="X17" s="12">
         <v>2245</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>242</v>
+      <c r="Y17" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="AA17" s="21">
         <v>201</v>
       </c>
       <c r="AB17" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC17" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="15" customHeight="1">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5749,75 +6449,75 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18" t="s">
         <v>116</v>
       </c>
-      <c r="H18" t="s">
-        <v>244</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M18" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>353</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M18" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" t="s">
-        <v>355</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q18" s="2" t="s">
+      <c r="S18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="X18" s="12"/>
-      <c r="Y18" s="48"/>
+      <c r="Y18" s="46"/>
       <c r="AA18" s="21">
         <v>201</v>
       </c>
       <c r="AB18" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC18" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="15" customHeight="1">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5825,75 +6525,75 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19" t="s">
         <v>116</v>
       </c>
-      <c r="H19" t="s">
-        <v>244</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M19" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="N19" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19" t="s">
-        <v>354</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="S19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="X19" s="12"/>
-      <c r="Y19" s="48"/>
+      <c r="Y19" s="46"/>
       <c r="AA19" s="21">
         <v>201</v>
       </c>
       <c r="AB19" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="15" customHeight="1">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5901,75 +6601,75 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
-        <v>244</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M20" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="N20" t="s">
+        <v>354</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="M20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N20" t="s">
-        <v>356</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="S20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="X20" s="12"/>
-      <c r="Y20" s="48"/>
+      <c r="Y20" s="46"/>
       <c r="AA20" s="21">
         <v>201</v>
       </c>
       <c r="AB20" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC20" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5977,75 +6677,75 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" t="s">
         <v>116</v>
       </c>
-      <c r="H21" t="s">
-        <v>244</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M21" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="N21" t="s">
+        <v>355</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M21" t="s">
-        <v>120</v>
-      </c>
-      <c r="N21" t="s">
-        <v>357</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="S21" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="X21" s="12"/>
-      <c r="Y21" s="48"/>
+      <c r="Y21" s="46"/>
       <c r="AA21" s="21">
         <v>201</v>
       </c>
       <c r="AB21" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC21" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD21" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6053,75 +6753,75 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" t="s">
         <v>116</v>
       </c>
-      <c r="H22" t="s">
-        <v>244</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M22" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="N22" t="s">
+        <v>356</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M22" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" t="s">
-        <v>358</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="S22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="R22" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="X22" s="12"/>
-      <c r="Y22" s="48"/>
+      <c r="Y22" s="46"/>
       <c r="AA22" s="21">
         <v>201</v>
       </c>
       <c r="AB22" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC22" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD22" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="24">
         <v>2</v>
       </c>
@@ -6129,82 +6829,82 @@
         <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="H23" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="M23" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="K23" s="26" t="s">
+      <c r="N23" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="L23" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="N23" s="24" t="s">
+      <c r="O23" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="O23" s="27" t="s">
-        <v>260</v>
-      </c>
       <c r="Q23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S23" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T23" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V23" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA23" s="24">
         <v>30</v>
       </c>
       <c r="AB23" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD23" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="AC23" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD23" s="28" t="s">
-        <v>264</v>
-      </c>
       <c r="AE23" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF23" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AK23" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="29">
         <v>2</v>
       </c>
@@ -6212,85 +6912,85 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="H24" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="M24" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="N24" s="29" t="s">
+      <c r="O24" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="V24" s="34" t="s">
         <v>259</v>
-      </c>
-      <c r="O24" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="U24" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="V24" s="34" t="s">
-        <v>261</v>
       </c>
       <c r="AA24" s="29">
         <v>30</v>
       </c>
       <c r="AB24" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC24" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD24" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="AC24" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD24" s="33" t="s">
-        <v>264</v>
-      </c>
       <c r="AE24" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF24" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AK24" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="15" customHeight="1">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6298,73 +6998,73 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" t="s">
         <v>116</v>
       </c>
-      <c r="H25" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="N25" t="s">
+        <v>263</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M25" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" t="s">
-        <v>265</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="T25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V25" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA25">
         <v>130</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AC25" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="15" customHeight="1">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6372,82 +7072,82 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" t="s">
         <v>116</v>
       </c>
-      <c r="H26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M26" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M26" t="s">
-        <v>120</v>
-      </c>
       <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="S26" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V26" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA26">
         <v>130</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="15" customHeight="1">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6455,80 +7155,80 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" t="s">
         <v>116</v>
       </c>
-      <c r="H27" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M27" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="N27" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="R27" t="s">
         <v>320</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M27" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" t="s">
-        <v>272</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="T27" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="X27" s="12"/>
-      <c r="Y27" s="48" t="s">
-        <v>242</v>
+      <c r="Y27" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="AA27">
         <v>201</v>
       </c>
       <c r="AB27" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD27" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AE27" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D0553-379C-4204-9D89-BF8C7C3AD95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A2AC0-3B3A-45DD-B074-96152610B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2415" windowWidth="23820" windowHeight="19830" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="11910" yWindow="8670" windowWidth="33945" windowHeight="19830" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>Apollo Survey</t>
   </si>
   <si>
-    <t>APOLLO Weiterbildungen</t>
-  </si>
-  <si>
     <t>INVITE-Toolcheck Umfrage</t>
   </si>
   <si>
@@ -1456,6 +1453,9 @@
   </si>
   <si>
     <t>07.11.2023</t>
+  </si>
+  <si>
+    <t>Apollo App</t>
   </si>
 </sst>
 </file>
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BI28" sqref="BI28:BI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="BI2" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ2" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM2" s="7">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>107</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -2410,10 +2410,10 @@
         <v>5</v>
       </c>
       <c r="BI3" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM3" s="7">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>107</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -2478,10 +2478,10 @@
         <v>5</v>
       </c>
       <c r="BI4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM4" s="7">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>107</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -2546,10 +2546,10 @@
         <v>5</v>
       </c>
       <c r="BI5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ5" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM5" s="7">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -2614,10 +2614,10 @@
         <v>5</v>
       </c>
       <c r="BI6" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ6" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM6" s="7">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>5</v>
       </c>
       <c r="BI7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ7" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM7" s="7">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT8" s="7" t="s">
         <v>111</v>
@@ -2756,10 +2756,10 @@
         <v>5</v>
       </c>
       <c r="BI8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ8" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM8" s="7">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>107</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT9" s="7" t="s">
         <v>111</v>
@@ -2827,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="BI9" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ9" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ9" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM9" s="7">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT10" s="7" t="s">
         <v>111</v>
@@ -2898,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="BI10" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ10" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM10" s="7">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="AR11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT11" s="7" t="s">
         <v>111</v>
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="BI11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ11" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM11" s="7">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="AR12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT12" s="7" t="s">
         <v>111</v>
@@ -3037,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="BI12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ12" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ12" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM12" s="7">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="AR13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT13" s="7" t="s">
         <v>111</v>
@@ -3105,10 +3105,10 @@
         <v>5</v>
       </c>
       <c r="BI13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ13" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM13" s="7">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="AR14" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT14" s="7" t="s">
         <v>111</v>
@@ -3173,10 +3173,10 @@
         <v>5</v>
       </c>
       <c r="BI14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ14" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ14" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BM14" s="7">
         <v>0</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="15" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>107</v>
@@ -3242,10 +3242,10 @@
         <v>5</v>
       </c>
       <c r="BI15" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ15" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ15" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM15" s="12">
         <v>0</v>
@@ -3262,13 +3262,13 @@
     </row>
     <row r="16" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>20</v>
@@ -3311,10 +3311,10 @@
         <v>5</v>
       </c>
       <c r="BI16" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ16" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ16" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM16" s="12">
         <v>0</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="17" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>20</v>
@@ -3380,10 +3380,10 @@
         <v>5</v>
       </c>
       <c r="BI17" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ17" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ17" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM17" s="12">
         <v>0</v>
@@ -3400,13 +3400,13 @@
     </row>
     <row r="18" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>20</v>
@@ -3449,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="BI18" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ18" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ18" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM18" s="12">
         <v>0</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="19" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>20</v>
@@ -3518,10 +3518,10 @@
         <v>5</v>
       </c>
       <c r="BI19" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ19" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ19" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM19" s="12">
         <v>0</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="20" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>107</v>
@@ -3586,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="BI20" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ20" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ20" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM20" s="12">
         <v>0</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="21" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>107</v>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT21" s="12" t="s">
         <v>111</v>
@@ -3657,10 +3657,10 @@
         <v>5</v>
       </c>
       <c r="BI21" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ21" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ21" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM21" s="12">
         <v>0</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="22" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>20</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="AR22" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT22" s="12" t="s">
         <v>111</v>
@@ -3725,10 +3725,10 @@
         <v>5</v>
       </c>
       <c r="BI22" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ22" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ22" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM22" s="12">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="23" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>107</v>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="AR23" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT23" s="12" t="s">
         <v>111</v>
@@ -3793,10 +3793,10 @@
         <v>5</v>
       </c>
       <c r="BI23" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ23" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ23" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM23" s="12">
         <v>0</v>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="24" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>20</v>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="AR24" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT24" s="12" t="s">
         <v>111</v>
@@ -3861,10 +3861,10 @@
         <v>5</v>
       </c>
       <c r="BI24" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ24" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ24" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM24" s="12">
         <v>0</v>
@@ -3881,13 +3881,13 @@
     </row>
     <row r="25" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>20</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="AR25" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT25" s="12" t="s">
         <v>111</v>
@@ -3929,10 +3929,10 @@
         <v>5</v>
       </c>
       <c r="BI25" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ25" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ25" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM25" s="12">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="26" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>107</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="AR26" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT26" s="12" t="s">
         <v>111</v>
@@ -3997,10 +3997,10 @@
         <v>5</v>
       </c>
       <c r="BI26" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ26" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ26" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM26" s="12">
         <v>0</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="27" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>20</v>
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="AR27" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT27" s="12" t="s">
         <v>111</v>
@@ -4065,10 +4065,10 @@
         <v>5</v>
       </c>
       <c r="BI27" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ27" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ27" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="BM27" s="12">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="28" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>107</v>
@@ -4134,10 +4134,10 @@
         <v>5</v>
       </c>
       <c r="BI28" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ28" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ28" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM28" s="16">
         <v>0</v>
@@ -4154,13 +4154,13 @@
     </row>
     <row r="29" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>20</v>
@@ -4203,10 +4203,10 @@
         <v>5</v>
       </c>
       <c r="BI29" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ29" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ29" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM29" s="16">
         <v>0</v>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="30" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>20</v>
@@ -4272,10 +4272,10 @@
         <v>5</v>
       </c>
       <c r="BI30" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ30" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ30" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM30" s="16">
         <v>0</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="31" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>20</v>
@@ -4341,10 +4341,10 @@
         <v>5</v>
       </c>
       <c r="BI31" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ31" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ31" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM31" s="16">
         <v>0</v>
@@ -4361,13 +4361,13 @@
     </row>
     <row r="32" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>20</v>
@@ -4410,10 +4410,10 @@
         <v>5</v>
       </c>
       <c r="BI32" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ32" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ32" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM32" s="16">
         <v>0</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="33" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>107</v>
@@ -4478,10 +4478,10 @@
         <v>5</v>
       </c>
       <c r="BI33" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ33" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ33" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM33" s="16">
         <v>0</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="34" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>107</v>
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT34" s="16" t="s">
         <v>111</v>
@@ -4549,10 +4549,10 @@
         <v>5</v>
       </c>
       <c r="BI34" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ34" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ34" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM34" s="16">
         <v>0</v>
@@ -4569,13 +4569,13 @@
     </row>
     <row r="35" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>20</v>
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="AR35" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT35" s="16" t="s">
         <v>111</v>
@@ -4617,10 +4617,10 @@
         <v>5</v>
       </c>
       <c r="BI35" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ35" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ35" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM35" s="16">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="36" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>107</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AR36" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT36" s="16" t="s">
         <v>111</v>
@@ -4685,10 +4685,10 @@
         <v>5</v>
       </c>
       <c r="BI36" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ36" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ36" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM36" s="16">
         <v>0</v>
@@ -4705,13 +4705,13 @@
     </row>
     <row r="37" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>20</v>
@@ -4735,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="AR37" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT37" s="16" t="s">
         <v>111</v>
@@ -4753,10 +4753,10 @@
         <v>5</v>
       </c>
       <c r="BI37" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ37" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ37" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM37" s="16">
         <v>0</v>
@@ -4773,13 +4773,13 @@
     </row>
     <row r="38" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>20</v>
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT38" s="16" t="s">
         <v>111</v>
@@ -4821,10 +4821,10 @@
         <v>5</v>
       </c>
       <c r="BI38" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ38" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ38" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM38" s="16">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="39" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>107</v>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT39" s="16" t="s">
         <v>111</v>
@@ -4889,10 +4889,10 @@
         <v>5</v>
       </c>
       <c r="BI39" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ39" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ39" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM39" s="16">
         <v>0</v>
@@ -4909,13 +4909,13 @@
     </row>
     <row r="40" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>20</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="AR40" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT40" s="16" t="s">
         <v>111</v>
@@ -4957,10 +4957,10 @@
         <v>5</v>
       </c>
       <c r="BI40" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ40" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ40" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="BM40" s="16">
         <v>0</v>
@@ -5014,13 +5014,13 @@
   <sheetData>
     <row r="1" spans="1:37" s="20" customFormat="1" ht="18.75">
       <c r="A1" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>0</v>
@@ -5080,49 +5080,49 @@
         <v>18</v>
       </c>
       <c r="W1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AG1" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AI1" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="AK1" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="16.5" customHeight="1">
@@ -5133,59 +5133,59 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" t="s">
         <v>168</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>169</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>173</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>174</v>
-      </c>
-      <c r="O2" t="s">
-        <v>175</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" t="s">
         <v>176</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>177</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>178</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>179</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
-      </c>
-      <c r="V2" t="s">
-        <v>181</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -5193,17 +5193,17 @@
         <v>1</v>
       </c>
       <c r="AB2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE2" s="25"/>
       <c r="AK2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="16.5" customHeight="1">
@@ -5214,62 +5214,62 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="24" t="s">
+      <c r="K3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" t="s">
         <v>188</v>
       </c>
-      <c r="M3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>189</v>
-      </c>
-      <c r="O3" t="s">
-        <v>190</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s">
+        <v>175</v>
+      </c>
+      <c r="R3" t="s">
         <v>176</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>177</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>178</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>179</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>180</v>
-      </c>
-      <c r="V3" t="s">
-        <v>181</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -5277,17 +5277,17 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE3" s="25"/>
       <c r="AK3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1">
@@ -5298,62 +5298,62 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" t="s">
         <v>191</v>
       </c>
-      <c r="M4" t="s">
-        <v>173</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>192</v>
-      </c>
-      <c r="O4" t="s">
-        <v>193</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" t="s">
         <v>176</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>177</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>178</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>179</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>180</v>
-      </c>
-      <c r="V4" t="s">
-        <v>181</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -5361,17 +5361,17 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD4" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE4" s="25"/>
       <c r="AK4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="16.5" customHeight="1">
@@ -5382,62 +5382,62 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" t="s">
         <v>194</v>
       </c>
-      <c r="M5" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>195</v>
-      </c>
-      <c r="O5" t="s">
-        <v>196</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5" t="s">
         <v>176</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>177</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>179</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>180</v>
-      </c>
-      <c r="V5" t="s">
-        <v>181</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -5445,17 +5445,17 @@
         <v>1</v>
       </c>
       <c r="AB5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC5" t="s">
         <v>182</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD5" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE5" s="25"/>
       <c r="AK5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="16.5" customHeight="1">
@@ -5466,62 +5466,62 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" t="s">
         <v>197</v>
       </c>
-      <c r="M6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>198</v>
-      </c>
-      <c r="O6" t="s">
-        <v>199</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
+        <v>175</v>
+      </c>
+      <c r="R6" t="s">
         <v>176</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>177</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>178</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>180</v>
-      </c>
-      <c r="V6" t="s">
-        <v>181</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -5529,17 +5529,17 @@
         <v>1</v>
       </c>
       <c r="AB6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD6" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE6" s="25"/>
       <c r="AK6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="16.5" customHeight="1">
@@ -5550,62 +5550,62 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" t="s">
         <v>200</v>
       </c>
-      <c r="M7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>201</v>
-      </c>
-      <c r="O7" t="s">
-        <v>202</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
+        <v>175</v>
+      </c>
+      <c r="R7" t="s">
         <v>176</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>177</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>178</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>179</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>180</v>
-      </c>
-      <c r="V7" t="s">
-        <v>181</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -5613,17 +5613,17 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD7" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE7" s="25"/>
       <c r="AK7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="16.5" customHeight="1">
@@ -5634,62 +5634,62 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" t="s">
         <v>172</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" t="s">
         <v>203</v>
       </c>
-      <c r="M8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>204</v>
-      </c>
-      <c r="O8" t="s">
-        <v>205</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
+        <v>175</v>
+      </c>
+      <c r="R8" t="s">
         <v>176</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>177</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>178</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>179</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>180</v>
-      </c>
-      <c r="V8" t="s">
-        <v>181</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -5697,17 +5697,17 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC8" t="s">
         <v>182</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="AD8" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="AE8" s="25"/>
       <c r="AK8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1">
@@ -5718,84 +5718,84 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
         <v>206</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s">
         <v>207</v>
       </c>
-      <c r="F9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="I9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" t="s">
+        <v>172</v>
+      </c>
+      <c r="N9" t="s">
         <v>210</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s">
+        <v>212</v>
+      </c>
+      <c r="R9" t="s">
         <v>213</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9">
         <v>101</v>
       </c>
       <c r="AB9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC9" t="s">
         <v>219</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AE9" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AF9" t="s">
         <v>222</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AK9" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1">
@@ -5806,89 +5806,89 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>187</v>
-      </c>
       <c r="K10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N10" t="s">
         <v>226</v>
       </c>
-      <c r="M10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R10" t="s">
+        <v>228</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="Z10" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA10">
         <v>101</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC10" t="s">
         <v>219</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AE10" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="AE10" s="25" t="s">
-        <v>222</v>
-      </c>
       <c r="AF10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1">
@@ -5899,89 +5899,89 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
         <v>206</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" t="s">
         <v>207</v>
       </c>
-      <c r="F11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" t="s">
-        <v>208</v>
-      </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" t="s">
         <v>236</v>
       </c>
-      <c r="M11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Z11" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA11">
         <v>101</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC11" t="s">
         <v>219</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AD11" s="25" t="s">
-        <v>221</v>
-      </c>
       <c r="AE11" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF11" t="s">
         <v>241</v>
       </c>
-      <c r="AF11" t="s">
-        <v>242</v>
-      </c>
       <c r="AK11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1">
@@ -5992,89 +5992,89 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
         <v>206</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" t="s">
         <v>207</v>
       </c>
-      <c r="F12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" t="s">
-        <v>208</v>
-      </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" t="s">
         <v>245</v>
       </c>
-      <c r="M12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Z12" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA12">
         <v>101</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC12" t="s">
         <v>219</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AD12" s="25" t="s">
-        <v>221</v>
-      </c>
       <c r="AE12" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF12" t="s">
         <v>248</v>
       </c>
-      <c r="AF12" t="s">
-        <v>249</v>
-      </c>
       <c r="AK12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1">
@@ -6085,93 +6085,93 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
         <v>206</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" t="s">
         <v>207</v>
       </c>
-      <c r="F13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" t="s">
-        <v>208</v>
-      </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" t="s">
         <v>251</v>
       </c>
-      <c r="M13" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA13">
         <v>101</v>
       </c>
       <c r="AB13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC13" t="s">
         <v>219</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AD13" s="25" t="s">
-        <v>221</v>
-      </c>
       <c r="AE13" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF13" t="s">
         <v>255</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>256</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>257</v>
       </c>
-      <c r="AH13" t="s">
-        <v>258</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1">
@@ -6182,93 +6182,93 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" t="s">
         <v>206</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" t="s">
         <v>207</v>
       </c>
-      <c r="F14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" t="s">
-        <v>208</v>
-      </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" t="s">
         <v>260</v>
       </c>
-      <c r="M14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA14">
         <v>101</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC14" t="s">
         <v>219</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AD14" s="25" t="s">
-        <v>221</v>
-      </c>
       <c r="AE14" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF14" t="s">
         <v>264</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>265</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>266</v>
       </c>
-      <c r="AH14" t="s">
-        <v>267</v>
-      </c>
       <c r="AK14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1">
@@ -6279,80 +6279,80 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="I15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="K15" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s">
         <v>270</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M15" t="s">
-        <v>173</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s">
+        <v>272</v>
+      </c>
+      <c r="R15" t="s">
         <v>273</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="T15" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="U15" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="V15" s="27"/>
       <c r="X15" s="28">
         <v>2880</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15">
         <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC15" t="s">
         <v>279</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="AD15" s="25" t="s">
-        <v>281</v>
       </c>
       <c r="AE15" s="25"/>
       <c r="AK15" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1">
@@ -6363,85 +6363,85 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="E16" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="K16" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M16" t="s">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s">
         <v>285</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="R16" t="s">
         <v>288</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="V16" s="29"/>
       <c r="X16" s="28">
         <v>1547</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16">
         <v>201</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC16" t="s">
         <v>292</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AE16" t="s">
         <v>294</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>295</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>296</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>297</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AK16" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1">
@@ -6452,78 +6452,78 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="K17" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" t="s">
+        <v>172</v>
+      </c>
+      <c r="N17" t="s">
         <v>302</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M17" t="s">
-        <v>173</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="S17" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="X17" s="28">
         <v>2245</v>
       </c>
       <c r="Y17" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="32">
         <v>201</v>
       </c>
       <c r="AB17" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC17" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC17" s="32" t="s">
+      <c r="AD17" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="AD17" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="AE17" s="25"/>
       <c r="AK17" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1">
@@ -6534,56 +6534,56 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N18" t="s">
         <v>312</v>
       </c>
-      <c r="M18" t="s">
-        <v>173</v>
-      </c>
-      <c r="N18" t="s">
-        <v>313</v>
-      </c>
       <c r="O18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="R18" s="30" t="s">
+      <c r="S18" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="31"/>
@@ -6592,17 +6592,17 @@
         <v>201</v>
       </c>
       <c r="AB18" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC18" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC18" s="32" t="s">
+      <c r="AD18" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="AD18" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="AE18" s="25"/>
       <c r="AK18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1">
@@ -6613,56 +6613,56 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" t="s">
         <v>314</v>
       </c>
-      <c r="M19" t="s">
-        <v>173</v>
-      </c>
-      <c r="N19" t="s">
-        <v>315</v>
-      </c>
       <c r="O19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="R19" s="30" t="s">
+      <c r="S19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="X19" s="28"/>
       <c r="Y19" s="31"/>
@@ -6671,17 +6671,17 @@
         <v>201</v>
       </c>
       <c r="AB19" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC19" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC19" s="32" t="s">
+      <c r="AD19" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="AD19" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AK19" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1">
@@ -6692,56 +6692,56 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M20" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" t="s">
         <v>316</v>
       </c>
-      <c r="M20" t="s">
-        <v>173</v>
-      </c>
-      <c r="N20" t="s">
-        <v>317</v>
-      </c>
       <c r="O20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="R20" s="30" t="s">
+      <c r="S20" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="31"/>
@@ -6750,17 +6750,17 @@
         <v>201</v>
       </c>
       <c r="AB20" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC20" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC20" s="32" t="s">
+      <c r="AD20" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="AD20" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="AE20" s="25"/>
       <c r="AK20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1">
@@ -6771,56 +6771,56 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" t="s">
         <v>318</v>
       </c>
-      <c r="M21" t="s">
-        <v>173</v>
-      </c>
-      <c r="N21" t="s">
-        <v>319</v>
-      </c>
       <c r="O21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="S21" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="X21" s="28"/>
       <c r="Y21" s="31"/>
@@ -6829,17 +6829,17 @@
         <v>201</v>
       </c>
       <c r="AB21" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC21" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC21" s="32" t="s">
+      <c r="AD21" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="AD21" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="AE21" s="25"/>
       <c r="AK21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1">
@@ -6850,56 +6850,56 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="R22" s="30" t="s">
+      <c r="S22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="X22" s="28"/>
       <c r="Y22" s="31"/>
@@ -6908,17 +6908,17 @@
         <v>201</v>
       </c>
       <c r="AB22" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC22" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC22" s="32" t="s">
+      <c r="AD22" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="AD22" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="AE22" s="25"/>
       <c r="AK22" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="35" customFormat="1" ht="15" customHeight="1">
@@ -6929,80 +6929,80 @@
         <v>30</v>
       </c>
       <c r="D23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>168</v>
-      </c>
       <c r="H23" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J23" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="L23" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="L23" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" s="35" t="s">
+      <c r="O23" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="O23" s="38" t="s">
+      <c r="Q23" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="Q23" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="R23" s="35" t="s">
+      <c r="S23" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="T23" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="V23" s="39" t="s">
         <v>326</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="U23" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="V23" s="39" t="s">
-        <v>327</v>
       </c>
       <c r="X23" s="28"/>
       <c r="AA23" s="35">
         <v>30</v>
       </c>
       <c r="AB23" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC23" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="AC23" s="35" t="s">
+      <c r="AD23" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="AD23" s="41" t="s">
-        <v>330</v>
-      </c>
       <c r="AE23" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF23" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK23" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="42" customFormat="1" ht="15" customHeight="1">
@@ -7013,83 +7013,83 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>168</v>
-      </c>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J24" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L24" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="L24" s="40" t="s">
+      <c r="M24" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="M24" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>333</v>
-      </c>
       <c r="O24" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="R24" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="Q24" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="R24" s="42" t="s">
+      <c r="S24" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="S24" s="42" t="s">
+      <c r="T24" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="U24" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" s="39" t="s">
         <v>326</v>
-      </c>
-      <c r="T24" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="U24" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="V24" s="39" t="s">
-        <v>327</v>
       </c>
       <c r="X24" s="28"/>
       <c r="AA24" s="42">
         <v>30</v>
       </c>
       <c r="AB24" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC24" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AC24" s="42" t="s">
+      <c r="AD24" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="AD24" s="45" t="s">
-        <v>330</v>
-      </c>
       <c r="AE24" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF24" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK24" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1">
@@ -7100,58 +7100,58 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
         <v>206</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" t="s">
         <v>207</v>
       </c>
-      <c r="F25" t="s">
-        <v>207</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" t="s">
-        <v>208</v>
-      </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" t="s">
         <v>335</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M25" t="s">
-        <v>173</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="S25" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V25" s="39" t="s">
         <v>326</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="V25" s="39" t="s">
-        <v>327</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="7"/>
@@ -7160,15 +7160,15 @@
         <v>130</v>
       </c>
       <c r="AB25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC25" s="32" t="s">
         <v>340</v>
-      </c>
-      <c r="AC25" s="32" t="s">
-        <v>341</v>
       </c>
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
       <c r="AK25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1">
@@ -7179,82 +7179,82 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" t="s">
         <v>206</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
         <v>207</v>
       </c>
-      <c r="F26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" t="s">
-        <v>208</v>
-      </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J26" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M26" t="s">
+        <v>172</v>
+      </c>
+      <c r="N26" t="s">
         <v>343</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M26" t="s">
-        <v>173</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="Q26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="S26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V26" s="39" t="s">
         <v>326</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="V26" s="39" t="s">
-        <v>327</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26">
         <v>130</v>
       </c>
       <c r="AB26" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC26" t="s">
         <v>347</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>348</v>
       </c>
       <c r="AD26" s="25"/>
       <c r="AE26" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1">
@@ -7265,81 +7265,81 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J27" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" t="s">
         <v>351</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M27" t="s">
-        <v>173</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" t="s">
         <v>354</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="X27" s="28"/>
       <c r="Y27" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27">
         <v>201</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC27" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD27" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="AD27" s="25" t="s">
+      <c r="AE27" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="AE27" s="25" t="s">
+      <c r="AF27" t="s">
         <v>361</v>
       </c>
-      <c r="AF27" t="s">
-        <v>362</v>
-      </c>
       <c r="AK27" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1">
@@ -7350,52 +7350,52 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>168</v>
-      </c>
       <c r="H28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M28" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="M28" t="s">
-        <v>173</v>
-      </c>
-      <c r="N28" s="46" t="s">
+      <c r="O28" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" t="s">
+        <v>288</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="R28" t="s">
-        <v>289</v>
-      </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="X28" s="28">
         <v>1635</v>
@@ -7406,28 +7406,28 @@
         <v>61</v>
       </c>
       <c r="AB28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC28" t="s">
         <v>370</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="AD28" s="25" t="s">
+      <c r="AE28" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF28" t="s">
         <v>372</v>
       </c>
-      <c r="AE28" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH28" t="s">
         <v>373</v>
       </c>
-      <c r="AG28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH28" t="s">
+      <c r="AK28" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1">
@@ -7438,55 +7438,55 @@
         <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I29" t="s">
+        <v>375</v>
+      </c>
+      <c r="J29" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="K29" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M29" t="s">
+        <v>172</v>
+      </c>
+      <c r="N29" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M29" t="s">
-        <v>173</v>
-      </c>
-      <c r="N29" s="46" t="s">
+      <c r="O29" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="Q29" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="R29" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="X29" s="28">
         <v>5900</v>
@@ -7497,22 +7497,22 @@
         <v>160</v>
       </c>
       <c r="AB29" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC29" t="s">
         <v>386</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="AD29" s="25" t="s">
+      <c r="AE29" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="AE29" s="25" t="s">
+      <c r="AF29" t="s">
         <v>389</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AK29" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="15" customHeight="1">
@@ -7523,49 +7523,49 @@
         <v>161</v>
       </c>
       <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30" t="s">
         <v>207</v>
       </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="I30" t="s">
+        <v>375</v>
+      </c>
+      <c r="J30" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="H30" t="s">
-        <v>208</v>
-      </c>
-      <c r="I30" t="s">
-        <v>376</v>
-      </c>
-      <c r="J30" s="24" t="s">
+      <c r="K30" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M30" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M30" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30" s="46" t="s">
+      <c r="O30" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="T30" s="2"/>
       <c r="X30" s="28"/>
@@ -7575,22 +7575,22 @@
         <v>160</v>
       </c>
       <c r="AB30" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC30" t="s">
         <v>386</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="AD30" s="25" t="s">
-        <v>388</v>
-      </c>
       <c r="AE30" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1">
@@ -7601,50 +7601,50 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J31" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M31" t="s">
+        <v>172</v>
+      </c>
+      <c r="N31" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N31" s="46" t="s">
+      <c r="O31" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="X31" s="28">
         <v>2400</v>
@@ -7655,17 +7655,17 @@
         <v>161</v>
       </c>
       <c r="AB31" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC31" t="s">
         <v>407</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" s="25" t="s">
         <v>408</v>
-      </c>
-      <c r="AD31" s="25" t="s">
-        <v>409</v>
       </c>
       <c r="AE31" s="25"/>
       <c r="AK31" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="15" customHeight="1">
@@ -7676,50 +7676,50 @@
         <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J32" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" t="s">
         <v>411</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M32" t="s">
-        <v>173</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="O32" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" t="s">
         <v>414</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="X32" s="28">
         <v>4397.05</v>
@@ -7730,28 +7730,28 @@
         <v>201</v>
       </c>
       <c r="AB32" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC32" s="32" t="s">
+      <c r="AD32" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="AD32" s="34" t="s">
-        <v>294</v>
-      </c>
       <c r="AE32" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF32" t="s">
         <v>418</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>419</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>420</v>
       </c>
-      <c r="AH32" t="s">
-        <v>421</v>
-      </c>
       <c r="AK32" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1">
@@ -7762,50 +7762,50 @@
         <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M33" t="s">
+        <v>172</v>
+      </c>
+      <c r="N33" t="s">
         <v>422</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M33" t="s">
-        <v>173</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="O33" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" t="s">
+        <v>288</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="R33" t="s">
-        <v>289</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="T33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X33" s="28">
         <v>2195.5500000000002</v>
@@ -7816,22 +7816,22 @@
         <v>201</v>
       </c>
       <c r="AB33" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC33" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC33" s="32" t="s">
+      <c r="AD33" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="AD33" s="34" t="s">
-        <v>294</v>
-      </c>
       <c r="AE33" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF33" t="s">
         <v>427</v>
       </c>
-      <c r="AF33" t="s">
-        <v>428</v>
-      </c>
       <c r="AK33" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1">
@@ -7842,50 +7842,50 @@
         <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J34" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M34" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" t="s">
         <v>430</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="M34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="O34" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" t="s">
+        <v>288</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="R34" t="s">
-        <v>289</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="T34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X34" s="28">
         <v>1362.55</v>
@@ -7896,28 +7896,28 @@
         <v>201</v>
       </c>
       <c r="AB34" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC34" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AC34" s="32" t="s">
+      <c r="AD34" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="AD34" s="34" t="s">
-        <v>294</v>
-      </c>
       <c r="AE34" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG34" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH34" t="s">
         <v>435</v>
       </c>
-      <c r="AG34" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>436</v>
-      </c>
       <c r="AK34" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8054,14 +8054,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422B2238F8DAAD478C0837055D4C9439" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cc5534cd780fd9e31c09b047b200ae0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8859808f-556d-416b-ba10-3a64d67cd7c4" xmlns:ns4="0a02612f-c061-4319-bfdb-b5863aa27d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47912ec95e7c0f2f58d4b636259ebaea" ns3:_="" ns4:_="">
     <xsd:import namespace="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
@@ -8290,6 +8282,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
   <ds:schemaRefs>
@@ -8299,23 +8299,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8332,4 +8315,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanaBoscolo\source\repos\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A2AC0-3B3A-45DD-B074-96152610B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74ED414-1786-44E7-B194-9CEB9796F007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="8670" windowWidth="33945" windowHeight="19830" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="17028" yWindow="4188" windowWidth="26112" windowHeight="17352" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="453">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>Förderfähig durch einen Bildungsgutschein, die Deutsche Rentenversicherung Bund und Land sowie das Qualifizierungschancengesetz</t>
-  </si>
-  <si>
-    <t>&lt;Label TextType=\"Html\"&gt;\r\n    &lt;![CDATA[\r\n       &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ec66b111-d8d0-4516-88ba-ee0b6fe6f695\" target=\"_blank\"&gt;Kundenbestellungen bearbeiten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/27536739-c38b-45d2-9e96-1573b1d32fdd\" target=\"_blank\"&gt;Verpackungszubehör nutzen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63\" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d5fa1ed6-6cd8-41b9-8e78-2ba168ff3457\" target=\"_blank\"&gt;Bestellungen aus dem Online-Geschäft bearbeiten&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7838de1e-d65e-4a3f-b60b-e2213026116f\" target=\"_blank\"&gt;Geräte für den Materialtransport bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ab2bb44a-3956-4028-8715-8b70b1960b99\" target=\"_blank\"&gt;schwere Gewichte heben&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e0ae0101-ab8f-47a2-938b-ab0cc367b3b5\" target=\"_blank\"&gt;Lagerdatenbank pflegen&lt;/a&gt;.\r\n   \t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b91b6d4-345e-4195-a078-218514871e7b\" target=\"_blank\"&gt;effiziente Nutzung von Lagerraum sicherstellen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/28b7d7fb-0483-4877-9aaa-f990f10f16f5\" target=\"_blank\"&gt;Pick-by-Voice-Kommissionierungssysteme bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b2b8ec41-d6d1-470d-9e78-4eee515aaa3d\" target=\"_blank\"&gt;Kettensäge bedienen&lt;/a&gt;.\r\n\t   &lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/23db1cab-e565-4a90-89f8-3a8685a20029\" target=\"_blank\"&gt;den physischen Zustand des Lagers pflegen und aufrechterhalten&lt;/a&gt;.   \r\n    ]]&gt;\r\n &lt;/Label&gt;</t>
   </si>
   <si>
     <t>info-stuttgart@biwe.de</t>
@@ -1075,9 +1072,6 @@
     <t>Die TQ unterstützt Sie beim Einstieg in den Beruf Kaufmann im E-Commerce (m/w/d) und gibt Ihnen die Chance auf einen höher qualifizierten Arbeitsplatz. Überschaubare Lernphasen durch fachspezifische Ausrichtung der einzelnen Module, ermöglichen ein flexibles Lernen.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://esco.ec.europa.eu/de/classification/occupation?uri=http%3A//data.europa.eu/esco/occupation/cd94def5-3442-4c2e-ae3d-0761a3008bcb </t>
-  </si>
-  <si>
     <t>info-bbq@biwe.de</t>
   </si>
   <si>
@@ -1457,12 +1451,336 @@
   <si>
     <t>Apollo App</t>
   </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n           
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2cae39d6-78c2-4ce3-bee8-628504371463" target=\"_blank\"&gt;Waren entgegen nehmen&lt;/a&gt;.\r\n\t  
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/74aa45cf-175f-47ef-9978-d9de437d92ba" target=\"_blank\"&gt;konzentriert bleiben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/44f6a65f-6be7-4818-9a66-73908797283f" target=\"_blank\"&gt;Höhe des Lagerbestands überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/de804504-bd5c-465d-b54f-9da299d8ee90" target=\"_blank\"&gt;Bestandskontrollsysteme pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b1e4b6b3-c32e-426f-91a1-41b8adac086c" target=\"_blank\"&gt;Waren sichern&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b3b2547b-5c37-4d21-8ee5-f01b6bd672ae" target=\"_blank\"&gt;Anweisungen zur Bestandskontrolle befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fc511e12-fe90-40a0-bec8-227abb5e4255" target=\"_blank\"&gt;mündliche Anweisungen befolgen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ab2bb44a-3956-4028-8715-8b70b1960b99" target=\"_blank\"&gt;schwere Gewichte heben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b2acf48-7746-42d9-861f-5445e7ea6f48" target=\"_blank\"&gt;schriftliche Versandunterlagen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f8cd217b-b870-42aa-9bbe-d36b672cbb65" target=\"_blank\"&gt;Verpackungsverarbeitungsgeräte bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/110d7aa3-e44e-4cce-a927-8d4de615f3d9" target=\"_blank\"&gt;Abfall sortieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3d086228-d7fc-4c23-972a-22b7d44a6173" target=\"_blank\"&gt;Waren stapeln&lt;/a&gt;.\r\n\t  
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/8269dc3d-50ee-46b5-a742-a7d2cb7d90bb" target=\"_blank\"&gt;auf beschädigte Artikel überprüfen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4f1b6304-f54a-42f0-9604-5427a28d240f" target=\"_blank\"&gt;Reinigungsarbeiten durchführen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/078861f5-b901-48a5-951e-a3ad0a4fa0bd" target=\"_blank\"&gt;Lagergerät bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7c821387-b428-4f75-b5a7-7b038aa81cfd" target=\"_blank\"&gt;Lagerverwaltungssysteme nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a7a47148-732f-48bc-a7ce-18afe0d7f259" target=\"_blank\"&gt;Lager reinigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7a6f50a7-d876-461a-8336-f85a01af4c5f" target=\"_blank\"&gt;Kontrolle der Bestandsqualität beaufsichtigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bb127774-3166-4541-ad4c-cc3070fd93c5" target=\"_blank\"&gt;Retouren bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/082967d4-b94c-4305-aa13-35a6aa8c5c7c" target=\"_blank\"&gt;mit Kollegen und Kolleginnen zusammenarbeiten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5592ab32-4e7a-4cda-8e64-ca36d5de8a10" target=\"_blank\"&gt;sich an veränderte Situationen anpassen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54d68400-9da3-4077-a7ee-52e68b390ef6" target=\"_blank\"&gt;schriftliche Anweisungen befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bf05da8d-772a-4423-adb2-df79672f46f7" target=\"_blank\"&gt;Informationen ordnen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/77176c98-a246-4b3c-8777-dcb32e54e955" target=\"_blank\"&gt;zerbrechliche Gegenstände transportieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fd79b3c4-e264-41b5-bada-49ba5f317588" target=\"_blank\"&gt;Strichcode-Lesegeräte nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54bbf5e8-596f-4698-a451-06b3f1339722" target=\"_blank\"&gt;Qualitätskontrolle bei der Verpackung sicherstellen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe29e658-7cad-4b70-a169-10a240ec0bef" target=\"_blank\"&gt;in einem Logistikteam arbeiten&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n       
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4e7b2c61-aa42-404c-995f-32281b818923" target=\"_blank\"&gt;räumliches Vorstellungsvermögen haben&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/055ff233-6569-43db-9f95-a4b03dca97da" target=\"_blank\"&gt;Lagerdatenerfassungssysteme bedienen&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/74aa45cf-175f-47ef-9978-d9de437d92ba" target=\"_blank\"&gt;konzentriert bleiben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/44f6a65f-6be7-4818-9a66-73908797283f" target=\"_blank\"&gt;Höhe des Lagerbestands überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/de804504-bd5c-465d-b54f-9da299d8ee90" target=\"_blank\"&gt;Bestandskontrollsysteme pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d18408c1-c2ba-4835-9ee0-352705d807d0" target=\"_blank\"&gt;Wiegemaschine bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c0b74374-39ff-43cf-a0a9-6220c7ec5097" target=\"_blank\"&gt;Effizienzpläne für logistische Vorgänge umsetzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9685849e-f2b4-490f-85b5-20fc6fff9fdaa" target=\"_blank\"&gt;Beschriftungswerkzeuge für Lager nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b3b2547b-5c37-4d21-8ee5-f01b6bd672ae" target=\"_blank\"&gt;Anweisungen zur Bestandskontrolle befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fc511e12-fe90-40a0-bec8-227abb5e4255" target=\"_blank\"&gt;mündliche Anweisungen befolgen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b2acf48-7746-42d9-861f-5445e7ea6f48" target=\"_blank\"&gt;schriftliche Versandunterlagen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/57fb98c5-6862-4969-8bf4-a74ff14c4750" target=\"_blank\"&gt;Unterlagen im Zusammenhang mit Lagerbeständen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/415abd43-e8e5-4643-b5da-5f11307af57a" target=\"_blank\"&gt;verschiedene Kommunikationskanäle verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d15ce60f-ddab-41ce-ba56-398451b77b60" target=\"_blank\"&gt;EDV-Kenntnisse besitzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/af582ee4-bbc8-436c-96f2-df0cb2049f5d" target=\"_blank\"&gt;Produktcodierungssystem&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7c821387-b428-4f75-b5a7-7b038aa81cfd" target=\"_blank\"&gt;Lagerverwaltungssysteme nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/082967d4-b94c-4305-aa13-35a6aa8c5c7c" target=\"_blank\"&gt;mit Kollegen und Kolleginnen zusammenarbeiten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54d68400-9da3-4077-a7ee-52e68b390ef6" target=\"_blank\"&gt;schriftliche Anweisungen befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bf05da8d-772a-4423-adb2-df79672f46f7" target=\"_blank\"&gt;Informationen ordnen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fd79b3c4-e264-41b5-bada-49ba5f317588" target=\"_blank\"&gt;Strichcode-Lesegeräte nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54bbf5e8-596f-4698-a451-06b3f1339722" target=\"_blank\"&gt;Qualitätskontrolle bei der Verpackung sicherstellen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7afd29d7-9c9f-4151-83f2-562b8c94a3af" target=\"_blank\"&gt;Transportmanagementkonzepte anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/94a67c29-2078-4091-8bd9-9f10c7089a4c" target=\"_blank\"&gt;Kommunikation zwischen Schiff und Landseite durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3fedb2c6-488f-4c78-b20d-af23d481348a" target=\"_blank\"&gt;Umgang mit Verpackungsmaterial steuern&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe29e658-7cad-4b70-a169-10a240ec0bef" target=\"_blank\"&gt;in einem Logistikteam arbeiten&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n       
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/53b12b36-d27d-4ae9-8681-36d1cf697939" target=\"_blank\"&gt;Werkzeuge für Montage- und Hebearbeiten nutzen&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3c73898b-04a6-4e3a-b84a-3a032277c916" target=\"_blank\"&gt;Techniken zum Verstauen von Gütern in Container anwenden&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4e7b2c61-aa42-404c-995f-32281b818923" target=\"_blank\"&gt;räumliches Vorstellungsvermögen haben&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/055ff233-6569-43db-9f95-a4b03dca97da" target=\"_blank\"&gt;Lagerdatenerfassungssysteme bedienen&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3ab2b4be-e304-4c3c-98f5-ce0620218bc6" target=\"_blank\"&gt;beim Bewegen schwerer Lasten Unterstützung leisten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2cae39d6-78c2-4ce3-bee8-628504371463" target=\"_blank\"&gt;Waren entgegen nehmen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/23db1cab-e565-4a90-89f8-3a8685a20029" target=\"_blank\"&gt;den physischen Zustand des Lagers pflegen und aufrechterhalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/77397348-2ce4-4edb-81cc-9eb19f6a3ed7" target=\"_blank\"&gt;Produkte für den Versand laden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/74aa45cf-175f-47ef-9978-d9de437d92ba" target=\"_blank\"&gt;konzentriert bleiben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/44f6a65f-6be7-4818-9a66-73908797283f" target=\"_blank\"&gt;Höhe des Lagerbestands überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/de804504-bd5c-465d-b54f-9da299d8ee90" target=\"_blank\"&gt;Bestandskontrollsysteme pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/139a8761-e26c-4c19-b446-a2568c9eb578" target=\"_blank\"&gt;Industriecontainer reinigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d18408c1-c2ba-4835-9ee0-352705d807d0" target=\"_blank\"&gt;Wiegemaschine bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f3f15fe4-3e74-4cc2-b0ac-71a330885e3e" target=\"_blank\"&gt;beschädigte Waren vor dem Versand ermitteln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b1e4b6b3-c32e-426f-91a1-41b8adac086c" target=\"_blank\"&gt;Waren sichern&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c0b74374-39ff-43cf-a0a9-6220c7ec5097" target=\"_blank\"&gt;Effizienzpläne für logistische Vorgänge umsetzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9685849e-f2b4-490f-85b5-20fc6fff9fdaa" target=\"_blank\"&gt;Beschriftungswerkzeuge für Lager nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b3b2547b-5c37-4d21-8ee5-f01b6bd672ae" target=\"_blank\"&gt;Anweisungen zur Bestandskontrolle befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4ad83664-21a9-4f96-8834-0fc8f671be9c" target=\"_blank\"&gt;Abwicklung des Versandauftrags&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fc511e12-fe90-40a0-bec8-227abb5e4255" target=\"_blank\"&gt;mündliche Anweisungen befolgen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ab2bb44a-3956-4028-8715-8b70b1960b99" target=\"_blank\"&gt;schwere Gewichte heben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e1f5c539-7c93-49ee-917d-a24e0d887686" target=\"_blank\"&gt;Ausgaben kontrollieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b2acf48-7746-42d9-861f-5445e7ea6f48" target=\"_blank\"&gt;schriftliche Versandunterlagen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f8cd217b-b870-42aa-9bbe-d36b672cbb65" target=\"_blank\"&gt;Verpackungsverarbeitungsgeräte bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/57fb98c5-6862-4969-8bf4-a74ff14c4750" target=\"_blank\"&gt;Unterlagen im Zusammenhang mit Lagerbeständen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/110d7aa3-e44e-4cce-a927-8d4de615f3d9" target=\"_blank\"&gt;Abfall sortieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3d086228-d7fc-4c23-972a-22b7d44a6173" target=\"_blank\"&gt;Waren stapeln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/415abd43-e8e5-4643-b5da-5f11307af57a" target=\"_blank\"&gt;verschiedene Kommunikationskanäle verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/8269dc3d-50ee-46b5-a742-a7d2cb7d90bb" target=\"_blank\"&gt;auf beschädigte Artikel überprüfen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4f1b6304-f54a-42f0-9604-5427a28d240f" target=\"_blank\"&gt;Reinigungsarbeiten durchführen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ee5e2297-39cc-4ed6-89e5-d58016118a7f" target=\"_blank\"&gt;bestellte Waren zum Versand zusammenstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/078861f5-b901-48a5-951e-a3ad0a4fa0bd" target=\"_blank\"&gt;Lagergerät bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2e69f3a4-e0be-4990-aff7-facc1b6c6860" target=\"_blank\"&gt;Waren und den Sicherheitsverfahren entsprechende, ordnungsgemäße Verpackungen aufeinander abstimmen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d15ce60f-ddab-41ce-ba56-398451b77b60" target=\"_blank\"&gt;EDV-Kenntnisse besitzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fd9c8437-6e20-47b5-8508-f23f442446c2" target=\"_blank\"&gt;Paletten laden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/af2e97dc-fa66-421e-a793-ba4e4afa2dad" target=\"_blank\"&gt;bei industriellen Versandvorgängen verwendete Verpackungsarten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/af582ee4-bbc8-436c-96f2-df0cb2049f5d" target=\"_blank\"&gt;Produktcodierungssystem&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fb39389b-07d5-439f-948b-6c6e58c0384f" target=\"_blank\"&gt;ab Lagereinrichtungen beförderte Waren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/77397348-2ce4-4edb-81cc-9eb19f6a3ed7" target=\"_blank\"&gt;Produkte für den Versand laden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/35421ebd-dc4c-4827-adbb-faf4a98c1968" target=\"_blank\"&gt;Verfahren anwenden, damit die Fracht den Zollbestimmungen entspricht&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/486e0580-470f-42a2-bd6d-ec940c239a9b" target=\"_blank\"&gt;Verpackungsanforderungen analysieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7c821387-b428-4f75-b5a7-7b038aa81cfd" target=\"_blank\"&gt;Lagerverwaltungssysteme nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a7a47148-732f-48bc-a7ce-18afe0d7f259" target=\"_blank\"&gt;Lager reinigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7a6f50a7-d876-461a-8336-f85a01af4c5f" target=\"_blank\"&gt;Kontrolle der Bestandsqualität beaufsichtigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bb127774-3166-4541-ad4c-cc3070fd93c5" target=\"_blank\"&gt;Retouren bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/28d715e3-3e5b-4fb6-8dd2-4be4919c8587" target=\"_blank\"&gt;Kundenbeschwerden bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/082967d4-b94c-4305-aa13-35a6aa8c5c7c" target=\"_blank\"&gt;mit Kollegen und Kolleginnen zusammenarbeiten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/459f76d9-8534-4880-aa23-209179ea5080" target=\"_blank\"&gt;Verpackungsarbeiten überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5592ab32-4e7a-4cda-8e64-ca36d5de8a10" target=\"_blank\"&gt;sich an veränderte Situationen anpassen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9db00bb4-4c59-45d2-8040-bbef63361f89" target=\"_blank\"&gt;Waren zusammenstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54d68400-9da3-4077-a7ee-52e68b390ef6" target=\"_blank\"&gt;schriftliche Anweisungen befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bf05da8d-772a-4423-adb2-df79672f46f7" target=\"_blank\"&gt;Informationen ordnen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/77176c98-a246-4b3c-8777-dcb32e54e955" target=\"_blank\"&gt;zerbrechliche Gegenstände transportieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fd79b3c4-e264-41b5-bada-49ba5f317588" target=\"_blank\"&gt;Strichcode-Lesegeräte nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54bbf5e8-596f-4698-a451-06b3f1339722" target=\"_blank\"&gt;Qualitätskontrolle bei der Verpackung sicherstellen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7afd29d7-9c9f-4151-83f2-562b8c94a3af" target=\"_blank\"&gt;Transportmanagementkonzepte anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/01fec851-b5f4-419b-940a-3b4c835adfa8" target=\"_blank\"&gt;Verpackungsmaschinen bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/94a67c29-2078-4091-8bd9-9f10c7089a4c" target=\"_blank\"&gt;Kommunikation zwischen Schiff und Landseite durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3fedb2c6-488f-4c78-b20d-af23d481348a" target=\"_blank\"&gt;Umgang mit Verpackungsmaterial steuern&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe29e658-7cad-4b70-a169-10a240ec0bef" target=\"_blank\"&gt;in einem Logistikteam arbeiten&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n          
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/055ff233-6569-43db-9f95-a4b03dca97da" target=\"_blank\"&gt;Lagerdatenerfassungssysteme bedienen&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/74aa45cf-175f-47ef-9978-d9de437d92ba" target=\"_blank\"&gt;konzentriert bleiben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/44f6a65f-6be7-4818-9a66-73908797283f" target=\"_blank\"&gt;Höhe des Lagerbestands überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/de804504-bd5c-465d-b54f-9da299d8ee90" target=\"_blank\"&gt;Bestandskontrollsysteme pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/139a8761-e26c-4c19-b446-a2568c9eb578" target=\"_blank\"&gt;Industriecontainer reinigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d18408c1-c2ba-4835-9ee0-352705d807d0" target=\"_blank\"&gt;Wiegemaschine bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f3f15fe4-3e74-4cc2-b0ac-71a330885e3e" target=\"_blank\"&gt;beschädigte Waren vor dem Versand ermitteln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c0b74374-39ff-43cf-a0a9-6220c7ec5097" target=\"_blank\"&gt;Effizienzpläne für logistische Vorgänge umsetzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9685849e-f2b4-490f-85b5-20fc6fff9fdaa" target=\"_blank\"&gt;Beschriftungswerkzeuge für Lager nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b3b2547b-5c37-4d21-8ee5-f01b6bd672ae" target=\"_blank\"&gt;Anweisungen zur Bestandskontrolle befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4ad83664-21a9-4f96-8834-0fc8f671be9c" target=\"_blank\"&gt;Abwicklung des Versandauftrags&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fc511e12-fe90-40a0-bec8-227abb5e4255" target=\"_blank\"&gt;mündliche Anweisungen befolgen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e1f5c539-7c93-49ee-917d-a24e0d887686" target=\"_blank\"&gt;Ausgaben kontrollieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b2acf48-7746-42d9-861f-5445e7ea6f48" target=\"_blank\"&gt;schriftliche Versandunterlagen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f8cd217b-b870-42aa-9bbe-d36b672cbb65" target=\"_blank\"&gt;Verpackungsverarbeitungsgeräte bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/57fb98c5-6862-4969-8bf4-a74ff14c4750" target=\"_blank\"&gt;Unterlagen im Zusammenhang mit Lagerbeständen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/415abd43-e8e5-4643-b5da-5f11307af57a" target=\"_blank\"&gt;verschiedene Kommunikationskanäle verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/8269dc3d-50ee-46b5-a742-a7d2cb7d90bb" target=\"_blank\"&gt;auf beschädigte Artikel überprüfen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2e69f3a4-e0be-4990-aff7-facc1b6c6860" target=\"_blank\"&gt;Waren und den Sicherheitsverfahren entsprechende, ordnungsgemäße Verpackungen aufeinander abstimmen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d15ce60f-ddab-41ce-ba56-398451b77b60" target=\"_blank\"&gt;EDV-Kenntnisse besitzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/af2e97dc-fa66-421e-a793-ba4e4afa2dad" target=\"_blank\"&gt;bei industriellen Versandvorgängen verwendete Verpackungsarten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/af582ee4-bbc8-436c-96f2-df0cb2049f5d" target=\"_blank\"&gt;Produktcodierungssystem&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/35421ebd-dc4c-4827-adbb-faf4a98c1968" target=\"_blank\"&gt;Verfahren anwenden, damit die Fracht den Zollbestimmungen entspricht&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/486e0580-470f-42a2-bd6d-ec940c239a9b" target=\"_blank\"&gt;Verpackungsanforderungen analysieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7c821387-b428-4f75-b5a7-7b038aa81cfd" target=\"_blank\"&gt;Lagerverwaltungssysteme nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7a6f50a7-d876-461a-8336-f85a01af4c5f" target=\"_blank\"&gt;Kontrolle der Bestandsqualität beaufsichtigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bb127774-3166-4541-ad4c-cc3070fd93c5" target=\"_blank\"&gt;Retouren bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/082967d4-b94c-4305-aa13-35a6aa8c5c7c" target=\"_blank\"&gt;mit Kollegen und Kolleginnen zusammenarbeiten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/459f76d9-8534-4880-aa23-209179ea5080" target=\"_blank\"&gt;Verpackungsarbeiten überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5592ab32-4e7a-4cda-8e64-ca36d5de8a10" target=\"_blank\"&gt;sich an veränderte Situationen anpassen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54d68400-9da3-4077-a7ee-52e68b390ef6" target=\"_blank\"&gt;schriftliche Anweisungen befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bf05da8d-772a-4423-adb2-df79672f46f7" target=\"_blank\"&gt;Informationen ordnen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fd79b3c4-e264-41b5-bada-49ba5f317588" target=\"_blank\"&gt;Strichcode-Lesegeräte nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54bbf5e8-596f-4698-a451-06b3f1339722" target=\"_blank\"&gt;Qualitätskontrolle bei der Verpackung sicherstellen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7afd29d7-9c9f-4151-83f2-562b8c94a3af" target=\"_blank\"&gt;Transportmanagementkonzepte anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/01fec851-b5f4-419b-940a-3b4c835adfa8" target=\"_blank\"&gt;Verpackungsmaschinen bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3fedb2c6-488f-4c78-b20d-af23d481348a" target=\"_blank\"&gt;Umgang mit Verpackungsmaterial steuern&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe29e658-7cad-4b70-a169-10a240ec0bef" target=\"_blank\"&gt;in einem Logistikteam arbeiten&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n        
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c0b74374-39ff-43cf-a0a9-6220c7ec5097" target=\"_blank\"&gt;Effizienzpläne für logistische Vorgänge umsetzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4e7b2c61-aa42-404c-995f-32281b818923" target=\"_blank\"&gt;räumliches Vorstellungsvermögen haben&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/055ff233-6569-43db-9f95-a4b03dca97da" target=\"_blank\"&gt;Lagerdatenerfassungssysteme bedienen&lt;/a&gt;.\r\n\t   
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5d2e82cc-5943-4218-a459-a1956fad2b63" target=\"_blank\"&gt;Lagerbestand verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/74aa45cf-175f-47ef-9978-d9de437d92ba" target=\"_blank\"&gt;konzentriert bleiben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/44f6a65f-6be7-4818-9a66-73908797283f" target=\"_blank\"&gt;Höhe des Lagerbestands überwachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/de804504-bd5c-465d-b54f-9da299d8ee90" target=\"_blank\"&gt;Bestandskontrollsysteme pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b3b2547b-5c37-4d21-8ee5-f01b6bd672ae" target=\"_blank\"&gt;Anweisungen zur Bestandskontrolle befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4ad83664-21a9-4f96-8834-0fc8f671be9c" target=\"_blank\"&gt;Abwicklung des Versandauftrags&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fc511e12-fe90-40a0-bec8-227abb5e4255" target=\"_blank\"&gt;mündliche Anweisungen befolgen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e1f5c539-7c93-49ee-917d-a24e0d887686" target=\"_blank\"&gt;Ausgaben kontrollieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b2acf48-7746-42d9-861f-5445e7ea6f48" target=\"_blank\"&gt;schriftliche Versandunterlagen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/57fb98c5-6862-4969-8bf4-a74ff14c4750" target=\"_blank\"&gt;Unterlagen im Zusammenhang mit Lagerbeständen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/415abd43-e8e5-4643-b5da-5f11307af57a" target=\"_blank\"&gt;verschiedene Kommunikationskanäle verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/078861f5-b901-48a5-951e-a3ad0a4fa0bd" target=\"_blank\"&gt;Lagergerät bedienen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/af2e97dc-fa66-421e-a793-ba4e4afa2dad" target=\"_blank\"&gt;bei industriellen Versandvorgängen verwendete Verpackungsarten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7c821387-b428-4f75-b5a7-7b038aa81cfd" target=\"_blank\"&gt;Lagerverwaltungssysteme nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7a6f50a7-d876-461a-8336-f85a01af4c5f" target=\"_blank\"&gt;Kontrolle der Bestandsqualität beaufsichtigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/28d715e3-3e5b-4fb6-8dd2-4be4919c8587" target=\"_blank\"&gt;Kundenbeschwerden bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/082967d4-b94c-4305-aa13-35a6aa8c5c7c" target=\"_blank\"&gt;mit Kollegen und Kolleginnen zusammenarbeiten&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9db00bb4-4c59-45d2-8040-bbef63361f89" target=\"_blank\"&gt;Waren zusammenstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54d68400-9da3-4077-a7ee-52e68b390ef6" target=\"_blank\"&gt;schriftliche Anweisungen befolgen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bf05da8d-772a-4423-adb2-df79672f46f7" target=\"_blank\"&gt;Informationen ordnen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fd79b3c4-e264-41b5-bada-49ba5f317588" target=\"_blank\"&gt;Strichcode-Lesegeräte nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/54bbf5e8-596f-4698-a451-06b3f1339722" target=\"_blank\"&gt;Qualitätskontrolle bei der Verpackung sicherstellen&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7afd29d7-9c9f-4151-83f2-562b8c94a3af" target=\"_blank\"&gt;Transportmanagementkonzepte anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/94a67c29-2078-4091-8bd9-9f10c7089a4c" target=\"_blank\"&gt;Kommunikation zwischen Schiff und Landseite durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3fedb2c6-488f-4c78-b20d-af23d481348a" target=\"_blank\"&gt;Umgang mit Verpackungsmaterial steuern&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe29e658-7cad-4b70-a169-10a240ec0bef" target=\"_blank\"&gt;in einem Logistikteam arbeiten&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n        
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0675eb6d-7918-4248-917b-dbce45b06901" target=\"_blank\"&gt;Produktvorbereitung durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a6d697d1-80ba-4175-82d4-43440ed04270" target=\"_blank\"&gt;Rückerstattungen bearbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c81c9ea3-4689-4146-9076-24dd175c69bc" target=\"_blank\"&gt;aktives Verkaufen durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/77a11321-754a-41de-b9e4-80d747f528db" target=\"_blank\"&gt;Warenpräsentation organisieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/25fce4fb-35b6-49b6-a4fa-c7aa168fd770" target=\"_blank\"&gt;Ware untersuchen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/00e53a0a-c0ba-4c9f-a2ed-4706d5832a00" target=\"_blank\"&gt;Kundenzufriedenheit gewährleisten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/de7b8c6c-9ed4-4776-924c-4265dd1d9cde" target=\"_blank\"&gt;Merkmale von Produkten vorführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1dae8445-12e5-423a-bb26-824010e299b9" target=\"_blank\"&gt;Einhaltung der rechtlichen Bestimmungen sicherstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5dd01a1e-7ba0-4b7f-a76c-ed811c12bfde" target=\"_blank\"&gt;Rechenkenntnisse anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/415abd43-e8e5-4643-b5da-5f11307af57a" target=\"_blank\"&gt;verschiedene Kommunikationskanäle verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a89c463d-e6f0-417d-9216-b59b92249226" target=\"_blank\"&gt;Auftragsannahme durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2b69525c-731c-4813-99a7-673fa5679d32" target=\"_blank\"&gt;Kunden und Kundinnen Orientierung bei der Produktauswahl bieten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/debb8d81-ed7f-447d-853a-5d107fda6fcf" target=\"_blank\"&gt;Folgedienstleistungen für Kunden und Kundinnen erbringen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/68698869-c13c-4563-adc7-118b7644f45d" target=\"_blank\"&gt;Kundenbedürfnisse feststellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/efc1d46f-39ab-4c73-ade6-0a99a90dbeba" target=\"_blank\"&gt;Regelungen für den Kundendienst planen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1585fc98-bfe4-461f-97fc-734055a2c3ce" target=\"_blank\"&gt;Merkmale von Erzeugnissen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d6d3fee7-47e2-47f4-a0ec-6c75f28c6abd" target=\"_blank\"&gt;Produktverständnis&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0c0488b3-fca5-4deb-865b-8dc605c3d909" target=\"_blank\"&gt;Verkaufsargumentation&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b1272de4-1f5f-408b-8b26-061f2550fc72" target=\"_blank\"&gt;Systeme des elektronischen Geschäftsverkehrs&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fb3bc9b5-2297-4bba-85b1-60f696a92db8" target=\"_blank\"&gt;Merkmale von Dienstleistungen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe39d4db-4cb5-4299-bb9f-896c8fd6ab13" target=\"_blank\"&gt;Marktforschung durchführen&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n        
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/21fecc8a-392e-49ce-ac26-fb0696ccfead" target=\"_blank\"&gt;Projektspezifikationen erarbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f5dd06b8-5d17-4932-9d03-957d0c4f5051" target=\"_blank\"&gt;Ressourcenplanung durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/cd5efa8c-e44d-4cbc-91c6-796018dbed68" target=\"_blank\"&gt;Projekte managen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/87de6e49-ca1c-42a4-8751-5ff0b991966b" target=\"_blank\"&gt;mit Interessenträgern verhandeln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c3687b34-fe53-4db2-ad1b-5055a6c5b6fd" target=\"_blank\"&gt;Projekttreffen organisieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c927ec6e-9082-4b22-afd3-0c4e219eaf73" target=\"_blank\"&gt;Anlagewartung sicherstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e207163b-7963-4c3e-9494-7a4bb000211b" target=\"_blank\"&gt;voraussichtliche Dauer der Arbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/48b68726-0fd6-4e03-a5eb-82236516ee7a" target=\"_blank\"&gt;Berichte über Kosten-Nutzen-Analysen bereitstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/22902bf9-cc3f-495b-811a-c441e28e23f6" target=\"_blank\"&gt;Projektinformationen verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/953c0b65-537a-42fe-a90b-26cd36c64361" target=\"_blank\"&gt;Logistik leiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/020b3c27-bae1-4b85-9d6f-eccee0f5ed99" target=\"_blank\"&gt;Lieferungen organisieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9979e727-3104-42e0-8f41-4af2578111ea" target=\"_blank\"&gt;PESTEL-Analyse durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1dae8445-12e5-423a-bb26-824010e299b9" target=\"_blank\"&gt;Einhaltung der rechtlichen Bestimmungen sicherstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/69f23426-9279-4fe6-a283-24c2aa4c855d" target=\"_blank\"&gt;Verfügbarkeit von Geräten sicherstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/21c5790c-0930-4d74-b3b0-84caf5af12ea" target=\"_blank\"&gt;Finanzmittel verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/918f5211-b99f-4b29-9a34-6e475583ef55" target=\"_blank\"&gt;arbeitsbezogene Berichte verfassen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c5a135be-218d-48e6-a422-5225a576dcd8" target=\"_blank\"&gt;Projektmetriken verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4df7a57a-9405-4995-8e02-4ca404832247" target=\"_blank\"&gt;Projektänderungen verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f17f94f1-88cb-4815-873a-2a9639f10729" target=\"_blank\"&gt;Projektunterlagen ausarbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9013b46e-5a9b-4929-8918-fcadfdfd37ce" target=\"_blank\"&gt;Tagesgeschäft im Informationsbereich beaufsichtigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b9bf9e17-ae47-417b-bbb1-e8b7c263ccac" target=\"_blank\"&gt;rechtliche Bestimmungen ermitteln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e1f5c539-7c93-49ee-917d-a24e0d887686" target=\"_blank\"&gt;Ausgaben kontrollieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/65ca5e3c-940c-46b2-b277-aff394cfdd4c" target=\"_blank\"&gt;Prioritäten im täglichen Arbeitsablauf festlegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0ee94af1-b445-4973-9c3f-459fab250342" target=\"_blank\"&gt;Konfliktmanagement anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f5f5b244-6cea-4fbc-8a50-8f712791bc09" target=\"_blank\"&gt;Unternehmensstandards beachten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f14ff4b7-be1e-4b55-b39b-520005f8a97e" target=\"_blank\"&gt;Kontakte zu Managern pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/dc72ad0a-c5dc-4abd-bc0d-ca43e82162e1" target=\"_blank\"&gt;Geschäftsbeziehungen aufbauen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1dd23dba-dd00-45ab-abf4-642902538317" target=\"_blank\"&gt;Risikoanalyse durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3c03ee71-4a23-448f-b79e-81fd75d27dca" target=\"_blank\"&gt;Änderungsmanagement anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/32db65d3-5ef3-43eb-9bf8-752c9cf0b22e" target=\"_blank\"&gt;Methoden für Projekte anpassen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/339ac029-066a-4985-9f9d-b3d7c8fea0bb" target=\"_blank\"&gt;Mitarbeiter führen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fe30a4b0-1a99-4fc7-afff-b162b8c834ba" target=\"_blank\"&gt;Kommunikationsgrundsätze&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0daaf096-1639-461c-bf1a-bbeea77e6b67" target=\"_blank\"&gt;Richtlinien des internen Risikomanagements&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/237db40b-4600-47c0-837f-4a2c4f3014ab" target=\"_blank\"&gt;Prinzipien des Projektmanagements&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7111b95d-0ce3-441a-9d92-4c75d05c4388" target=\"_blank\"&gt;Projektleitung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/802e6973-3270-4cf0-86e4-a6835caf1ba6" target=\"_blank\"&gt;Projektmanagement-Methode (PM²)&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/dd7c9dfd-6e2c-46fd-aefc-369402d0200c" target=\"_blank\"&gt;einen Finanzbericht erstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3cd35f5d-ce6d-4f14-9a09-53d7a28d834c" target=\"_blank\"&gt;Beziehungen zu Lieferanten pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/496932f1-0b6b-4f73-9432-d95c7ddcd43b" target=\"_blank\"&gt;Mitarbeiter einstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7ff2c668-0e86-418a-a962-4958262ee337" target=\"_blank\"&gt;Kommunikationstechniken nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/770d4956-b5e0-4d44-bf42-3a766b232c5d" target=\"_blank\"&gt;ein zentrales Projekt-Repository unterhalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f0393af3-bcd9-41af-a36e-0cfb83b60081" target=\"_blank\"&gt;Standard-Warenwirtschaftssystem verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2a2fa8e8-aaf3-4abf-a60b-af6415f1c6d4" target=\"_blank\"&gt;Wachstum des Unternehmens anstreben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ead58f22-0af5-467c-ac1e-b750e4e1ac6a" target=\"_blank\"&gt;Wirtschaftspläne entwickeln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c881ddd2-9c0e-4743-bd24-36be650493dd" target=\"_blank\"&gt;mehrere Projekte leiten&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>04.03.2024</t>
+  </si>
+  <si>
+    <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>07.08.2023</t>
+  </si>
+  <si>
+    <t>24.04.2023</t>
+  </si>
+  <si>
+    <t>18.07.2023</t>
+  </si>
+  <si>
+    <t>31.07.2023</t>
+  </si>
+  <si>
+    <t>02.03.2023</t>
+  </si>
+  <si>
+    <t>10.04.2023</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>AttendeeCertificate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,7 +2049,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,7 +2062,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1755,6 +2071,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2072,18 +2394,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAAAA66-7B9A-4A00-A3EB-59B446683C3F}">
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BI28" sqref="BI28:BI40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -2289,7 +2611,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -2342,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ2" s="7" t="s">
         <v>112</v>
@@ -2360,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>90</v>
       </c>
@@ -2410,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="BI3" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ3" s="7" t="s">
         <v>112</v>
@@ -2428,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
@@ -2478,7 +2800,7 @@
         <v>5</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ4" s="7" t="s">
         <v>112</v>
@@ -2496,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>92</v>
       </c>
@@ -2546,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="BI5" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ5" s="7" t="s">
         <v>112</v>
@@ -2564,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>93</v>
       </c>
@@ -2614,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="BI6" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ6" s="7" t="s">
         <v>112</v>
@@ -2632,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>99</v>
       </c>
@@ -2682,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="BI7" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ7" s="7" t="s">
         <v>112</v>
@@ -2700,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>100</v>
       </c>
@@ -2756,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="BI8" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ8" s="7" t="s">
         <v>112</v>
@@ -2774,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>101</v>
       </c>
@@ -2827,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="BI9" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ9" s="7" t="s">
         <v>112</v>
@@ -2845,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>102</v>
       </c>
@@ -2898,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="BI10" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ10" s="7" t="s">
         <v>112</v>
@@ -2916,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -2969,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="BI11" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ11" s="7" t="s">
         <v>112</v>
@@ -2987,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>104</v>
       </c>
@@ -3037,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="BI12" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ12" s="7" t="s">
         <v>112</v>
@@ -3055,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>105</v>
       </c>
@@ -3105,7 +3427,7 @@
         <v>5</v>
       </c>
       <c r="BI13" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ13" s="7" t="s">
         <v>112</v>
@@ -3123,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:68" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>106</v>
       </c>
@@ -3173,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="BI14" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ14" s="7" t="s">
         <v>112</v>
@@ -3191,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>123</v>
       </c>
@@ -3242,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="BI15" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ15" s="12" t="s">
         <v>112</v>
@@ -3260,7 +3582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>124</v>
       </c>
@@ -3311,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="BI16" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ16" s="12" t="s">
         <v>112</v>
@@ -3329,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>125</v>
       </c>
@@ -3380,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="BI17" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ17" s="12" t="s">
         <v>112</v>
@@ -3398,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -3449,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="BI18" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ18" s="12" t="s">
         <v>112</v>
@@ -3467,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>127</v>
       </c>
@@ -3518,7 +3840,7 @@
         <v>5</v>
       </c>
       <c r="BI19" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ19" s="12" t="s">
         <v>112</v>
@@ -3536,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>128</v>
       </c>
@@ -3586,7 +3908,7 @@
         <v>5</v>
       </c>
       <c r="BI20" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ20" s="12" t="s">
         <v>112</v>
@@ -3604,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>129</v>
       </c>
@@ -3657,7 +3979,7 @@
         <v>5</v>
       </c>
       <c r="BI21" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ21" s="12" t="s">
         <v>112</v>
@@ -3675,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>130</v>
       </c>
@@ -3725,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="BI22" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ22" s="12" t="s">
         <v>112</v>
@@ -3743,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>131</v>
       </c>
@@ -3793,7 +4115,7 @@
         <v>5</v>
       </c>
       <c r="BI23" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ23" s="12" t="s">
         <v>112</v>
@@ -3811,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>132</v>
       </c>
@@ -3861,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="BI24" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ24" s="12" t="s">
         <v>112</v>
@@ -3879,7 +4201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>133</v>
       </c>
@@ -3929,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ25" s="12" t="s">
         <v>112</v>
@@ -3947,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>134</v>
       </c>
@@ -3997,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="BI26" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ26" s="12" t="s">
         <v>112</v>
@@ -4015,7 +4337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:68" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>135</v>
       </c>
@@ -4065,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="BI27" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ27" s="12" t="s">
         <v>112</v>
@@ -4083,7 +4405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>136</v>
       </c>
@@ -4134,7 +4456,7 @@
         <v>5</v>
       </c>
       <c r="BI28" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ28" s="16" t="s">
         <v>112</v>
@@ -4152,7 +4474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>137</v>
       </c>
@@ -4203,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="BI29" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ29" s="16" t="s">
         <v>112</v>
@@ -4221,7 +4543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
@@ -4272,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="BI30" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ30" s="16" t="s">
         <v>112</v>
@@ -4290,7 +4612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>139</v>
       </c>
@@ -4341,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="BI31" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ31" s="16" t="s">
         <v>112</v>
@@ -4359,7 +4681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>140</v>
       </c>
@@ -4410,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="BI32" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ32" s="16" t="s">
         <v>112</v>
@@ -4428,7 +4750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>141</v>
       </c>
@@ -4478,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="BI33" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ33" s="16" t="s">
         <v>112</v>
@@ -4496,7 +4818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>142</v>
       </c>
@@ -4549,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="BI34" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ34" s="16" t="s">
         <v>112</v>
@@ -4567,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>143</v>
       </c>
@@ -4617,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="BI35" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ35" s="16" t="s">
         <v>112</v>
@@ -4635,7 +4957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>144</v>
       </c>
@@ -4685,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="BI36" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ36" s="16" t="s">
         <v>112</v>
@@ -4703,7 +5025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>145</v>
       </c>
@@ -4753,7 +5075,7 @@
         <v>5</v>
       </c>
       <c r="BI37" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ37" s="16" t="s">
         <v>112</v>
@@ -4771,7 +5093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>146</v>
       </c>
@@ -4821,7 +5143,7 @@
         <v>5</v>
       </c>
       <c r="BI38" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ38" s="16" t="s">
         <v>112</v>
@@ -4839,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>147</v>
       </c>
@@ -4889,7 +5211,7 @@
         <v>5</v>
       </c>
       <c r="BI39" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ39" s="16" t="s">
         <v>112</v>
@@ -4907,7 +5229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:68" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>148</v>
       </c>
@@ -4957,7 +5279,7 @@
         <v>5</v>
       </c>
       <c r="BI40" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BJ40" s="16" t="s">
         <v>112</v>
@@ -4986,33 +5308,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="20" customFormat="1" ht="18.75">
+    <row r="1" spans="1:37" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>149</v>
       </c>
@@ -5125,7 +5447,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5" customHeight="1">
+    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5184,8 +5506,8 @@
       <c r="U2" t="s">
         <v>179</v>
       </c>
-      <c r="V2" t="s">
-        <v>180</v>
+      <c r="V2" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -5193,28 +5515,33 @@
         <v>1</v>
       </c>
       <c r="AB2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AE2" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AK2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>166</v>
@@ -5235,22 +5562,22 @@
         <v>169</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
         <v>172</v>
       </c>
       <c r="N3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" t="s">
         <v>188</v>
-      </c>
-      <c r="O3" t="s">
-        <v>189</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s">
@@ -5268,8 +5595,8 @@
       <c r="U3" t="s">
         <v>179</v>
       </c>
-      <c r="V3" t="s">
-        <v>180</v>
+      <c r="V3" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -5277,20 +5604,25 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC3" t="s">
         <v>181</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AE3" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE3" s="25"/>
-      <c r="AK3" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5" customHeight="1">
+    <row r="4" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5298,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
         <v>166</v>
@@ -5319,22 +5651,22 @@
         <v>169</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
         <v>172</v>
       </c>
       <c r="N4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O4" t="s">
         <v>191</v>
-      </c>
-      <c r="O4" t="s">
-        <v>192</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s">
@@ -5352,8 +5684,8 @@
       <c r="U4" t="s">
         <v>179</v>
       </c>
-      <c r="V4" t="s">
-        <v>180</v>
+      <c r="V4" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -5361,20 +5693,25 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC4" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AE4" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AK4" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5" customHeight="1">
+    <row r="5" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5382,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
         <v>166</v>
@@ -5403,22 +5740,22 @@
         <v>169</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M5" t="s">
         <v>172</v>
       </c>
       <c r="N5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" t="s">
         <v>194</v>
-      </c>
-      <c r="O5" t="s">
-        <v>195</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
@@ -5436,8 +5773,8 @@
       <c r="U5" t="s">
         <v>179</v>
       </c>
-      <c r="V5" t="s">
-        <v>180</v>
+      <c r="V5" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -5445,20 +5782,25 @@
         <v>1</v>
       </c>
       <c r="AB5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AE5" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" s="25"/>
-      <c r="AK5" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5" customHeight="1">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5466,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
         <v>166</v>
@@ -5487,22 +5829,22 @@
         <v>169</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M6" t="s">
         <v>172</v>
       </c>
       <c r="N6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O6" t="s">
         <v>197</v>
-      </c>
-      <c r="O6" t="s">
-        <v>198</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
@@ -5520,8 +5862,8 @@
       <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="V6" t="s">
-        <v>180</v>
+      <c r="V6" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -5529,20 +5871,25 @@
         <v>1</v>
       </c>
       <c r="AB6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AE6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE6" s="25"/>
-      <c r="AK6" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5" customHeight="1">
+    <row r="7" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5550,7 +5897,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
         <v>166</v>
@@ -5571,22 +5918,22 @@
         <v>169</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s">
         <v>172</v>
       </c>
       <c r="N7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" t="s">
         <v>200</v>
-      </c>
-      <c r="O7" t="s">
-        <v>201</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
@@ -5604,8 +5951,8 @@
       <c r="U7" t="s">
         <v>179</v>
       </c>
-      <c r="V7" t="s">
-        <v>180</v>
+      <c r="V7" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -5613,20 +5960,31 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC7" t="s">
         <v>181</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD7" s="25" t="s">
+      <c r="AE7" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" s="25"/>
-      <c r="AK7" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="8" spans="1:37" ht="16.5" customHeight="1">
+    <row r="8" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5634,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
         <v>166</v>
@@ -5655,22 +6013,22 @@
         <v>169</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M8" t="s">
         <v>172</v>
       </c>
       <c r="N8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" t="s">
         <v>203</v>
-      </c>
-      <c r="O8" t="s">
-        <v>204</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
@@ -5688,8 +6046,8 @@
       <c r="U8" t="s">
         <v>179</v>
       </c>
-      <c r="V8" t="s">
-        <v>180</v>
+      <c r="V8" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -5697,20 +6055,31 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AE8" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AE8" s="25"/>
-      <c r="AK8" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5718,87 +6087,87 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
         <v>205</v>
       </c>
-      <c r="E9" t="s">
-        <v>206</v>
-      </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" t="s">
         <v>169</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M9" t="s">
         <v>172</v>
       </c>
       <c r="N9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s">
+        <v>211</v>
+      </c>
+      <c r="R9" t="s">
         <v>212</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9">
         <v>101</v>
       </c>
       <c r="AB9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC9" t="s">
         <v>218</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AE9" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AF9" t="s">
         <v>221</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AK9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>223</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5806,92 +6175,92 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
         <v>205</v>
       </c>
-      <c r="E10" t="s">
-        <v>206</v>
-      </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
         <v>169</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="M10" t="s">
         <v>172</v>
       </c>
       <c r="N10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R10" t="s">
+        <v>227</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="Z10" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA10">
         <v>101</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC10" t="s">
         <v>218</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AE10" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="AE10" s="25" t="s">
-        <v>221</v>
-      </c>
       <c r="AF10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5899,92 +6268,92 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
         <v>205</v>
       </c>
-      <c r="E11" t="s">
-        <v>206</v>
-      </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I11" t="s">
         <v>169</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="M11" t="s">
         <v>172</v>
       </c>
       <c r="N11" t="s">
+        <v>235</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Z11" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AA11">
         <v>101</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC11" t="s">
         <v>218</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD11" s="25" t="s">
-        <v>220</v>
-      </c>
       <c r="AE11" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF11" t="s">
         <v>240</v>
       </c>
-      <c r="AF11" t="s">
-        <v>241</v>
-      </c>
       <c r="AK11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5992,92 +6361,92 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
         <v>205</v>
       </c>
-      <c r="E12" t="s">
-        <v>206</v>
-      </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
         <v>169</v>
       </c>
       <c r="J12" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="M12" t="s">
         <v>172</v>
       </c>
       <c r="N12" t="s">
+        <v>244</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Z12" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA12">
         <v>101</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC12" t="s">
         <v>218</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD12" s="25" t="s">
-        <v>220</v>
-      </c>
       <c r="AE12" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF12" t="s">
         <v>247</v>
       </c>
-      <c r="AF12" t="s">
-        <v>248</v>
-      </c>
       <c r="AK12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6085,96 +6454,96 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
         <v>205</v>
       </c>
-      <c r="E13" t="s">
-        <v>206</v>
-      </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" t="s">
         <v>169</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="M13" t="s">
         <v>172</v>
       </c>
       <c r="N13" t="s">
+        <v>250</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA13">
         <v>101</v>
       </c>
       <c r="AB13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC13" t="s">
         <v>218</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD13" s="25" t="s">
-        <v>220</v>
-      </c>
       <c r="AE13" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF13" t="s">
         <v>254</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>255</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>256</v>
       </c>
-      <c r="AH13" t="s">
-        <v>257</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6182,96 +6551,96 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
         <v>205</v>
       </c>
-      <c r="E14" t="s">
-        <v>206</v>
-      </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" t="s">
         <v>169</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="M14" t="s">
         <v>172</v>
       </c>
       <c r="N14" t="s">
+        <v>259</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA14">
         <v>101</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC14" t="s">
         <v>218</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD14" s="25" t="s">
-        <v>220</v>
-      </c>
       <c r="AE14" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF14" t="s">
         <v>263</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>264</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>265</v>
       </c>
-      <c r="AH14" t="s">
-        <v>266</v>
-      </c>
       <c r="AK14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6279,83 +6648,85 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>169</v>
       </c>
       <c r="J15" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M15" t="s">
         <v>172</v>
       </c>
       <c r="N15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s">
+        <v>271</v>
+      </c>
+      <c r="R15" t="s">
         <v>272</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="T15" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="U15" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="V15" s="27"/>
+      <c r="V15" s="27" t="s">
+        <v>437</v>
+      </c>
       <c r="X15" s="28">
         <v>2880</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15">
         <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC15" t="s">
         <v>278</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" s="25" t="s">
         <v>279</v>
-      </c>
-      <c r="AD15" s="25" t="s">
-        <v>280</v>
       </c>
       <c r="AE15" s="25"/>
       <c r="AK15" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6363,88 +6734,90 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I16" t="s">
         <v>169</v>
       </c>
       <c r="J16" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M16" t="s">
         <v>172</v>
       </c>
       <c r="N16" t="s">
+        <v>284</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R16" t="s">
         <v>287</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="V16" s="29"/>
+      <c r="V16" s="27" t="s">
+        <v>437</v>
+      </c>
       <c r="X16" s="28">
         <v>1547</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16">
         <v>201</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC16" t="s">
         <v>291</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AE16" t="s">
         <v>293</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>294</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>295</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>296</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AK16" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AK16" s="1" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6452,81 +6825,84 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I17" t="s">
         <v>169</v>
       </c>
       <c r="J17" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M17" t="s">
         <v>172</v>
       </c>
       <c r="N17" t="s">
+        <v>301</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="S17" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>308</v>
+      <c r="V17" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="X17" s="28">
         <v>2245</v>
       </c>
-      <c r="Y17" s="31" t="s">
-        <v>309</v>
+      <c r="Y17" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="32">
+      <c r="AA17" s="31">
         <v>201</v>
       </c>
-      <c r="AB17" s="33" t="s">
+      <c r="AB17" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC17" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC17" s="32" t="s">
+      <c r="AD17" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="AD17" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="AE17" s="25"/>
       <c r="AK17" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6534,78 +6910,81 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I18" t="s">
         <v>169</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M18" t="s">
         <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R18" s="30" t="s">
+      <c r="S18" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>308</v>
+      <c r="V18" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="X18" s="28"/>
-      <c r="Y18" s="31"/>
+      <c r="Y18" s="30"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="32">
+      <c r="AA18" s="31">
         <v>201</v>
       </c>
-      <c r="AB18" s="33" t="s">
+      <c r="AB18" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC18" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC18" s="32" t="s">
+      <c r="AD18" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="AD18" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="AE18" s="25"/>
       <c r="AK18" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6613,78 +6992,81 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
         <v>169</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M19" t="s">
         <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R19" s="30" t="s">
+      <c r="S19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>308</v>
+      <c r="V19" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="X19" s="28"/>
-      <c r="Y19" s="31"/>
+      <c r="Y19" s="30"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="32">
+      <c r="AA19" s="31">
         <v>201</v>
       </c>
-      <c r="AB19" s="33" t="s">
+      <c r="AB19" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC19" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC19" s="32" t="s">
+      <c r="AD19" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="AD19" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AK19" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6692,78 +7074,81 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
         <v>169</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M20" t="s">
         <v>172</v>
       </c>
       <c r="N20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R20" s="30" t="s">
+      <c r="S20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>308</v>
+      <c r="V20" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="X20" s="28"/>
-      <c r="Y20" s="31"/>
+      <c r="Y20" s="30"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="32">
+      <c r="AA20" s="31">
         <v>201</v>
       </c>
-      <c r="AB20" s="33" t="s">
+      <c r="AB20" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC20" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC20" s="32" t="s">
+      <c r="AD20" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="AD20" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="AE20" s="25"/>
       <c r="AK20" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6771,78 +7156,81 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I21" t="s">
         <v>169</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M21" t="s">
         <v>172</v>
       </c>
       <c r="N21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="S21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>308</v>
+      <c r="V21" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="X21" s="28"/>
-      <c r="Y21" s="31"/>
+      <c r="Y21" s="30"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="32">
+      <c r="AA21" s="31">
         <v>201</v>
       </c>
-      <c r="AB21" s="33" t="s">
+      <c r="AB21" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC21" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC21" s="32" t="s">
+      <c r="AD21" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="AD21" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="AE21" s="25"/>
       <c r="AK21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6850,249 +7238,252 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I22" t="s">
         <v>169</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M22" t="s">
         <v>172</v>
       </c>
       <c r="N22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="R22" s="30" t="s">
+      <c r="S22" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>308</v>
+      <c r="V22" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="X22" s="28"/>
-      <c r="Y22" s="31"/>
+      <c r="Y22" s="30"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="32">
+      <c r="AA22" s="31">
         <v>201</v>
       </c>
-      <c r="AB22" s="33" t="s">
+      <c r="AB22" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC22" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC22" s="32" t="s">
+      <c r="AD22" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="AD22" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="AE22" s="25"/>
       <c r="AK22" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="35">
+    <row r="23" spans="1:37" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
         <v>2</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <v>30</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>207</v>
+      <c r="G23" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="I23" t="s">
         <v>169</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="L23" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="L23" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="N23" s="35" t="s">
+      <c r="O23" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="O23" s="38" t="s">
+      <c r="Q23" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="Q23" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="R23" s="35" t="s">
+      <c r="S23" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="T23" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="U23" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="V23" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="X23" s="28"/>
+      <c r="AA23" s="34">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="T23" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="U23" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="V23" s="39" t="s">
+      <c r="AC23" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="X23" s="28"/>
-      <c r="AA23" s="35">
-        <v>30</v>
-      </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AD23" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="AC23" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD23" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE23" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF23" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK23" s="40" t="s">
+      <c r="AE23" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF23" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK23" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>2</v>
+      </c>
+      <c r="B24" s="40">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" s="42" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="42">
-        <v>2</v>
-      </c>
-      <c r="B24" s="42">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>207</v>
+      <c r="G24" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>206</v>
       </c>
       <c r="I24" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="R24" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="Q24" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" s="42" t="s">
+      <c r="S24" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="S24" s="42" t="s">
+      <c r="T24" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="U24" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="X24" s="28"/>
+      <c r="AA24" s="40">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="T24" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="U24" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="V24" s="39" t="s">
+      <c r="AC24" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="AA24" s="42">
-        <v>30</v>
-      </c>
-      <c r="AB24" s="40" t="s">
+      <c r="AD24" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="AC24" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD24" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE24" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF24" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK24" s="40" t="s">
-        <v>184</v>
+      <c r="AE24" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF24" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK24" s="38" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -7100,58 +7491,58 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" t="s">
         <v>205</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="H25" t="s">
         <v>206</v>
-      </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" t="s">
-        <v>207</v>
       </c>
       <c r="I25" t="s">
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M25" t="s">
         <v>172</v>
       </c>
       <c r="N25" t="s">
+        <v>333</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="S25" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>178</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V25" s="39" t="s">
-        <v>326</v>
+        <v>215</v>
+      </c>
+      <c r="V25" s="46" t="s">
+        <v>440</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="7"/>
@@ -7160,18 +7551,18 @@
         <v>130</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC25" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="AC25" s="31" t="s">
+        <v>338</v>
       </c>
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
       <c r="AK25" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7179,85 +7570,85 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" t="s">
         <v>205</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="H26" t="s">
         <v>206</v>
-      </c>
-      <c r="F26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" t="s">
-        <v>207</v>
       </c>
       <c r="I26" t="s">
         <v>169</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M26" t="s">
         <v>172</v>
       </c>
       <c r="N26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>178</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V26" s="39" t="s">
-        <v>326</v>
+        <v>215</v>
+      </c>
+      <c r="V26" s="46" t="s">
+        <v>440</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26">
         <v>130</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AC26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AD26" s="25"/>
       <c r="AE26" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7265,84 +7656,87 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>167</v>
+        <v>452</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
         <v>169</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M27" t="s">
         <v>172</v>
       </c>
       <c r="N27" t="s">
+        <v>349</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="R27" t="s">
         <v>352</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="T27" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>357</v>
+      <c r="V27" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="X27" s="28"/>
-      <c r="Y27" s="31" t="s">
-        <v>309</v>
+      <c r="Y27" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27">
         <v>201</v>
       </c>
-      <c r="AB27" s="33" t="s">
-        <v>291</v>
+      <c r="AB27" s="32" t="s">
+        <v>290</v>
       </c>
       <c r="AC27" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD27" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE27" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="AD27" s="25" t="s">
+      <c r="AF27" t="s">
         <v>359</v>
       </c>
-      <c r="AE27" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>361</v>
-      </c>
       <c r="AK27" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7359,43 +7753,46 @@
         <v>166</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>167</v>
+        <v>452</v>
       </c>
       <c r="H28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s">
         <v>169</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
       </c>
-      <c r="N28" s="46" t="s">
+      <c r="N28" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="R28" t="s">
+        <v>287</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="R28" t="s">
-        <v>288</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>368</v>
+      <c r="V28" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="X28" s="28">
         <v>1635</v>
@@ -7406,31 +7803,31 @@
         <v>61</v>
       </c>
       <c r="AB28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD28" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF28" t="s">
         <v>370</v>
       </c>
-      <c r="AD28" s="25" t="s">
+      <c r="AG28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH28" t="s">
         <v>371</v>
       </c>
-      <c r="AE28" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF28" t="s">
+      <c r="AK28" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AG28" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>374</v>
-      </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7438,55 +7835,55 @@
         <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>167</v>
+        <v>451</v>
       </c>
       <c r="H29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I29" t="s">
+        <v>373</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J29" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M29" t="s">
         <v>172</v>
       </c>
-      <c r="N29" s="46" t="s">
+      <c r="N29" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q29" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="S29" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="X29" s="28">
         <v>5900</v>
@@ -7497,25 +7894,25 @@
         <v>160</v>
       </c>
       <c r="AB29" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD29" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AE29" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="AD29" s="25" t="s">
+      <c r="AF29" t="s">
         <v>387</v>
       </c>
-      <c r="AE29" s="25" t="s">
+      <c r="AK29" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AF29" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7523,49 +7920,49 @@
         <v>161</v>
       </c>
       <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="H30" t="s">
         <v>206</v>
       </c>
-      <c r="E30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="I30" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H30" t="s">
-        <v>207</v>
-      </c>
-      <c r="I30" t="s">
-        <v>375</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M30" t="s">
         <v>172</v>
       </c>
-      <c r="N30" s="46" t="s">
+      <c r="N30" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="R30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="T30" s="2"/>
       <c r="X30" s="28"/>
@@ -7575,25 +7972,25 @@
         <v>160</v>
       </c>
       <c r="AB30" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD30" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="AC30" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD30" s="25" t="s">
-        <v>387</v>
-      </c>
       <c r="AE30" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -7601,50 +7998,53 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>167</v>
+        <v>450</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M31" t="s">
         <v>172</v>
       </c>
-      <c r="N31" s="46" t="s">
+      <c r="N31" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="X31" s="28">
         <v>2400</v>
@@ -7655,20 +8055,20 @@
         <v>161</v>
       </c>
       <c r="AB31" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD31" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD31" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="AE31" s="25"/>
       <c r="AK31" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7676,50 +8076,52 @@
         <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" s="24"/>
+        <v>281</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>450</v>
+      </c>
       <c r="H32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I32" t="s">
         <v>169</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M32" t="s">
         <v>172</v>
       </c>
       <c r="N32" t="s">
+        <v>409</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="R32" t="s">
         <v>412</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="R32" t="s">
+      <c r="T32" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="X32" s="28">
         <v>4397.05</v>
@@ -7729,32 +8131,32 @@
       <c r="AA32">
         <v>201</v>
       </c>
-      <c r="AB32" s="33" t="s">
+      <c r="AB32" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC32" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC32" s="32" t="s">
+      <c r="AD32" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AD32" s="34" t="s">
-        <v>293</v>
-      </c>
       <c r="AE32" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG32" t="s">
         <v>417</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AH32" t="s">
         <v>418</v>
       </c>
-      <c r="AG32" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>420</v>
-      </c>
       <c r="AK32" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7762,50 +8164,52 @@
         <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="24"/>
+        <v>281</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>450</v>
+      </c>
       <c r="H33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
         <v>169</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M33" t="s">
         <v>172</v>
       </c>
       <c r="N33" t="s">
+        <v>420</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="R33" t="s">
+        <v>287</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="R33" t="s">
-        <v>288</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="T33" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="X33" s="28">
         <v>2195.5500000000002</v>
@@ -7815,26 +8219,26 @@
       <c r="AA33">
         <v>201</v>
       </c>
-      <c r="AB33" s="33" t="s">
+      <c r="AB33" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC33" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC33" s="32" t="s">
+      <c r="AD33" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AD33" s="34" t="s">
-        <v>293</v>
-      </c>
       <c r="AE33" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7842,50 +8246,52 @@
         <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="24"/>
+        <v>281</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>450</v>
+      </c>
       <c r="H34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I34" t="s">
         <v>169</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M34" t="s">
         <v>172</v>
       </c>
       <c r="N34" t="s">
+        <v>428</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="R34" t="s">
+        <v>287</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="R34" t="s">
-        <v>288</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="T34" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="X34" s="28">
         <v>1362.55</v>
@@ -7895,33 +8301,34 @@
       <c r="AA34">
         <v>201</v>
       </c>
-      <c r="AB34" s="33" t="s">
+      <c r="AB34" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC34" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="AC34" s="32" t="s">
+      <c r="AD34" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AD34" s="34" t="s">
-        <v>293</v>
-      </c>
       <c r="AE34" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG34" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{CE90F343-5437-4965-96B1-072220C6CED5}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{8CE04B0C-6715-4C5E-8E44-73E5BC87F3D9}"/>
@@ -7958,102 +8365,89 @@
     <hyperlink ref="L24" r:id="rId33" xr:uid="{2DFC7BDD-2A96-40D8-BB6D-08AFB951FD69}"/>
     <hyperlink ref="K23" r:id="rId34" xr:uid="{41EBBCA3-F0E8-4E58-9F3C-2D5BD113EA88}"/>
     <hyperlink ref="K24" r:id="rId35" xr:uid="{DB7AA6E1-701B-4CC0-8AA0-EC3619DBE67D}"/>
-    <hyperlink ref="V23" r:id="rId36" xr:uid="{117C03E3-6AB5-45C8-AAF9-95750E4DFB33}"/>
-    <hyperlink ref="V24" r:id="rId37" xr:uid="{E066A92F-B2F0-491D-B1A7-AF352D8A2FB2}"/>
-    <hyperlink ref="AB23" r:id="rId38" xr:uid="{C6E01532-3FCD-4336-9BA1-10A227564C3E}"/>
-    <hyperlink ref="AB24" r:id="rId39" xr:uid="{CB114777-5AE4-4589-BBE3-A70F17FEC40A}"/>
-    <hyperlink ref="L26" r:id="rId40" location="box_eventlist" xr:uid="{A10F5223-E8E1-42DF-B9A8-452854618CF9}"/>
-    <hyperlink ref="L25" r:id="rId41" xr:uid="{C3953530-9EF0-4B2A-A216-438444B2FB34}"/>
-    <hyperlink ref="K26" r:id="rId42" location="box_eventlist" xr:uid="{D9FB8F58-CCE6-4AB9-9554-7941A734BFB5}"/>
-    <hyperlink ref="K25" r:id="rId43" xr:uid="{E5774072-115A-4C1D-AF74-2A6CA04CCBD8}"/>
-    <hyperlink ref="AB25" r:id="rId44" xr:uid="{48422D63-E971-4F92-921A-A4DFE62BFD03}"/>
-    <hyperlink ref="AB26" r:id="rId45" xr:uid="{57F13425-9C42-4DA7-8F7C-11497F4C0A58}"/>
-    <hyperlink ref="V25" r:id="rId46" xr:uid="{6574C666-F588-4C48-BC08-339D29112229}"/>
-    <hyperlink ref="V26" r:id="rId47" xr:uid="{30B1BDBC-EFAF-466D-AD43-412EACE5F139}"/>
-    <hyperlink ref="AK15" r:id="rId48" xr:uid="{A10C35B7-E762-46BD-9CDD-B5AF14DEB810}"/>
-    <hyperlink ref="AK9" r:id="rId49" xr:uid="{F99707CB-8FE5-4C04-8E73-C23AECCB6875}"/>
-    <hyperlink ref="AK10:AK14" r:id="rId50" display="https://www.bfz.de/kontakt" xr:uid="{0B8F4342-1501-4BCB-B5E4-AF09F1763AE2}"/>
-    <hyperlink ref="AK16" r:id="rId51" xr:uid="{E76FB1AE-DC17-4E5E-A20A-B7BD7ECD9DC2}"/>
-    <hyperlink ref="AK17" r:id="rId52" xr:uid="{FB0D6304-97EB-46D5-A9F5-93B97833460F}"/>
-    <hyperlink ref="AK23" r:id="rId53" xr:uid="{2F7D02D7-B9E5-4B74-93A6-E758F6A9E280}"/>
-    <hyperlink ref="AK24" r:id="rId54" xr:uid="{674426C5-6AEC-4CF0-AF72-4CB19414FC5B}"/>
-    <hyperlink ref="AK25" r:id="rId55" xr:uid="{CAE8AEBB-01BB-48BE-9C19-376AA60572F3}"/>
-    <hyperlink ref="AK26" r:id="rId56" xr:uid="{8F39F751-2862-45C3-8CBC-EBCA38A00DCC}"/>
-    <hyperlink ref="AK27" r:id="rId57" xr:uid="{60CDBCF1-1E85-49D1-95A2-9D29F691911D}"/>
-    <hyperlink ref="K17" r:id="rId58" xr:uid="{D0DBF6BC-A6BF-4E02-AACC-1E80F71C2425}"/>
-    <hyperlink ref="L17" r:id="rId59" xr:uid="{91A3F409-610D-47AC-97BD-E798BA027F84}"/>
-    <hyperlink ref="K27" r:id="rId60" xr:uid="{24805552-1F93-48B4-9818-6ED1261BBD1E}"/>
-    <hyperlink ref="L27" r:id="rId61" xr:uid="{53C7F97E-A4A5-404B-9AA0-39D0B3F624D0}"/>
-    <hyperlink ref="AB27" r:id="rId62" xr:uid="{AD99EBB2-9A42-4CE8-B8F8-93C1DD00F620}"/>
-    <hyperlink ref="K3" r:id="rId63" xr:uid="{9327A321-37DB-4BF2-9F82-E7614A8CECC7}"/>
-    <hyperlink ref="K4" r:id="rId64" xr:uid="{9D1207A4-A274-4B77-AAA7-C0EA1AEF0808}"/>
-    <hyperlink ref="K5" r:id="rId65" xr:uid="{3D7E6130-BB3E-4FD5-9E89-7172F3ADD685}"/>
-    <hyperlink ref="K6" r:id="rId66" xr:uid="{C53C0317-C9D4-4DF6-ACFF-C811370ADF51}"/>
-    <hyperlink ref="K7" r:id="rId67" xr:uid="{9C12FCB6-CCB3-40AA-8424-9A76CAB8CBD0}"/>
-    <hyperlink ref="L3" r:id="rId68" xr:uid="{F4EE54C7-86F0-4194-9016-4958A638B80F}"/>
-    <hyperlink ref="L4" r:id="rId69" xr:uid="{2A066521-47A5-4E8D-98A7-BD9E2ACB72E1}"/>
-    <hyperlink ref="L5" r:id="rId70" xr:uid="{2D5273EE-BD97-4FBC-9731-2929C24E035D}"/>
-    <hyperlink ref="L6" r:id="rId71" xr:uid="{EDF8F773-F4D1-4960-B80C-D8A1B715ECEB}"/>
-    <hyperlink ref="L7" r:id="rId72" xr:uid="{96A71AAB-9E9A-4728-AB05-B44F70B2E88D}"/>
-    <hyperlink ref="K8" r:id="rId73" xr:uid="{24A5E069-5B4F-42E3-85C4-1AF80689987F}"/>
-    <hyperlink ref="L8" r:id="rId74" xr:uid="{2C7B6CAA-7398-4850-8D13-FB1E06CABD0B}"/>
-    <hyperlink ref="AK2" r:id="rId75" xr:uid="{4069FB99-6BFD-4632-A3A1-8C78A6464C04}"/>
-    <hyperlink ref="AK3:AK8" r:id="rId76" display="https://www.biwe-bbq.de/" xr:uid="{2B754280-4445-49A0-AE95-C546C1784657}"/>
-    <hyperlink ref="K18:K22" r:id="rId77" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{481B9E9A-5951-4929-9928-8BA443592823}"/>
-    <hyperlink ref="L18:L22" r:id="rId78" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{7BFCEEA7-EA9B-442B-BBCB-E05B950C3DD3}"/>
-    <hyperlink ref="L18" r:id="rId79" xr:uid="{34CB6AC6-589B-4659-B1EC-09C87B8E2DBF}"/>
-    <hyperlink ref="L19" r:id="rId80" xr:uid="{1BA0A695-FEB1-4ED3-9F5F-4132F488107C}"/>
-    <hyperlink ref="L20" r:id="rId81" xr:uid="{E22A6DEF-F969-457D-ABCE-BC049278C2E4}"/>
-    <hyperlink ref="L21" r:id="rId82" xr:uid="{AC50AEA0-1D1E-44C8-82B8-594DC6C72E9B}"/>
-    <hyperlink ref="L22" r:id="rId83" xr:uid="{B457A56F-20B9-4452-808A-FD4F996A609B}"/>
-    <hyperlink ref="AB17" r:id="rId84" xr:uid="{3E74DBD9-CB2B-432D-A7D3-C50081846512}"/>
-    <hyperlink ref="AB18" r:id="rId85" xr:uid="{0BE4408F-7964-483B-9C05-46F28E3AA94B}"/>
-    <hyperlink ref="AB19" r:id="rId86" xr:uid="{D660F09A-453A-4A3A-8CC3-D1BB1A21ACE2}"/>
-    <hyperlink ref="AB20" r:id="rId87" xr:uid="{E39B89A8-B5CF-4411-A0C7-BB3DABF0F429}"/>
-    <hyperlink ref="AB21" r:id="rId88" xr:uid="{E64568EA-B42A-4FC5-AAB0-338365E69C21}"/>
-    <hyperlink ref="AB22" r:id="rId89" xr:uid="{519D4AC8-BE94-410A-88B1-181406146EFF}"/>
-    <hyperlink ref="AK18:AK22" r:id="rId90" display="https://www.tuv.com/jobfit" xr:uid="{247D654F-AD98-42D7-B42A-F88D1BC59E2C}"/>
-    <hyperlink ref="L28" r:id="rId91" xr:uid="{C6058673-81DE-4A31-943B-468FD47A2447}"/>
-    <hyperlink ref="K28" r:id="rId92" xr:uid="{0852469A-DACA-47A7-812E-EC9CFDB01C2C}"/>
-    <hyperlink ref="AB28" r:id="rId93" xr:uid="{8DE27A13-08CB-4AC9-8355-D874776CE52D}"/>
-    <hyperlink ref="AK28" r:id="rId94" xr:uid="{3D7854CD-16E4-485A-8359-05D9BEF38F6A}"/>
-    <hyperlink ref="K32" r:id="rId95" xr:uid="{CF95DBBE-54DC-4037-9448-03DC05304A43}"/>
-    <hyperlink ref="L32" r:id="rId96" xr:uid="{89D8A758-9885-4755-B813-C8AF44DB4A85}"/>
-    <hyperlink ref="AB32" r:id="rId97" xr:uid="{F88AFA70-FEB4-40A0-A9D4-496D6BD735C1}"/>
-    <hyperlink ref="AK32" r:id="rId98" xr:uid="{E440215F-7763-46A9-AC2E-249AA8B22948}"/>
-    <hyperlink ref="K33" r:id="rId99" xr:uid="{F068538C-D850-4D79-A062-06910C13D8E0}"/>
-    <hyperlink ref="L33" r:id="rId100" xr:uid="{5473926C-3B4C-4300-8303-5C896CDE80F1}"/>
-    <hyperlink ref="AB33" r:id="rId101" xr:uid="{C93EB906-51C5-4D94-BF6E-2FD08576437F}"/>
-    <hyperlink ref="AK33" r:id="rId102" xr:uid="{5DACEF05-A133-487D-9495-88AE85CC9B40}"/>
-    <hyperlink ref="K34" r:id="rId103" xr:uid="{0622D9A8-2CF5-47B1-AE3F-A299E2475469}"/>
-    <hyperlink ref="L34" r:id="rId104" xr:uid="{12277F2F-6286-4E8F-AEEB-DB1049FFD1EF}"/>
-    <hyperlink ref="AB34" r:id="rId105" xr:uid="{C743E014-3894-4476-8216-163EAE873499}"/>
-    <hyperlink ref="AK34" r:id="rId106" xr:uid="{0517BAA0-8119-4BBC-935E-6358CB148F08}"/>
-    <hyperlink ref="L29" r:id="rId107" xr:uid="{B39A5727-4AA5-4AF9-975C-20A1836ECCA3}"/>
-    <hyperlink ref="K29" r:id="rId108" xr:uid="{7BFE051F-96F0-4BB4-A6D1-346C77FD2227}"/>
-    <hyperlink ref="K30" r:id="rId109" xr:uid="{C9D3256A-2D16-4469-88C8-F5FB2E8F12CA}"/>
-    <hyperlink ref="L30" r:id="rId110" xr:uid="{2A8830E0-69DF-476F-9461-1119DC926CA9}"/>
-    <hyperlink ref="L31" r:id="rId111" xr:uid="{3C2C025A-F330-4302-87A3-87350273D7C6}"/>
-    <hyperlink ref="K31" r:id="rId112" xr:uid="{DE9B6ADF-5598-4C2F-8895-090C0B719465}"/>
-    <hyperlink ref="AB31" r:id="rId113" xr:uid="{90FFA0E8-44AF-44AC-91DF-EC5EA2BD02D6}"/>
-    <hyperlink ref="AK31" r:id="rId114" xr:uid="{FBC98349-E58F-476F-9C64-AFF7A92A682F}"/>
-    <hyperlink ref="AK30" r:id="rId115" xr:uid="{8F951AC2-0E99-4071-965F-8368FD647468}"/>
-    <hyperlink ref="AK29" r:id="rId116" xr:uid="{A710276F-CD12-46ED-A703-49D7967E8767}"/>
+    <hyperlink ref="AB23" r:id="rId36" xr:uid="{C6E01532-3FCD-4336-9BA1-10A227564C3E}"/>
+    <hyperlink ref="AB24" r:id="rId37" xr:uid="{CB114777-5AE4-4589-BBE3-A70F17FEC40A}"/>
+    <hyperlink ref="L26" r:id="rId38" location="box_eventlist" xr:uid="{A10F5223-E8E1-42DF-B9A8-452854618CF9}"/>
+    <hyperlink ref="L25" r:id="rId39" xr:uid="{C3953530-9EF0-4B2A-A216-438444B2FB34}"/>
+    <hyperlink ref="K26" r:id="rId40" location="box_eventlist" xr:uid="{D9FB8F58-CCE6-4AB9-9554-7941A734BFB5}"/>
+    <hyperlink ref="K25" r:id="rId41" xr:uid="{E5774072-115A-4C1D-AF74-2A6CA04CCBD8}"/>
+    <hyperlink ref="AB25" r:id="rId42" xr:uid="{48422D63-E971-4F92-921A-A4DFE62BFD03}"/>
+    <hyperlink ref="AB26" r:id="rId43" xr:uid="{57F13425-9C42-4DA7-8F7C-11497F4C0A58}"/>
+    <hyperlink ref="AK15" r:id="rId44" xr:uid="{A10C35B7-E762-46BD-9CDD-B5AF14DEB810}"/>
+    <hyperlink ref="AK9" r:id="rId45" xr:uid="{F99707CB-8FE5-4C04-8E73-C23AECCB6875}"/>
+    <hyperlink ref="AK10:AK14" r:id="rId46" display="https://www.bfz.de/kontakt" xr:uid="{0B8F4342-1501-4BCB-B5E4-AF09F1763AE2}"/>
+    <hyperlink ref="AK16" r:id="rId47" xr:uid="{E76FB1AE-DC17-4E5E-A20A-B7BD7ECD9DC2}"/>
+    <hyperlink ref="AK17" r:id="rId48" xr:uid="{FB0D6304-97EB-46D5-A9F5-93B97833460F}"/>
+    <hyperlink ref="AK23" r:id="rId49" xr:uid="{2F7D02D7-B9E5-4B74-93A6-E758F6A9E280}"/>
+    <hyperlink ref="AK24" r:id="rId50" xr:uid="{674426C5-6AEC-4CF0-AF72-4CB19414FC5B}"/>
+    <hyperlink ref="AK25" r:id="rId51" xr:uid="{CAE8AEBB-01BB-48BE-9C19-376AA60572F3}"/>
+    <hyperlink ref="AK26" r:id="rId52" xr:uid="{8F39F751-2862-45C3-8CBC-EBCA38A00DCC}"/>
+    <hyperlink ref="AK27" r:id="rId53" xr:uid="{60CDBCF1-1E85-49D1-95A2-9D29F691911D}"/>
+    <hyperlink ref="K17" r:id="rId54" xr:uid="{D0DBF6BC-A6BF-4E02-AACC-1E80F71C2425}"/>
+    <hyperlink ref="L17" r:id="rId55" xr:uid="{91A3F409-610D-47AC-97BD-E798BA027F84}"/>
+    <hyperlink ref="K27" r:id="rId56" xr:uid="{24805552-1F93-48B4-9818-6ED1261BBD1E}"/>
+    <hyperlink ref="L27" r:id="rId57" xr:uid="{53C7F97E-A4A5-404B-9AA0-39D0B3F624D0}"/>
+    <hyperlink ref="AB27" r:id="rId58" xr:uid="{AD99EBB2-9A42-4CE8-B8F8-93C1DD00F620}"/>
+    <hyperlink ref="K3" r:id="rId59" xr:uid="{9327A321-37DB-4BF2-9F82-E7614A8CECC7}"/>
+    <hyperlink ref="K4" r:id="rId60" xr:uid="{9D1207A4-A274-4B77-AAA7-C0EA1AEF0808}"/>
+    <hyperlink ref="K5" r:id="rId61" xr:uid="{3D7E6130-BB3E-4FD5-9E89-7172F3ADD685}"/>
+    <hyperlink ref="K6" r:id="rId62" xr:uid="{C53C0317-C9D4-4DF6-ACFF-C811370ADF51}"/>
+    <hyperlink ref="K7" r:id="rId63" xr:uid="{9C12FCB6-CCB3-40AA-8424-9A76CAB8CBD0}"/>
+    <hyperlink ref="L3" r:id="rId64" xr:uid="{F4EE54C7-86F0-4194-9016-4958A638B80F}"/>
+    <hyperlink ref="L4" r:id="rId65" xr:uid="{2A066521-47A5-4E8D-98A7-BD9E2ACB72E1}"/>
+    <hyperlink ref="L5" r:id="rId66" xr:uid="{2D5273EE-BD97-4FBC-9731-2929C24E035D}"/>
+    <hyperlink ref="L6" r:id="rId67" xr:uid="{EDF8F773-F4D1-4960-B80C-D8A1B715ECEB}"/>
+    <hyperlink ref="L7" r:id="rId68" xr:uid="{96A71AAB-9E9A-4728-AB05-B44F70B2E88D}"/>
+    <hyperlink ref="K8" r:id="rId69" xr:uid="{24A5E069-5B4F-42E3-85C4-1AF80689987F}"/>
+    <hyperlink ref="L8" r:id="rId70" xr:uid="{2C7B6CAA-7398-4850-8D13-FB1E06CABD0B}"/>
+    <hyperlink ref="AK2" r:id="rId71" xr:uid="{4069FB99-6BFD-4632-A3A1-8C78A6464C04}"/>
+    <hyperlink ref="AK3:AK8" r:id="rId72" display="https://www.biwe-bbq.de/" xr:uid="{2B754280-4445-49A0-AE95-C546C1784657}"/>
+    <hyperlink ref="K18:K22" r:id="rId73" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{481B9E9A-5951-4929-9928-8BA443592823}"/>
+    <hyperlink ref="L18:L22" r:id="rId74" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{7BFCEEA7-EA9B-442B-BBCB-E05B950C3DD3}"/>
+    <hyperlink ref="L18" r:id="rId75" xr:uid="{34CB6AC6-589B-4659-B1EC-09C87B8E2DBF}"/>
+    <hyperlink ref="L19" r:id="rId76" xr:uid="{1BA0A695-FEB1-4ED3-9F5F-4132F488107C}"/>
+    <hyperlink ref="L20" r:id="rId77" xr:uid="{E22A6DEF-F969-457D-ABCE-BC049278C2E4}"/>
+    <hyperlink ref="L21" r:id="rId78" xr:uid="{AC50AEA0-1D1E-44C8-82B8-594DC6C72E9B}"/>
+    <hyperlink ref="L22" r:id="rId79" xr:uid="{B457A56F-20B9-4452-808A-FD4F996A609B}"/>
+    <hyperlink ref="AB17" r:id="rId80" xr:uid="{3E74DBD9-CB2B-432D-A7D3-C50081846512}"/>
+    <hyperlink ref="AB18" r:id="rId81" xr:uid="{0BE4408F-7964-483B-9C05-46F28E3AA94B}"/>
+    <hyperlink ref="AB19" r:id="rId82" xr:uid="{D660F09A-453A-4A3A-8CC3-D1BB1A21ACE2}"/>
+    <hyperlink ref="AB20" r:id="rId83" xr:uid="{E39B89A8-B5CF-4411-A0C7-BB3DABF0F429}"/>
+    <hyperlink ref="AB21" r:id="rId84" xr:uid="{E64568EA-B42A-4FC5-AAB0-338365E69C21}"/>
+    <hyperlink ref="AB22" r:id="rId85" xr:uid="{519D4AC8-BE94-410A-88B1-181406146EFF}"/>
+    <hyperlink ref="AK18:AK22" r:id="rId86" display="https://www.tuv.com/jobfit" xr:uid="{247D654F-AD98-42D7-B42A-F88D1BC59E2C}"/>
+    <hyperlink ref="L28" r:id="rId87" xr:uid="{C6058673-81DE-4A31-943B-468FD47A2447}"/>
+    <hyperlink ref="K28" r:id="rId88" xr:uid="{0852469A-DACA-47A7-812E-EC9CFDB01C2C}"/>
+    <hyperlink ref="AB28" r:id="rId89" xr:uid="{8DE27A13-08CB-4AC9-8355-D874776CE52D}"/>
+    <hyperlink ref="AK28" r:id="rId90" xr:uid="{3D7854CD-16E4-485A-8359-05D9BEF38F6A}"/>
+    <hyperlink ref="K32" r:id="rId91" xr:uid="{CF95DBBE-54DC-4037-9448-03DC05304A43}"/>
+    <hyperlink ref="L32" r:id="rId92" xr:uid="{89D8A758-9885-4755-B813-C8AF44DB4A85}"/>
+    <hyperlink ref="AB32" r:id="rId93" xr:uid="{F88AFA70-FEB4-40A0-A9D4-496D6BD735C1}"/>
+    <hyperlink ref="AK32" r:id="rId94" xr:uid="{E440215F-7763-46A9-AC2E-249AA8B22948}"/>
+    <hyperlink ref="K33" r:id="rId95" xr:uid="{F068538C-D850-4D79-A062-06910C13D8E0}"/>
+    <hyperlink ref="L33" r:id="rId96" xr:uid="{5473926C-3B4C-4300-8303-5C896CDE80F1}"/>
+    <hyperlink ref="AB33" r:id="rId97" xr:uid="{C93EB906-51C5-4D94-BF6E-2FD08576437F}"/>
+    <hyperlink ref="AK33" r:id="rId98" xr:uid="{5DACEF05-A133-487D-9495-88AE85CC9B40}"/>
+    <hyperlink ref="K34" r:id="rId99" xr:uid="{0622D9A8-2CF5-47B1-AE3F-A299E2475469}"/>
+    <hyperlink ref="L34" r:id="rId100" xr:uid="{12277F2F-6286-4E8F-AEEB-DB1049FFD1EF}"/>
+    <hyperlink ref="AB34" r:id="rId101" xr:uid="{C743E014-3894-4476-8216-163EAE873499}"/>
+    <hyperlink ref="AK34" r:id="rId102" xr:uid="{0517BAA0-8119-4BBC-935E-6358CB148F08}"/>
+    <hyperlink ref="L29" r:id="rId103" xr:uid="{B39A5727-4AA5-4AF9-975C-20A1836ECCA3}"/>
+    <hyperlink ref="K29" r:id="rId104" xr:uid="{7BFE051F-96F0-4BB4-A6D1-346C77FD2227}"/>
+    <hyperlink ref="K30" r:id="rId105" xr:uid="{C9D3256A-2D16-4469-88C8-F5FB2E8F12CA}"/>
+    <hyperlink ref="L30" r:id="rId106" xr:uid="{2A8830E0-69DF-476F-9461-1119DC926CA9}"/>
+    <hyperlink ref="L31" r:id="rId107" xr:uid="{3C2C025A-F330-4302-87A3-87350273D7C6}"/>
+    <hyperlink ref="K31" r:id="rId108" xr:uid="{DE9B6ADF-5598-4C2F-8895-090C0B719465}"/>
+    <hyperlink ref="AB31" r:id="rId109" xr:uid="{90FFA0E8-44AF-44AC-91DF-EC5EA2BD02D6}"/>
+    <hyperlink ref="AK31" r:id="rId110" xr:uid="{FBC98349-E58F-476F-9C64-AFF7A92A682F}"/>
+    <hyperlink ref="AK30" r:id="rId111" xr:uid="{8F951AC2-0E99-4071-965F-8368FD647468}"/>
+    <hyperlink ref="AK29" r:id="rId112" xr:uid="{A710276F-CD12-46ED-A703-49D7967E8767}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422B2238F8DAAD478C0837055D4C9439" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cc5534cd780fd9e31c09b047b200ae0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8859808f-556d-416b-ba10-3a64d67cd7c4" xmlns:ns4="0a02612f-c061-4319-bfdb-b5863aa27d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47912ec95e7c0f2f58d4b636259ebaea" ns3:_="" ns4:_="">
     <xsd:import namespace="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
@@ -8282,6 +8676,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8291,14 +8694,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8313,6 +8708,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74ED414-1786-44E7-B194-9CEB9796F007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58617604-EFF5-48A0-81F4-A02BFD00F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17028" yWindow="4188" windowWidth="26112" windowHeight="17352" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="336" yWindow="5928" windowWidth="21588" windowHeight="17352" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="461">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -727,9 +727,6 @@
     <t>13.02.2023</t>
   </si>
   <si>
-    <t>07.06.2024</t>
-  </si>
-  <si>
     <t>https://www.bfz.de/kontakt</t>
   </si>
   <si>
@@ -1119,9 +1116,6 @@
     <t>beratung@bfz.de</t>
   </si>
   <si>
-    <t xml:space="preserve">Beratung </t>
-  </si>
-  <si>
     <t>19 Wochen</t>
   </si>
   <si>
@@ -1136,12 +1130,6 @@
   </si>
   <si>
     <t>Teilzeit, Vollzeit möglich https://www.bfz.de/kurs/eca-90154/pdf/90154-23-001-4/kaufmannfrau-im-e-commerce-warenwirtschaft-und-onlinevertrieb-modul-1.pdf https://www.bfz.de/kurs/eca-90154/pdf/90154-23-003-4/kaufmannfrau-im-e-commerce-warenwirtschaft-und-onlinevertrieb-modul-1.pdf</t>
-  </si>
-  <si>
-    <t>ismail.debre@bfz.de</t>
-  </si>
-  <si>
-    <t>Ismail Debre</t>
   </si>
   <si>
     <t>07.07.2023</t>
@@ -1775,12 +1763,171 @@
   <si>
     <t>AttendeeCertificate</t>
   </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>FullTimeAndPartTime</t>
+  </si>
+  <si>
+    <t>PostQualified</t>
+  </si>
+  <si>
+    <t>28.08.2023</t>
+  </si>
+  <si>
+    <t>Claudia von Lueder</t>
+  </si>
+  <si>
+    <t>qualifizierung-m@bfz.de</t>
+  </si>
+  <si>
+    <t>Monika Geisberger</t>
+  </si>
+  <si>
+    <t>+4989189552934</t>
+  </si>
+  <si>
+    <t>15.09.2023</t>
+  </si>
+  <si>
+    <t>https://www.bfz.de/kurs-kontakt/eca-90154/kaufmannfrau-im-e-commerce-warenwirtschaft-und-onlinevertrieb-modul-1/90154-23-001-4/kontakt</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n        
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1dd23dba-dd00-45ab-abf4-642902538317" target=\"_blank\"&gt;Risikoanalyse durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0ee94af1-b445-4973-9c3f-459fab250342" target=\"_blank\"&gt;Konfliktmanagement anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/22902bf9-cc3f-495b-811a-c441e28e23f6" target=\"_blank\"&gt;Projektinformationen verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/496932f1-0b6b-4f73-9432-d95c7ddcd43b" target=\"_blank\"&gt;Mitarbeiter einstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f5dd06b8-5d17-4932-9d03-957d0c4f5051" target=\"_blank\"&gt;Ressourcenplanung durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0cc9c234-f817-4f4c-908a-4d28fe3b0f4a" target=\"_blank\"&gt;Mitarbeiter/Mitarbeiterinnen coachen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b9bf9e17-ae47-417b-bbb1-e8b7c263ccac" target=\"_blank\"&gt;rechtliche Bestimmungen ermitteln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4df7a57a-9405-4995-8e02-4ca404832247" target=\"_blank\"&gt;Projektänderungen verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/cd5efa8c-e44d-4cbc-91c6-796018dbed68" target=\"_blank\"&gt;Projekte managen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3c76296d-4bbd-44ba-8eaa-95bf275f79b7" target=\"_blank\"&gt;IKT-Projekt leiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/48b68726-0fd6-4e03-a5eb-82236516ee7a" target=\"_blank\"&gt;Berichte über Kosten-Nutzen-Analysen bereitstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/21fecc8a-392e-49ce-ac26-fb0696ccfead" target=\"_blank\"&gt;Projektspezifikationen erarbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/339ac029-066a-4985-9f9d-b3d7c8fea0bb" target=\"_blank\"&gt;Mitarbeiter führen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/dc72ad0a-c5dc-4abd-bc0d-ca43e82162e1" target=\"_blank\"&gt;Geschäftsbeziehungen aufbauen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/21c5790c-0930-4d74-b3b0-84caf5af12ea" target=\"_blank\"&gt;Finanzmittel verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e207163b-7963-4c3e-9494-7a4bb000211b" target=\"_blank\"&gt;voraussichtliche Dauer der Arbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/e54ff029-1ce9-447d-a5b2-eb7283a23e6e" target=\"_blank\"&gt;Personal schulen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/8d4271ca-c9fd-40b3-875f-15f78332a49e" target=\"_blank\"&gt;Qualitätsstandards&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bec4359e-cb92-468f-a997-8fb28e32fba9" target=\"_blank\"&gt;IKT-Projektmanagement-Methoden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0daaf096-1639-461c-bf1a-bbeea77e6b67" target=\"_blank\"&gt;Richtlinien des internen Risikomanagements&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/94dd823c-148e-4614-a6e8-99249b16357d" target=\"_blank\"&gt;IuK-Projektmanagement&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c3687b34-fe53-4db2-ad1b-5055a6c5b6fd" target=\"_blank\"&gt;Projekttreffen organisieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bc067d2e-e151-408f-8e34-24effd2b7fd6" target=\"_blank\"&gt;elektronische Beschaffung nutzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/69cfc5ed-6569-4aca-a4cc-fd782ba51d9c" target=\"_blank\"&gt;IKT-Risikomanagement durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d9e5349e-8791-49c2-8ba4-839fdd1606c2" target=\"_blank\"&gt;technische Anforderungen definieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d3eccb86-f02d-4950-bfbd-20b9510774a1" target=\"_blank\"&gt;organisatorische Techniken anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a9bf8565-8a09-4118-9922-932d65a79d69" target=\"_blank\"&gt;Lokalisierung leiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7e1f9657-ab4e-407c-842f-b846197060e3" target=\"_blank\"&gt;IKT-Audits durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f17f94f1-88cb-4815-873a-2a9639f10729" target=\"_blank\"&gt;Projektunterlagen ausarbeiten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/03b9b491-fc9b-4868-914a-bf7cd47b5041" target=\"_blank\"&gt;Problemlösungen finden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/770d4956-b5e0-4d44-bf42-3a766b232c5d" target=\"_blank\"&gt;ein zentrales Projekt-Repository unterhalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3c03ee71-4a23-448f-b79e-81fd75d27dca" target=\"_blank\"&gt;Änderungsmanagement anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/3cd35f5d-ce6d-4f14-9a09-53d7a28d834c" target=\"_blank\"&gt;Beziehungen zu Lieferanten pflegen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9e9a4209-c7cf-4f6e-973e-dc2ffadccc74" target=\"_blank\"&gt;Beschaffungsprozesse durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/6430eb0d-c6de-46b7-a7fc-3dd2e8e62a69" target=\"_blank\"&gt;IKT-Fallbearbeitungssystem verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/04dfd9fb-e0cf-40f6-96c6-9d2280c4347e" target=\"_blank\"&gt;technische Dokumentation bereitstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1b3fc0e0-c6f9-45fc-9c6e-14bbba662979" target=\"_blank\"&gt;Informationsnormen entwickeln&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/1fcce318-3212-487a-ac07-4941bc85060d" target=\"_blank\"&gt;Projektaktivitäten durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/96eb286a-58b7-45ff-a916-5578d0b79b8c" target=\"_blank\"&gt;Rapid Application Development&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ed1d8bd4-cd2a-4c64-b665-56d70651026c" target=\"_blank\"&gt;Prototyping&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/eff1bb34-b454-4482-8c29-65f820619f3c" target=\"_blank\"&gt;Insourcing-Strategie&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a846cb9e-c152-41e7-bd34-45e7ff941e3b" target=\"_blank\"&gt;gesetzliche Vorschriften für IuK-Produkte&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fafe0b9d-dbd9-46bd-b770-26299539ce66" target=\"_blank\"&gt;Qualitätsmodelle für ITK-Prozesse&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ccb2e5f2-4279-48fd-9d85-a1db42ff1e13" target=\"_blank\"&gt;Projekt-Konfigurationsmanagement&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c7cc6dc5-d56b-4323-8e5c-47c4022f615f" target=\"_blank\"&gt;Verfahren der Qualitätssicherung&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b16200f4-4f39-4b8b-aa9d-3568054d6bdb" target=\"_blank\"&gt;Open-Source-Modell&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/da6393d5-a53c-4863-abc7-51f36281d74e" target=\"_blank\"&gt;schlankes Projektmanagement&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/dba46f87-0831-49cd-a1c7-340a653c0221" target=\"_blank\"&gt;agile Entwicklung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/8ff015a0-98ea-4d80-a23e-1f68110a919e" target=\"_blank\"&gt;Softwareentwicklungsmethoden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/694dc996-52f3-4afa-a802-672e19f061b7" target=\"_blank\"&gt;Crowdsourcing-Strategie&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/00c04e40-35ea-4ed1-824c-82f936c8f876" target=\"_blank\"&gt;inkrementelle Entwicklung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/67a118f4-8a5f-48f7-8e5f-de34b9ca2c37" target=\"_blank\"&gt;Hybridmodell&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2450c3b3-e78e-435b-b84d-e05d984e71dc" target=\"_blank\"&gt;Softwarearchitekturmodelle&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/6f8baa62-bc2b-4cc1-942b-f540c837cfa2" target=\"_blank\"&gt;Outsourcing-Strategie&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ca73ac82-867a-4afa-9732-834aebe896ff" target=\"_blank\"&gt;Nutzeranforderungen an das IKT-System&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/6a876489-7ad8-4a13-b09c-c9b8e97a302e" target=\"_blank\"&gt;Wasserfallmodell&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/33d49d4f-31ec-473f-9b8a-b555aa5116bb" target=\"_blank\"&gt;iterative Entwicklung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/83218cac-3599-417e-93d2-26013cdccd98" target=\"_blank\"&gt;serviceorientierte Modellierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/4840338b-ac6c-486a-be1d-9ddfe00b8bdf" target=\"_blank\"&gt;Spiralmodell&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0a9acb6b-1139-4be9-b431-3a80a959f2f4" target=\"_blank\"&gt;agiles Projektmanagement&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/eeca3780-8049-499f-a268-95a7ad26642c" target=\"_blank\"&gt;SaaS-Modell&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/09f2f811-a3fb-4de3-a70f-6420a6935575" target=\"_blank\"&gt;Systementwicklungszyklus&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f0de4973-0a70-4644-8fd4-3a97080476f4" target=\"_blank\"&gt;DevOps&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5be3d306-6cf1-4b49-aa1d-01651dd4ba4c" target=\"_blank\"&gt;objektorientierte Modellierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ea1bf5e5-e7f0-4d2c-a415-1c39c00512b1" target=\"_blank\"&gt;IuK-Dokumentenmanagement&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d5a59ca8-2e91-472e-8571-d12ce4478679" target=\"_blank\"&gt;prozessorientiertes Management&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Label TextType=\"Html\"&gt;\r\n    
+&lt;![CDATA[\r\n        
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/21d2f96d-35f7-4e3f-9745-c533d2dd6e97" target=\"_blank\"&gt;Computerprogrammierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/14d1e367-3efe-4ec5-86ae-eca48710ee4e" target=\"_blank\"&gt;IKT-Sicherheitsstrategie umsetzen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0dc7aa1b-b5af-4f4b-81ce-ee22ed8b6926" target=\"_blank\"&gt;IKT-Kenntnisse bewerten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/29fb0fb5-dfc4-4098-ac9b-3a712000f48f" target=\"_blank\"&gt;Datenbank verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d9e5349e-8791-49c2-8ba4-839fdd1606c2" target=\"_blank\"&gt;technische Anforderungen definieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0af062de-eb43-41e9-9b96-249e2cd22d26" target=\"_blank\"&gt;Auszeichnungssprachen verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fbafa41f-cd05-4109-a649-8b44d306d779" target=\"_blank\"&gt;Datenmodelle erstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b04f377b-ee80-4b38-aca1-19d266a23b17" target=\"_blank\"&gt;Anforderungen der Geschäftswelt analysieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ed8de897-adbe-4f0e-b4d2-534953e64c72 target=\"_blank\"&gt;Systemkomponenten integrieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2857540c-180b-4208-9127-e94a01871966" target=\"_blank\"&gt;Software an Systemarchitekturen anpassen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/04fe962b-4017-4eb7-9139-7d69b6922bc9" target=\"_blank\"&gt;anwendungsspezifische Schnittstelle verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ee3c1d54-f46a-43c7-a0f9-0ba3648164d0" target=\"_blank\"&gt;Unternehmensarchitektur konzipieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/cbe2c304-1e7d-489a-97d9-a7d3e37a9db6" target=\"_blank\"&gt;IKT-Systemtheorie anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/ce354460-500e-4eaa-8e95-8f243fcea3db" target=\"_blank\"&gt;Systemtests durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/69bbd53f-fbb0-4476-b4b2-ef7844464e28" target=\"_blank\"&gt;Webprogrammierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/117373c8-f04b-4fff-8683-aebe36edac81" target=\"_blank\"&gt;Hardwareplattformen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/09f2f811-a3fb-4de3-a70f-6420a6935575" target=\"_blank\"&gt;Systementwicklungszyklus&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/cdd8b6b2-2fd9-453c-8d62-8a1dc6efcd49" target=\"_blank\"&gt;Systemtheorie&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9ef0f3a0-9ce2-4ef1-a987-0366b5cb2dbe" target=\"_blank\"&gt;Datenbank-Entwicklungswerkzeuge&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/98301d4a-2cc3-439d-8d7f-0b6ac76302bb" target=\"_blank\"&gt;Geschäftsprozessmodellierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/339ac029-066a-4985-9f9d-b3d7c8fea0bb" target=\"_blank\"&gt;Mitarbeiter führen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/9e06bac6-6b91-48ca-8b7d-c1f48cdecd7c" target=\"_blank\"&gt;IKT-Systemprobleme lösen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/dfff95c6-9758-4c04-a228-7eaa88dec6cd" target=\"_blank\"&gt;organisatorische Komplexität bei der Planung berücksichtigen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/11430d93-c835-48ed-8e70-285fa69c9ae6" target=\"_blank\"&gt;Cloud-Architektur konzipieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/04dfd9fb-e0cf-40f6-96c6-9d2280c4347e" target=\"_blank\"&gt;technische Dokumentation bereitstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0a52bed5-fd29-45fb-aba6-e32bccfda1c1" target=\"_blank\"&gt;Migration in die Cloud planen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/5b9cde20-f1b9-4adc-bfb3-dbf70b14138d" target=\"_blank\"&gt;objektorientierte Programmierung verwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/f5dd06b8-5d17-4932-9d03-957d0c4f5051" target=\"_blank\"&gt;Ressourcenplanung durchführen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7e796b51-49d7-4e73-95af-2e7323763f15" target=\"_blank\"&gt;Datenbank in der Cloud konzipieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/6c08403c-a5bb-4868-b8c2-b7d039c0e511" target=\"_blank\"&gt;Datenbankschema konzipieren&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/cb5cccc9-abe4-4b11-abe6-d27e5cd85fb1" target=\"_blank\"&gt;Standards für den Datenaustausch verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/c32ad607-0c4d-4e34-b73f-668298f7bf13" target=\"_blank\"&gt;Fähigkeiten zur Kommunikation über Technik anwenden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d3286405-49f8-4e8a-8046-a4376b4e7963" target=\"_blank\"&gt;Cloud-Daten und -Speicher verwalten&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/6b643893-0a1f-4f6c-83a1-e7eef75849b9" target=\"_blank\"&gt;Code mit Cloud-Diensten schreiben&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/2c28fc20-8a60-4311-8899-5ef8729c05b3" target=\"_blank\"&gt;Gestaltungsprozess&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/dc72ad0a-c5dc-4abd-bc0d-ca43e82162e1" target=\"_blank\"&gt;Geschäftsbeziehungen aufbauen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/48b68726-0fd6-4e03-a5eb-82236516ee7a" target=\"_blank\"&gt;Berichte über Kosten-Nutzen-Analysen bereitstellen&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/0a9acb6b-1139-4be9-b431-3a80a959f2f4" target=\"_blank\"&gt;agiles Projektmanagement&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/d5a59ca8-2e91-472e-8571-d12ce4478679" target=\"_blank\"&gt;prozessorientiertes Management&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/25df422a-bf0a-4f76-8631-d0be91cb8751" target=\"_blank\"&gt;modellbasierte Systemtechnik&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7482a123-e801-48de-9733-262125671410" target=\"_blank\"&gt;Aufgaben-Algorithmisierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/17924c75-45f4-4593-afac-eea0d51f04b5" target=\"_blank\"&gt;Standardverfahren der Verteidigung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/7814e88f-c133-4c3b-b27f-857afa145d42" target=\"_blank\"&gt;IKT-Sicherheitsgesetzgebung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/fafe0b9d-dbd9-46bd-b770-26299539ce66" target=\"_blank\"&gt;Qualitätsmodelle für ITK-Prozesse&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/bec4359e-cb92-468f-a997-8fb28e32fba9" target=\"_blank\"&gt;IKT-Projektmanagement-Methoden&lt;/a&gt;.\r\n\t
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/6fa1c2c0-a012-4ca0-9642-e01569ba322c" target=\"_blank\"&gt;IKT-Systemintegration&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/a4d336a6-9ffd-402a-91cc-f359716ba4e0" target=\"_blank\"&gt;ML (Computerprogrammierung)&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/03ff0d53-573a-47a0-a0ad-1995815a4339" target=\"_blank\"&gt;Informationsstruktur&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/8ff015a0-98ea-4d80-a23e-1f68110a919e" target=\"_blank\"&gt;Softwareentwicklungsmethoden&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/b105ec9b-0857-41d6-8d07-a83e58b73d90" target=\"_blank\"&gt;IKT-Systemprogrammierung&lt;/a&gt;.\r\n\t 
+&lt;a href=\"https://esco.ec.europa.eu/de/classification/skills?uri=http://data.europa.eu/esco/skill/da6393d5-a53c-4863-abc7-51f36281d74e" target=\"_blank\"&gt;schlankes Projektmanagement&lt;/a&gt;.\r\n\t 
+]]&gt;\r\n 
+&lt;/Label&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1894,8 +2041,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="MesloLGM NF"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1941,6 +2094,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2076,6 +2235,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2664,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ2" s="7" t="s">
         <v>112</v>
@@ -2732,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="BI3" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ3" s="7" t="s">
         <v>112</v>
@@ -2800,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ4" s="7" t="s">
         <v>112</v>
@@ -2868,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="BI5" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ5" s="7" t="s">
         <v>112</v>
@@ -2936,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="BI6" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ6" s="7" t="s">
         <v>112</v>
@@ -3004,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="BI7" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ7" s="7" t="s">
         <v>112</v>
@@ -3078,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="BI8" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ8" s="7" t="s">
         <v>112</v>
@@ -3149,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="BI9" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ9" s="7" t="s">
         <v>112</v>
@@ -3220,7 +3382,7 @@
         <v>5</v>
       </c>
       <c r="BI10" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ10" s="7" t="s">
         <v>112</v>
@@ -3291,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="BI11" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ11" s="7" t="s">
         <v>112</v>
@@ -3359,7 +3521,7 @@
         <v>5</v>
       </c>
       <c r="BI12" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ12" s="7" t="s">
         <v>112</v>
@@ -3427,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="BI13" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ13" s="7" t="s">
         <v>112</v>
@@ -3495,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="BI14" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ14" s="7" t="s">
         <v>112</v>
@@ -3564,7 +3726,7 @@
         <v>5</v>
       </c>
       <c r="BI15" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ15" s="12" t="s">
         <v>112</v>
@@ -3633,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="BI16" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ16" s="12" t="s">
         <v>112</v>
@@ -3702,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="BI17" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ17" s="12" t="s">
         <v>112</v>
@@ -3771,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="BI18" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ18" s="12" t="s">
         <v>112</v>
@@ -3840,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="BI19" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ19" s="12" t="s">
         <v>112</v>
@@ -3908,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="BI20" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ20" s="12" t="s">
         <v>112</v>
@@ -3979,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="BI21" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ21" s="12" t="s">
         <v>112</v>
@@ -4047,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="BI22" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ22" s="12" t="s">
         <v>112</v>
@@ -4115,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="BI23" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ23" s="12" t="s">
         <v>112</v>
@@ -4183,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="BI24" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ24" s="12" t="s">
         <v>112</v>
@@ -4251,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ25" s="12" t="s">
         <v>112</v>
@@ -4319,7 +4481,7 @@
         <v>5</v>
       </c>
       <c r="BI26" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ26" s="12" t="s">
         <v>112</v>
@@ -4387,7 +4549,7 @@
         <v>5</v>
       </c>
       <c r="BI27" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ27" s="12" t="s">
         <v>112</v>
@@ -4456,7 +4618,7 @@
         <v>5</v>
       </c>
       <c r="BI28" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ28" s="16" t="s">
         <v>112</v>
@@ -4525,7 +4687,7 @@
         <v>5</v>
       </c>
       <c r="BI29" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ29" s="16" t="s">
         <v>112</v>
@@ -4594,7 +4756,7 @@
         <v>5</v>
       </c>
       <c r="BI30" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ30" s="16" t="s">
         <v>112</v>
@@ -4663,7 +4825,7 @@
         <v>5</v>
       </c>
       <c r="BI31" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ31" s="16" t="s">
         <v>112</v>
@@ -4732,7 +4894,7 @@
         <v>5</v>
       </c>
       <c r="BI32" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ32" s="16" t="s">
         <v>112</v>
@@ -4800,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="BI33" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ33" s="16" t="s">
         <v>112</v>
@@ -4871,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="BI34" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ34" s="16" t="s">
         <v>112</v>
@@ -4939,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="BI35" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ35" s="16" t="s">
         <v>112</v>
@@ -5007,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="BI36" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ36" s="16" t="s">
         <v>112</v>
@@ -5075,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="BI37" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ37" s="16" t="s">
         <v>112</v>
@@ -5143,7 +5305,7 @@
         <v>5</v>
       </c>
       <c r="BI38" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ38" s="16" t="s">
         <v>112</v>
@@ -5211,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="BI39" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ39" s="16" t="s">
         <v>112</v>
@@ -5279,7 +5441,7 @@
         <v>5</v>
       </c>
       <c r="BI40" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BJ40" s="16" t="s">
         <v>112</v>
@@ -5308,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5327,11 +5489,13 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.88671875" customWidth="1"/>
+    <col min="15" max="15" width="43.44140625" customWidth="1"/>
     <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.109375" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -5507,7 +5671,7 @@
         <v>179</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -5527,7 +5691,7 @@
         <v>220</v>
       </c>
       <c r="AF2" s="25" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>183</v>
@@ -5596,7 +5760,7 @@
         <v>179</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -5616,7 +5780,7 @@
         <v>220</v>
       </c>
       <c r="AF3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>183</v>
@@ -5685,7 +5849,7 @@
         <v>179</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -5702,10 +5866,10 @@
         <v>182</v>
       </c>
       <c r="AE4" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>183</v>
@@ -5774,7 +5938,7 @@
         <v>179</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -5791,10 +5955,10 @@
         <v>182</v>
       </c>
       <c r="AE5" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>183</v>
@@ -5863,7 +6027,7 @@
         <v>179</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -5880,10 +6044,10 @@
         <v>182</v>
       </c>
       <c r="AE6" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>183</v>
@@ -5952,7 +6116,7 @@
         <v>179</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -5969,16 +6133,16 @@
         <v>182</v>
       </c>
       <c r="AE7" s="25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AG7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>183</v>
@@ -6047,7 +6211,7 @@
         <v>179</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -6064,16 +6228,16 @@
         <v>182</v>
       </c>
       <c r="AE8" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>183</v>
@@ -6139,7 +6303,7 @@
         <v>215</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>216</v>
@@ -6161,10 +6325,10 @@
         <v>220</v>
       </c>
       <c r="AF9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6199,44 +6363,44 @@
         <v>185</v>
       </c>
       <c r="K10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="M10" t="s">
         <v>172</v>
       </c>
       <c r="N10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s">
         <v>211</v>
       </c>
       <c r="R10" t="s">
+        <v>226</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>215</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA10">
         <v>101</v>
@@ -6254,10 +6418,10 @@
         <v>220</v>
       </c>
       <c r="AF10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6289,47 +6453,47 @@
         <v>169</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="M11" t="s">
         <v>172</v>
       </c>
       <c r="N11" t="s">
+        <v>234</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
         <v>211</v>
       </c>
       <c r="R11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>215</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA11">
         <v>101</v>
@@ -6344,13 +6508,13 @@
         <v>219</v>
       </c>
       <c r="AE11" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF11" t="s">
         <v>239</v>
       </c>
-      <c r="AF11" t="s">
-        <v>240</v>
-      </c>
       <c r="AK11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6382,47 +6546,47 @@
         <v>169</v>
       </c>
       <c r="J12" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="M12" t="s">
         <v>172</v>
       </c>
       <c r="N12" t="s">
+        <v>243</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s">
         <v>211</v>
       </c>
       <c r="R12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>215</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA12">
         <v>101</v>
@@ -6437,13 +6601,19 @@
         <v>219</v>
       </c>
       <c r="AE12" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF12" t="s">
         <v>246</v>
       </c>
-      <c r="AF12" t="s">
-        <v>247</v>
+      <c r="AG12" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>264</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6475,45 +6645,45 @@
         <v>169</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="M13" t="s">
         <v>172</v>
       </c>
       <c r="N13" t="s">
+        <v>249</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s">
         <v>211</v>
       </c>
       <c r="R13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>215</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA13">
         <v>101</v>
@@ -6528,19 +6698,19 @@
         <v>219</v>
       </c>
       <c r="AE13" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF13" t="s">
         <v>253</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>254</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>255</v>
       </c>
-      <c r="AH13" t="s">
-        <v>256</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6572,45 +6742,45 @@
         <v>169</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="M14" t="s">
         <v>172</v>
       </c>
       <c r="N14" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s">
         <v>211</v>
       </c>
       <c r="R14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>215</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA14">
         <v>101</v>
@@ -6625,19 +6795,13 @@
         <v>219</v>
       </c>
       <c r="AE14" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF14" t="s">
         <v>262</v>
       </c>
-      <c r="AF14" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>265</v>
-      </c>
       <c r="AK14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6656,74 +6820,74 @@
       <c r="F15" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>167</v>
+      <c r="G15" s="47" t="s">
+        <v>451</v>
       </c>
       <c r="H15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="K15" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M15" t="s">
         <v>172</v>
       </c>
       <c r="N15" t="s">
+        <v>268</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s">
+        <v>270</v>
+      </c>
+      <c r="R15" t="s">
         <v>271</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="T15" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="U15" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="V15" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X15" s="28">
         <v>2880</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15">
         <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC15" t="s">
         <v>277</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="AD15" s="25" t="s">
-        <v>279</v>
       </c>
       <c r="AE15" s="25"/>
       <c r="AK15" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6734,13 +6898,13 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>167</v>
@@ -6752,69 +6916,69 @@
         <v>169</v>
       </c>
       <c r="J16" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M16" t="s">
         <v>172</v>
       </c>
       <c r="N16" t="s">
+        <v>283</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R16" t="s">
         <v>286</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="V16" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X16" s="28">
         <v>1547</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16">
         <v>201</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC16" t="s">
         <v>290</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AE16" t="s">
         <v>292</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>293</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>294</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>295</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AK16" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6825,81 +6989,81 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I17" t="s">
         <v>169</v>
       </c>
       <c r="J17" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M17" t="s">
         <v>172</v>
       </c>
       <c r="N17" t="s">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="S17" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="V17" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X17" s="28">
         <v>2245</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="31">
         <v>201</v>
       </c>
       <c r="AB17" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC17" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC17" s="31" t="s">
+      <c r="AD17" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="AD17" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="AE17" s="25"/>
       <c r="AK17" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6913,56 +7077,56 @@
         <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I18" t="s">
         <v>169</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M18" t="s">
         <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="S18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="V18" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="30"/>
@@ -6971,17 +7135,17 @@
         <v>201</v>
       </c>
       <c r="AB18" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC18" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC18" s="31" t="s">
+      <c r="AD18" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="AD18" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="AE18" s="25"/>
       <c r="AK18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6995,56 +7159,56 @@
         <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
         <v>169</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M19" t="s">
         <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="S19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="V19" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="X19" s="28"/>
       <c r="Y19" s="30"/>
@@ -7053,17 +7217,17 @@
         <v>201</v>
       </c>
       <c r="AB19" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC19" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC19" s="31" t="s">
+      <c r="AD19" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="AD19" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AK19" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7077,56 +7241,56 @@
         <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I20" t="s">
         <v>169</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M20" t="s">
         <v>172</v>
       </c>
       <c r="N20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R20" s="29" t="s">
+      <c r="S20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="V20" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="30"/>
@@ -7135,17 +7299,17 @@
         <v>201</v>
       </c>
       <c r="AB20" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC20" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC20" s="31" t="s">
+      <c r="AD20" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="AD20" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="AE20" s="25"/>
       <c r="AK20" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7159,56 +7323,56 @@
         <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I21" t="s">
         <v>169</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M21" t="s">
         <v>172</v>
       </c>
       <c r="N21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="S21" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="V21" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X21" s="28"/>
       <c r="Y21" s="30"/>
@@ -7217,17 +7381,17 @@
         <v>201</v>
       </c>
       <c r="AB21" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC21" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC21" s="31" t="s">
+      <c r="AD21" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="AD21" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="AE21" s="25"/>
       <c r="AK21" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7241,56 +7405,56 @@
         <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I22" t="s">
         <v>169</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M22" t="s">
         <v>172</v>
       </c>
       <c r="N22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="R22" s="29" t="s">
+      <c r="S22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X22" s="28"/>
       <c r="Y22" s="30"/>
@@ -7299,17 +7463,17 @@
         <v>201</v>
       </c>
       <c r="AB22" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC22" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC22" s="31" t="s">
+      <c r="AD22" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="AE22" s="25"/>
       <c r="AK22" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7329,7 +7493,7 @@
         <v>166</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>206</v>
@@ -7338,31 +7502,31 @@
         <v>169</v>
       </c>
       <c r="J23" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="K23" s="36" t="s">
-        <v>320</v>
-      </c>
       <c r="L23" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M23" s="34" t="s">
         <v>172</v>
       </c>
       <c r="N23" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="O23" s="37" t="s">
         <v>321</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>322</v>
       </c>
       <c r="Q23" s="34" t="s">
         <v>175</v>
       </c>
       <c r="R23" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="S23" s="34" t="s">
         <v>323</v>
-      </c>
-      <c r="S23" s="34" t="s">
-        <v>324</v>
       </c>
       <c r="T23" s="34" t="s">
         <v>178</v>
@@ -7371,26 +7535,26 @@
         <v>179</v>
       </c>
       <c r="V23" s="45" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X23" s="28"/>
       <c r="AA23" s="34">
         <v>30</v>
       </c>
       <c r="AB23" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC23" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="AC23" s="34" t="s">
+      <c r="AD23" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="AD23" s="39" t="s">
-        <v>327</v>
-      </c>
       <c r="AE23" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF23" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK23" s="38" t="s">
         <v>183</v>
@@ -7416,7 +7580,7 @@
         <v>166</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>206</v>
@@ -7425,31 +7589,31 @@
         <v>169</v>
       </c>
       <c r="J24" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L24" s="38" t="s">
         <v>328</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>329</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>172</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>175</v>
       </c>
       <c r="R24" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="S24" s="40" t="s">
         <v>323</v>
-      </c>
-      <c r="S24" s="40" t="s">
-        <v>324</v>
       </c>
       <c r="T24" s="40" t="s">
         <v>178</v>
@@ -7458,26 +7622,26 @@
         <v>179</v>
       </c>
       <c r="V24" s="46" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X24" s="28"/>
       <c r="AA24" s="40">
         <v>30</v>
       </c>
       <c r="AB24" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC24" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="AC24" s="40" t="s">
+      <c r="AD24" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="AD24" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="AE24" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF24" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK24" s="38" t="s">
         <v>183</v>
@@ -7500,7 +7664,7 @@
         <v>205</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H25" t="s">
         <v>206</v>
@@ -7509,31 +7673,31 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M25" t="s">
         <v>172</v>
       </c>
       <c r="N25" t="s">
+        <v>332</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="S25" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>178</v>
@@ -7542,7 +7706,7 @@
         <v>215</v>
       </c>
       <c r="V25" s="46" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="7"/>
@@ -7551,15 +7715,15 @@
         <v>130</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC25" s="31" t="s">
-        <v>338</v>
+        <v>453</v>
       </c>
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
       <c r="AK25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7579,40 +7743,40 @@
         <v>205</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H26" t="s">
         <v>206</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>450</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M26" t="s">
         <v>172</v>
       </c>
       <c r="N26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="S26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>178</v>
@@ -7621,31 +7785,39 @@
         <v>215</v>
       </c>
       <c r="V26" s="46" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26">
         <v>130</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="AC26" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD26" s="25"/>
+        <v>455</v>
+      </c>
+      <c r="AD26" s="25" t="s">
+        <v>456</v>
+      </c>
       <c r="AE26" s="25" t="s">
         <v>220</v>
       </c>
       <c r="AF26" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>457</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>222</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7656,16 +7828,16 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>206</v>
@@ -7674,66 +7846,66 @@
         <v>169</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M27" t="s">
         <v>172</v>
       </c>
       <c r="N27" t="s">
+        <v>345</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R27" t="s">
+        <v>348</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="R27" t="s">
-        <v>352</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="V27" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X27" s="28"/>
       <c r="Y27" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27">
         <v>201</v>
       </c>
       <c r="AB27" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AD27" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AE27" s="25" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7753,7 +7925,7 @@
         <v>166</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H28" t="s">
         <v>206</v>
@@ -7762,37 +7934,37 @@
         <v>169</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
       </c>
       <c r="N28" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="R28" t="s">
+        <v>286</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="R28" t="s">
-        <v>287</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="V28" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="X28" s="28">
         <v>1635</v>
@@ -7803,28 +7975,28 @@
         <v>61</v>
       </c>
       <c r="AB28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD28" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE28" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH28" t="s">
         <v>367</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AK28" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="AD28" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE28" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>371</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7844,46 +8016,43 @@
         <v>205</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="H29" t="s">
-        <v>298</v>
+        <v>449</v>
       </c>
       <c r="I29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M29" t="s">
         <v>172</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="U29" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="X29" s="28">
         <v>5900</v>
@@ -7894,22 +8063,22 @@
         <v>160</v>
       </c>
       <c r="AB29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD29" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE29" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF29" t="s">
         <v>383</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AK29" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="AD29" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE29" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>387</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7929,40 +8098,40 @@
         <v>205</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H30" t="s">
         <v>206</v>
       </c>
       <c r="I30" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M30" t="s">
         <v>172</v>
       </c>
       <c r="N30" s="44" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T30" s="2"/>
       <c r="X30" s="28"/>
@@ -7972,22 +8141,22 @@
         <v>160</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AC30" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD30" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE30" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK30" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="AD30" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE30" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>396</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8007,44 +8176,44 @@
         <v>205</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I31" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M31" t="s">
         <v>172</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="X31" s="28">
         <v>2400</v>
@@ -8055,17 +8224,17 @@
         <v>161</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AC31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AD31" s="25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AE31" s="25"/>
       <c r="AK31" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8076,16 +8245,16 @@
         <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H32" t="s">
         <v>206</v>
@@ -8094,34 +8263,37 @@
         <v>169</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M32" t="s">
         <v>172</v>
       </c>
       <c r="N32" t="s">
+        <v>405</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="R32" t="s">
+        <v>408</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="R32" t="s">
-        <v>412</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>414</v>
+      <c r="V32" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="X32" s="28">
         <v>4397.05</v>
@@ -8132,28 +8304,28 @@
         <v>201</v>
       </c>
       <c r="AB32" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC32" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC32" s="31" t="s">
+      <c r="AD32" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="AD32" s="33" t="s">
-        <v>292</v>
-      </c>
       <c r="AE32" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AF32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AH32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8164,16 +8336,16 @@
         <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H33" t="s">
         <v>206</v>
@@ -8182,34 +8354,37 @@
         <v>169</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M33" t="s">
         <v>172</v>
       </c>
       <c r="N33" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="R33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="X33" s="28">
         <v>2195.5500000000002</v>
@@ -8220,22 +8395,22 @@
         <v>201</v>
       </c>
       <c r="AB33" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC33" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC33" s="31" t="s">
+      <c r="AD33" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="AD33" s="33" t="s">
-        <v>292</v>
-      </c>
       <c r="AE33" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AF33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8246,52 +8421,52 @@
         <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I34" t="s">
         <v>169</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M34" t="s">
         <v>172</v>
       </c>
       <c r="N34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="R34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="X34" s="28">
         <v>1362.55</v>
@@ -8302,28 +8477,28 @@
         <v>201</v>
       </c>
       <c r="AB34" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC34" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AC34" s="31" t="s">
+      <c r="AD34" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="AD34" s="33" t="s">
-        <v>292</v>
-      </c>
       <c r="AE34" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AG34" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8372,82 +8547,98 @@
     <hyperlink ref="K26" r:id="rId40" location="box_eventlist" xr:uid="{D9FB8F58-CCE6-4AB9-9554-7941A734BFB5}"/>
     <hyperlink ref="K25" r:id="rId41" xr:uid="{E5774072-115A-4C1D-AF74-2A6CA04CCBD8}"/>
     <hyperlink ref="AB25" r:id="rId42" xr:uid="{48422D63-E971-4F92-921A-A4DFE62BFD03}"/>
-    <hyperlink ref="AB26" r:id="rId43" xr:uid="{57F13425-9C42-4DA7-8F7C-11497F4C0A58}"/>
-    <hyperlink ref="AK15" r:id="rId44" xr:uid="{A10C35B7-E762-46BD-9CDD-B5AF14DEB810}"/>
-    <hyperlink ref="AK9" r:id="rId45" xr:uid="{F99707CB-8FE5-4C04-8E73-C23AECCB6875}"/>
-    <hyperlink ref="AK10:AK14" r:id="rId46" display="https://www.bfz.de/kontakt" xr:uid="{0B8F4342-1501-4BCB-B5E4-AF09F1763AE2}"/>
-    <hyperlink ref="AK16" r:id="rId47" xr:uid="{E76FB1AE-DC17-4E5E-A20A-B7BD7ECD9DC2}"/>
-    <hyperlink ref="AK17" r:id="rId48" xr:uid="{FB0D6304-97EB-46D5-A9F5-93B97833460F}"/>
-    <hyperlink ref="AK23" r:id="rId49" xr:uid="{2F7D02D7-B9E5-4B74-93A6-E758F6A9E280}"/>
-    <hyperlink ref="AK24" r:id="rId50" xr:uid="{674426C5-6AEC-4CF0-AF72-4CB19414FC5B}"/>
-    <hyperlink ref="AK25" r:id="rId51" xr:uid="{CAE8AEBB-01BB-48BE-9C19-376AA60572F3}"/>
-    <hyperlink ref="AK26" r:id="rId52" xr:uid="{8F39F751-2862-45C3-8CBC-EBCA38A00DCC}"/>
-    <hyperlink ref="AK27" r:id="rId53" xr:uid="{60CDBCF1-1E85-49D1-95A2-9D29F691911D}"/>
-    <hyperlink ref="K17" r:id="rId54" xr:uid="{D0DBF6BC-A6BF-4E02-AACC-1E80F71C2425}"/>
-    <hyperlink ref="L17" r:id="rId55" xr:uid="{91A3F409-610D-47AC-97BD-E798BA027F84}"/>
-    <hyperlink ref="K27" r:id="rId56" xr:uid="{24805552-1F93-48B4-9818-6ED1261BBD1E}"/>
-    <hyperlink ref="L27" r:id="rId57" xr:uid="{53C7F97E-A4A5-404B-9AA0-39D0B3F624D0}"/>
-    <hyperlink ref="AB27" r:id="rId58" xr:uid="{AD99EBB2-9A42-4CE8-B8F8-93C1DD00F620}"/>
-    <hyperlink ref="K3" r:id="rId59" xr:uid="{9327A321-37DB-4BF2-9F82-E7614A8CECC7}"/>
-    <hyperlink ref="K4" r:id="rId60" xr:uid="{9D1207A4-A274-4B77-AAA7-C0EA1AEF0808}"/>
-    <hyperlink ref="K5" r:id="rId61" xr:uid="{3D7E6130-BB3E-4FD5-9E89-7172F3ADD685}"/>
-    <hyperlink ref="K6" r:id="rId62" xr:uid="{C53C0317-C9D4-4DF6-ACFF-C811370ADF51}"/>
-    <hyperlink ref="K7" r:id="rId63" xr:uid="{9C12FCB6-CCB3-40AA-8424-9A76CAB8CBD0}"/>
-    <hyperlink ref="L3" r:id="rId64" xr:uid="{F4EE54C7-86F0-4194-9016-4958A638B80F}"/>
-    <hyperlink ref="L4" r:id="rId65" xr:uid="{2A066521-47A5-4E8D-98A7-BD9E2ACB72E1}"/>
-    <hyperlink ref="L5" r:id="rId66" xr:uid="{2D5273EE-BD97-4FBC-9731-2929C24E035D}"/>
-    <hyperlink ref="L6" r:id="rId67" xr:uid="{EDF8F773-F4D1-4960-B80C-D8A1B715ECEB}"/>
-    <hyperlink ref="L7" r:id="rId68" xr:uid="{96A71AAB-9E9A-4728-AB05-B44F70B2E88D}"/>
-    <hyperlink ref="K8" r:id="rId69" xr:uid="{24A5E069-5B4F-42E3-85C4-1AF80689987F}"/>
-    <hyperlink ref="L8" r:id="rId70" xr:uid="{2C7B6CAA-7398-4850-8D13-FB1E06CABD0B}"/>
-    <hyperlink ref="AK2" r:id="rId71" xr:uid="{4069FB99-6BFD-4632-A3A1-8C78A6464C04}"/>
-    <hyperlink ref="AK3:AK8" r:id="rId72" display="https://www.biwe-bbq.de/" xr:uid="{2B754280-4445-49A0-AE95-C546C1784657}"/>
-    <hyperlink ref="K18:K22" r:id="rId73" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{481B9E9A-5951-4929-9928-8BA443592823}"/>
-    <hyperlink ref="L18:L22" r:id="rId74" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{7BFCEEA7-EA9B-442B-BBCB-E05B950C3DD3}"/>
-    <hyperlink ref="L18" r:id="rId75" xr:uid="{34CB6AC6-589B-4659-B1EC-09C87B8E2DBF}"/>
-    <hyperlink ref="L19" r:id="rId76" xr:uid="{1BA0A695-FEB1-4ED3-9F5F-4132F488107C}"/>
-    <hyperlink ref="L20" r:id="rId77" xr:uid="{E22A6DEF-F969-457D-ABCE-BC049278C2E4}"/>
-    <hyperlink ref="L21" r:id="rId78" xr:uid="{AC50AEA0-1D1E-44C8-82B8-594DC6C72E9B}"/>
-    <hyperlink ref="L22" r:id="rId79" xr:uid="{B457A56F-20B9-4452-808A-FD4F996A609B}"/>
-    <hyperlink ref="AB17" r:id="rId80" xr:uid="{3E74DBD9-CB2B-432D-A7D3-C50081846512}"/>
-    <hyperlink ref="AB18" r:id="rId81" xr:uid="{0BE4408F-7964-483B-9C05-46F28E3AA94B}"/>
-    <hyperlink ref="AB19" r:id="rId82" xr:uid="{D660F09A-453A-4A3A-8CC3-D1BB1A21ACE2}"/>
-    <hyperlink ref="AB20" r:id="rId83" xr:uid="{E39B89A8-B5CF-4411-A0C7-BB3DABF0F429}"/>
-    <hyperlink ref="AB21" r:id="rId84" xr:uid="{E64568EA-B42A-4FC5-AAB0-338365E69C21}"/>
-    <hyperlink ref="AB22" r:id="rId85" xr:uid="{519D4AC8-BE94-410A-88B1-181406146EFF}"/>
-    <hyperlink ref="AK18:AK22" r:id="rId86" display="https://www.tuv.com/jobfit" xr:uid="{247D654F-AD98-42D7-B42A-F88D1BC59E2C}"/>
-    <hyperlink ref="L28" r:id="rId87" xr:uid="{C6058673-81DE-4A31-943B-468FD47A2447}"/>
-    <hyperlink ref="K28" r:id="rId88" xr:uid="{0852469A-DACA-47A7-812E-EC9CFDB01C2C}"/>
-    <hyperlink ref="AB28" r:id="rId89" xr:uid="{8DE27A13-08CB-4AC9-8355-D874776CE52D}"/>
-    <hyperlink ref="AK28" r:id="rId90" xr:uid="{3D7854CD-16E4-485A-8359-05D9BEF38F6A}"/>
-    <hyperlink ref="K32" r:id="rId91" xr:uid="{CF95DBBE-54DC-4037-9448-03DC05304A43}"/>
-    <hyperlink ref="L32" r:id="rId92" xr:uid="{89D8A758-9885-4755-B813-C8AF44DB4A85}"/>
-    <hyperlink ref="AB32" r:id="rId93" xr:uid="{F88AFA70-FEB4-40A0-A9D4-496D6BD735C1}"/>
-    <hyperlink ref="AK32" r:id="rId94" xr:uid="{E440215F-7763-46A9-AC2E-249AA8B22948}"/>
-    <hyperlink ref="K33" r:id="rId95" xr:uid="{F068538C-D850-4D79-A062-06910C13D8E0}"/>
-    <hyperlink ref="L33" r:id="rId96" xr:uid="{5473926C-3B4C-4300-8303-5C896CDE80F1}"/>
-    <hyperlink ref="AB33" r:id="rId97" xr:uid="{C93EB906-51C5-4D94-BF6E-2FD08576437F}"/>
-    <hyperlink ref="AK33" r:id="rId98" xr:uid="{5DACEF05-A133-487D-9495-88AE85CC9B40}"/>
-    <hyperlink ref="K34" r:id="rId99" xr:uid="{0622D9A8-2CF5-47B1-AE3F-A299E2475469}"/>
-    <hyperlink ref="L34" r:id="rId100" xr:uid="{12277F2F-6286-4E8F-AEEB-DB1049FFD1EF}"/>
-    <hyperlink ref="AB34" r:id="rId101" xr:uid="{C743E014-3894-4476-8216-163EAE873499}"/>
-    <hyperlink ref="AK34" r:id="rId102" xr:uid="{0517BAA0-8119-4BBC-935E-6358CB148F08}"/>
-    <hyperlink ref="L29" r:id="rId103" xr:uid="{B39A5727-4AA5-4AF9-975C-20A1836ECCA3}"/>
-    <hyperlink ref="K29" r:id="rId104" xr:uid="{7BFE051F-96F0-4BB4-A6D1-346C77FD2227}"/>
-    <hyperlink ref="K30" r:id="rId105" xr:uid="{C9D3256A-2D16-4469-88C8-F5FB2E8F12CA}"/>
-    <hyperlink ref="L30" r:id="rId106" xr:uid="{2A8830E0-69DF-476F-9461-1119DC926CA9}"/>
-    <hyperlink ref="L31" r:id="rId107" xr:uid="{3C2C025A-F330-4302-87A3-87350273D7C6}"/>
-    <hyperlink ref="K31" r:id="rId108" xr:uid="{DE9B6ADF-5598-4C2F-8895-090C0B719465}"/>
-    <hyperlink ref="AB31" r:id="rId109" xr:uid="{90FFA0E8-44AF-44AC-91DF-EC5EA2BD02D6}"/>
-    <hyperlink ref="AK31" r:id="rId110" xr:uid="{FBC98349-E58F-476F-9C64-AFF7A92A682F}"/>
-    <hyperlink ref="AK30" r:id="rId111" xr:uid="{8F951AC2-0E99-4071-965F-8368FD647468}"/>
-    <hyperlink ref="AK29" r:id="rId112" xr:uid="{A710276F-CD12-46ED-A703-49D7967E8767}"/>
+    <hyperlink ref="AK15" r:id="rId43" xr:uid="{A10C35B7-E762-46BD-9CDD-B5AF14DEB810}"/>
+    <hyperlink ref="AK9" r:id="rId44" xr:uid="{F99707CB-8FE5-4C04-8E73-C23AECCB6875}"/>
+    <hyperlink ref="AK10:AK14" r:id="rId45" display="https://www.bfz.de/kontakt" xr:uid="{0B8F4342-1501-4BCB-B5E4-AF09F1763AE2}"/>
+    <hyperlink ref="AK16" r:id="rId46" xr:uid="{E76FB1AE-DC17-4E5E-A20A-B7BD7ECD9DC2}"/>
+    <hyperlink ref="AK17" r:id="rId47" xr:uid="{FB0D6304-97EB-46D5-A9F5-93B97833460F}"/>
+    <hyperlink ref="AK23" r:id="rId48" xr:uid="{2F7D02D7-B9E5-4B74-93A6-E758F6A9E280}"/>
+    <hyperlink ref="AK24" r:id="rId49" xr:uid="{674426C5-6AEC-4CF0-AF72-4CB19414FC5B}"/>
+    <hyperlink ref="AK25" r:id="rId50" xr:uid="{CAE8AEBB-01BB-48BE-9C19-376AA60572F3}"/>
+    <hyperlink ref="AK26" r:id="rId51" xr:uid="{8F39F751-2862-45C3-8CBC-EBCA38A00DCC}"/>
+    <hyperlink ref="AK27" r:id="rId52" xr:uid="{60CDBCF1-1E85-49D1-95A2-9D29F691911D}"/>
+    <hyperlink ref="K17" r:id="rId53" xr:uid="{D0DBF6BC-A6BF-4E02-AACC-1E80F71C2425}"/>
+    <hyperlink ref="L17" r:id="rId54" xr:uid="{91A3F409-610D-47AC-97BD-E798BA027F84}"/>
+    <hyperlink ref="K27" r:id="rId55" xr:uid="{24805552-1F93-48B4-9818-6ED1261BBD1E}"/>
+    <hyperlink ref="L27" r:id="rId56" xr:uid="{53C7F97E-A4A5-404B-9AA0-39D0B3F624D0}"/>
+    <hyperlink ref="AB27" r:id="rId57" xr:uid="{AD99EBB2-9A42-4CE8-B8F8-93C1DD00F620}"/>
+    <hyperlink ref="K3" r:id="rId58" xr:uid="{9327A321-37DB-4BF2-9F82-E7614A8CECC7}"/>
+    <hyperlink ref="K4" r:id="rId59" xr:uid="{9D1207A4-A274-4B77-AAA7-C0EA1AEF0808}"/>
+    <hyperlink ref="K5" r:id="rId60" xr:uid="{3D7E6130-BB3E-4FD5-9E89-7172F3ADD685}"/>
+    <hyperlink ref="K6" r:id="rId61" xr:uid="{C53C0317-C9D4-4DF6-ACFF-C811370ADF51}"/>
+    <hyperlink ref="K7" r:id="rId62" xr:uid="{9C12FCB6-CCB3-40AA-8424-9A76CAB8CBD0}"/>
+    <hyperlink ref="L3" r:id="rId63" xr:uid="{F4EE54C7-86F0-4194-9016-4958A638B80F}"/>
+    <hyperlink ref="L4" r:id="rId64" xr:uid="{2A066521-47A5-4E8D-98A7-BD9E2ACB72E1}"/>
+    <hyperlink ref="L5" r:id="rId65" xr:uid="{2D5273EE-BD97-4FBC-9731-2929C24E035D}"/>
+    <hyperlink ref="L6" r:id="rId66" xr:uid="{EDF8F773-F4D1-4960-B80C-D8A1B715ECEB}"/>
+    <hyperlink ref="L7" r:id="rId67" xr:uid="{96A71AAB-9E9A-4728-AB05-B44F70B2E88D}"/>
+    <hyperlink ref="K8" r:id="rId68" xr:uid="{24A5E069-5B4F-42E3-85C4-1AF80689987F}"/>
+    <hyperlink ref="L8" r:id="rId69" xr:uid="{2C7B6CAA-7398-4850-8D13-FB1E06CABD0B}"/>
+    <hyperlink ref="AK2" r:id="rId70" xr:uid="{4069FB99-6BFD-4632-A3A1-8C78A6464C04}"/>
+    <hyperlink ref="AK3:AK8" r:id="rId71" display="https://www.biwe-bbq.de/" xr:uid="{2B754280-4445-49A0-AE95-C546C1784657}"/>
+    <hyperlink ref="K18:K22" r:id="rId72" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{481B9E9A-5951-4929-9928-8BA443592823}"/>
+    <hyperlink ref="L18:L22" r:id="rId73" display="https://kurse.tuv.com/details/fachlagerist-m-w-d-teilqualifizierungen_ngtk8" xr:uid="{7BFCEEA7-EA9B-442B-BBCB-E05B950C3DD3}"/>
+    <hyperlink ref="L18" r:id="rId74" xr:uid="{34CB6AC6-589B-4659-B1EC-09C87B8E2DBF}"/>
+    <hyperlink ref="L19" r:id="rId75" xr:uid="{1BA0A695-FEB1-4ED3-9F5F-4132F488107C}"/>
+    <hyperlink ref="L20" r:id="rId76" xr:uid="{E22A6DEF-F969-457D-ABCE-BC049278C2E4}"/>
+    <hyperlink ref="L21" r:id="rId77" xr:uid="{AC50AEA0-1D1E-44C8-82B8-594DC6C72E9B}"/>
+    <hyperlink ref="L22" r:id="rId78" xr:uid="{B457A56F-20B9-4452-808A-FD4F996A609B}"/>
+    <hyperlink ref="AB17" r:id="rId79" xr:uid="{3E74DBD9-CB2B-432D-A7D3-C50081846512}"/>
+    <hyperlink ref="AB18" r:id="rId80" xr:uid="{0BE4408F-7964-483B-9C05-46F28E3AA94B}"/>
+    <hyperlink ref="AB19" r:id="rId81" xr:uid="{D660F09A-453A-4A3A-8CC3-D1BB1A21ACE2}"/>
+    <hyperlink ref="AB20" r:id="rId82" xr:uid="{E39B89A8-B5CF-4411-A0C7-BB3DABF0F429}"/>
+    <hyperlink ref="AB21" r:id="rId83" xr:uid="{E64568EA-B42A-4FC5-AAB0-338365E69C21}"/>
+    <hyperlink ref="AB22" r:id="rId84" xr:uid="{519D4AC8-BE94-410A-88B1-181406146EFF}"/>
+    <hyperlink ref="AK18:AK22" r:id="rId85" display="https://www.tuv.com/jobfit" xr:uid="{247D654F-AD98-42D7-B42A-F88D1BC59E2C}"/>
+    <hyperlink ref="L28" r:id="rId86" xr:uid="{C6058673-81DE-4A31-943B-468FD47A2447}"/>
+    <hyperlink ref="K28" r:id="rId87" xr:uid="{0852469A-DACA-47A7-812E-EC9CFDB01C2C}"/>
+    <hyperlink ref="AB28" r:id="rId88" xr:uid="{8DE27A13-08CB-4AC9-8355-D874776CE52D}"/>
+    <hyperlink ref="AK28" r:id="rId89" xr:uid="{3D7854CD-16E4-485A-8359-05D9BEF38F6A}"/>
+    <hyperlink ref="K32" r:id="rId90" xr:uid="{CF95DBBE-54DC-4037-9448-03DC05304A43}"/>
+    <hyperlink ref="L32" r:id="rId91" xr:uid="{89D8A758-9885-4755-B813-C8AF44DB4A85}"/>
+    <hyperlink ref="AB32" r:id="rId92" xr:uid="{F88AFA70-FEB4-40A0-A9D4-496D6BD735C1}"/>
+    <hyperlink ref="AK32" r:id="rId93" xr:uid="{E440215F-7763-46A9-AC2E-249AA8B22948}"/>
+    <hyperlink ref="K33" r:id="rId94" xr:uid="{F068538C-D850-4D79-A062-06910C13D8E0}"/>
+    <hyperlink ref="L33" r:id="rId95" xr:uid="{5473926C-3B4C-4300-8303-5C896CDE80F1}"/>
+    <hyperlink ref="AB33" r:id="rId96" xr:uid="{C93EB906-51C5-4D94-BF6E-2FD08576437F}"/>
+    <hyperlink ref="AK33" r:id="rId97" xr:uid="{5DACEF05-A133-487D-9495-88AE85CC9B40}"/>
+    <hyperlink ref="K34" r:id="rId98" xr:uid="{0622D9A8-2CF5-47B1-AE3F-A299E2475469}"/>
+    <hyperlink ref="L34" r:id="rId99" xr:uid="{12277F2F-6286-4E8F-AEEB-DB1049FFD1EF}"/>
+    <hyperlink ref="AB34" r:id="rId100" xr:uid="{C743E014-3894-4476-8216-163EAE873499}"/>
+    <hyperlink ref="AK34" r:id="rId101" xr:uid="{0517BAA0-8119-4BBC-935E-6358CB148F08}"/>
+    <hyperlink ref="L29" r:id="rId102" xr:uid="{B39A5727-4AA5-4AF9-975C-20A1836ECCA3}"/>
+    <hyperlink ref="K29" r:id="rId103" xr:uid="{7BFE051F-96F0-4BB4-A6D1-346C77FD2227}"/>
+    <hyperlink ref="K30" r:id="rId104" xr:uid="{C9D3256A-2D16-4469-88C8-F5FB2E8F12CA}"/>
+    <hyperlink ref="L30" r:id="rId105" xr:uid="{2A8830E0-69DF-476F-9461-1119DC926CA9}"/>
+    <hyperlink ref="L31" r:id="rId106" xr:uid="{3C2C025A-F330-4302-87A3-87350273D7C6}"/>
+    <hyperlink ref="K31" r:id="rId107" xr:uid="{DE9B6ADF-5598-4C2F-8895-090C0B719465}"/>
+    <hyperlink ref="AB31" r:id="rId108" xr:uid="{90FFA0E8-44AF-44AC-91DF-EC5EA2BD02D6}"/>
+    <hyperlink ref="AK31" r:id="rId109" xr:uid="{FBC98349-E58F-476F-9C64-AFF7A92A682F}"/>
+    <hyperlink ref="AK30" r:id="rId110" xr:uid="{8F951AC2-0E99-4071-965F-8368FD647468}"/>
+    <hyperlink ref="AK29" r:id="rId111" xr:uid="{A710276F-CD12-46ED-A703-49D7967E8767}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422B2238F8DAAD478C0837055D4C9439" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cc5534cd780fd9e31c09b047b200ae0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8859808f-556d-416b-ba10-3a64d67cd7c4" xmlns:ns4="0a02612f-c061-4319-bfdb-b5863aa27d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47912ec95e7c0f2f58d4b636259ebaea" ns3:_="" ns4:_="">
     <xsd:import namespace="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
@@ -8676,24 +8867,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7DC12C-AC0B-45A5-9CE7-33B2216F9746}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8710,29 +8909,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8859808f-556d-416b-ba10-3a64d67cd7c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
+++ b/src/cloud/backend/apollo.cloud/Graph.Apollo.Cloud.Assessment/Data/UseCaseCourseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PatricBoscolo\source\gh\APOLLO\src\cloud\backend\apollo.cloud\Graph.Apollo.Cloud.Assessment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58617604-EFF5-48A0-81F4-A02BFD00F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010FB3D8-B85F-4209-9BBC-F627BE4D0A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="5928" windowWidth="21588" windowHeight="17352" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
+    <workbookView xWindow="8052" yWindow="4620" windowWidth="30564" windowHeight="17352" activeTab="1" xr2:uid="{42E46E1E-8980-4662-AB6D-571AD8C791C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="456">
   <si>
     <t>CourseProviderId</t>
   </si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>Biwe</t>
-  </si>
-  <si>
-    <t>PartialQualification</t>
   </si>
   <si>
     <t>InPerson</t>
@@ -1755,22 +1752,10 @@
     <t>10.04.2023</t>
   </si>
   <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>AttendeeCertificate</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
     <t>FullTimeAndPartTime</t>
-  </si>
-  <si>
-    <t>PostQualified</t>
   </si>
   <si>
     <t>28.08.2023</t>
@@ -1927,7 +1912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,14 +2026,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="MesloLGM NF"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2094,12 +2073,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2152,7 +2125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2235,9 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2826,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ2" s="7" t="s">
         <v>112</v>
@@ -2894,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="BI3" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ3" s="7" t="s">
         <v>112</v>
@@ -2962,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ4" s="7" t="s">
         <v>112</v>
@@ -3030,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="BI5" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ5" s="7" t="s">
         <v>112</v>
@@ -3098,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="BI6" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ6" s="7" t="s">
         <v>112</v>
@@ -3166,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="BI7" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ7" s="7" t="s">
         <v>112</v>
@@ -3240,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="BI8" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ8" s="7" t="s">
         <v>112</v>
@@ -3311,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="BI9" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ9" s="7" t="s">
         <v>112</v>
@@ -3382,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="BI10" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ10" s="7" t="s">
         <v>112</v>
@@ -3453,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="BI11" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ11" s="7" t="s">
         <v>112</v>
@@ -3521,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="BI12" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ12" s="7" t="s">
         <v>112</v>
@@ -3589,7 +3559,7 @@
         <v>5</v>
       </c>
       <c r="BI13" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ13" s="7" t="s">
         <v>112</v>
@@ -3657,7 +3627,7 @@
         <v>5</v>
       </c>
       <c r="BI14" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ14" s="7" t="s">
         <v>112</v>
@@ -3726,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="BI15" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ15" s="12" t="s">
         <v>112</v>
@@ -3795,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="BI16" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ16" s="12" t="s">
         <v>112</v>
@@ -3864,7 +3834,7 @@
         <v>5</v>
       </c>
       <c r="BI17" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ17" s="12" t="s">
         <v>112</v>
@@ -3933,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="BI18" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ18" s="12" t="s">
         <v>112</v>
@@ -4002,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="BI19" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ19" s="12" t="s">
         <v>112</v>
@@ -4070,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="BI20" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ20" s="12" t="s">
         <v>112</v>
@@ -4141,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="BI21" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ21" s="12" t="s">
         <v>112</v>
@@ -4209,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="BI22" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ22" s="12" t="s">
         <v>112</v>
@@ -4277,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="BI23" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ23" s="12" t="s">
         <v>112</v>
@@ -4345,7 +4315,7 @@
         <v>5</v>
       </c>
       <c r="BI24" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ24" s="12" t="s">
         <v>112</v>
@@ -4413,7 +4383,7 @@
         <v>5</v>
       </c>
       <c r="BI25" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ25" s="12" t="s">
         <v>112</v>
@@ -4481,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="BI26" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ26" s="12" t="s">
         <v>112</v>
@@ -4549,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="BI27" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ27" s="12" t="s">
         <v>112</v>
@@ -4618,7 +4588,7 @@
         <v>5</v>
       </c>
       <c r="BI28" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ28" s="16" t="s">
         <v>112</v>
@@ -4687,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="BI29" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ29" s="16" t="s">
         <v>112</v>
@@ -4756,7 +4726,7 @@
         <v>5</v>
       </c>
       <c r="BI30" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ30" s="16" t="s">
         <v>112</v>
@@ -4825,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="BI31" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ31" s="16" t="s">
         <v>112</v>
@@ -4894,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="BI32" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ32" s="16" t="s">
         <v>112</v>
@@ -4962,7 +4932,7 @@
         <v>5</v>
       </c>
       <c r="BI33" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ33" s="16" t="s">
         <v>112</v>
@@ -5033,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="BI34" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ34" s="16" t="s">
         <v>112</v>
@@ -5101,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="BI35" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ35" s="16" t="s">
         <v>112</v>
@@ -5169,7 +5139,7 @@
         <v>5</v>
       </c>
       <c r="BI36" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ36" s="16" t="s">
         <v>112</v>
@@ -5237,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="BI37" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ37" s="16" t="s">
         <v>112</v>
@@ -5305,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="BI38" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ38" s="16" t="s">
         <v>112</v>
@@ -5373,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="BI39" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ39" s="16" t="s">
         <v>112</v>
@@ -5441,7 +5411,7 @@
         <v>5</v>
       </c>
       <c r="BI40" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BJ40" s="16" t="s">
         <v>112</v>
@@ -5470,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D671E26-080C-462D-901A-35D8ED7721D2}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5482,7 +5452,7 @@
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -5628,50 +5598,50 @@
         <v>166</v>
       </c>
       <c r="G2" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" t="s">
         <v>167</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>168</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>172</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>173</v>
-      </c>
-      <c r="O2" t="s">
-        <v>174</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
         <v>175</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>176</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>177</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>178</v>
       </c>
-      <c r="U2" t="s">
-        <v>179</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -5679,22 +5649,22 @@
         <v>1</v>
       </c>
       <c r="AB2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" t="s">
         <v>180</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AE2" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
         <v>166</v>
@@ -5717,50 +5687,50 @@
         <v>166</v>
       </c>
       <c r="G3" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3" t="s">
         <v>167</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>168</v>
       </c>
-      <c r="I3" t="s">
-        <v>169</v>
-      </c>
       <c r="J3" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" t="s">
         <v>186</v>
       </c>
-      <c r="M3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>187</v>
-      </c>
-      <c r="O3" t="s">
-        <v>188</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
         <v>175</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>176</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>177</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>178</v>
       </c>
-      <c r="U3" t="s">
-        <v>179</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -5768,22 +5738,22 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC3" t="s">
         <v>180</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AE3" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5794,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
         <v>166</v>
@@ -5806,50 +5776,50 @@
         <v>166</v>
       </c>
       <c r="G4" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" t="s">
         <v>167</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>168</v>
       </c>
-      <c r="I4" t="s">
-        <v>169</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" t="s">
         <v>189</v>
       </c>
-      <c r="M4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>190</v>
-      </c>
-      <c r="O4" t="s">
-        <v>191</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" t="s">
         <v>175</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>176</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>178</v>
       </c>
-      <c r="U4" t="s">
-        <v>179</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -5857,22 +5827,22 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AE4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE4" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>440</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5883,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>166</v>
@@ -5895,50 +5865,50 @@
         <v>166</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>168</v>
       </c>
-      <c r="I5" t="s">
-        <v>169</v>
-      </c>
       <c r="J5" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" t="s">
         <v>192</v>
       </c>
-      <c r="M5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>193</v>
-      </c>
-      <c r="O5" t="s">
-        <v>194</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" t="s">
         <v>175</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>176</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>177</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
-        <v>179</v>
-      </c>
       <c r="V5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -5946,22 +5916,22 @@
         <v>1</v>
       </c>
       <c r="AB5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AE5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>440</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE5" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5972,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
         <v>166</v>
@@ -5984,50 +5954,50 @@
         <v>166</v>
       </c>
       <c r="G6" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" t="s">
         <v>167</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>168</v>
       </c>
-      <c r="I6" t="s">
-        <v>169</v>
-      </c>
       <c r="J6" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" t="s">
         <v>195</v>
       </c>
-      <c r="M6" t="s">
-        <v>172</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>196</v>
-      </c>
-      <c r="O6" t="s">
-        <v>197</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" t="s">
         <v>175</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>176</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>177</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>178</v>
       </c>
-      <c r="U6" t="s">
-        <v>179</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -6035,22 +6005,22 @@
         <v>1</v>
       </c>
       <c r="AB6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC6" t="s">
         <v>180</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AE6" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE6" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6061,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>166</v>
@@ -6073,50 +6043,50 @@
         <v>166</v>
       </c>
       <c r="G7" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7" t="s">
         <v>167</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>168</v>
       </c>
-      <c r="I7" t="s">
-        <v>169</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" t="s">
         <v>198</v>
       </c>
-      <c r="M7" t="s">
-        <v>172</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>199</v>
-      </c>
-      <c r="O7" t="s">
-        <v>200</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
+        <v>174</v>
+      </c>
+      <c r="R7" t="s">
         <v>175</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>176</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>177</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>178</v>
       </c>
-      <c r="U7" t="s">
-        <v>179</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -6124,28 +6094,28 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD7" s="25" t="s">
+      <c r="AE7" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE7" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6156,7 +6126,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
         <v>166</v>
@@ -6168,50 +6138,50 @@
         <v>166</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H8" t="s">
         <v>167</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>168</v>
       </c>
-      <c r="I8" t="s">
-        <v>169</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" t="s">
         <v>171</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" t="s">
         <v>201</v>
       </c>
-      <c r="M8" t="s">
-        <v>172</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>202</v>
-      </c>
-      <c r="O8" t="s">
-        <v>203</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" t="s">
         <v>175</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>176</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>177</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>178</v>
       </c>
-      <c r="U8" t="s">
-        <v>179</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -6219,28 +6189,28 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC8" t="s">
         <v>180</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AE8" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE8" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6251,84 +6221,84 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
         <v>204</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" t="s">
         <v>205</v>
       </c>
-      <c r="F9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="I9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" t="s">
         <v>208</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M9" t="s">
-        <v>172</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s">
+        <v>210</v>
+      </c>
+      <c r="R9" t="s">
         <v>211</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9">
         <v>101</v>
       </c>
       <c r="AB9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC9" t="s">
         <v>217</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AE9" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AF9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6339,89 +6309,89 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="K10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" t="s">
         <v>223</v>
       </c>
-      <c r="M10" t="s">
-        <v>172</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R10" t="s">
+        <v>225</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="Z10" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA10">
         <v>101</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC10" t="s">
         <v>217</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AE10" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AE10" s="25" t="s">
+      <c r="AF10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6432,89 +6402,89 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
         <v>204</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H11" t="s">
         <v>205</v>
       </c>
-      <c r="F11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" t="s">
-        <v>206</v>
-      </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" t="s">
         <v>233</v>
       </c>
-      <c r="M11" t="s">
-        <v>172</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Z11" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA11">
         <v>101</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC11" t="s">
         <v>217</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AD11" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="AE11" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF11" t="s">
         <v>238</v>
       </c>
-      <c r="AF11" t="s">
-        <v>239</v>
-      </c>
       <c r="AK11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6525,95 +6495,95 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
         <v>204</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" t="s">
         <v>205</v>
       </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" t="s">
-        <v>206</v>
-      </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
         <v>242</v>
       </c>
-      <c r="M12" t="s">
-        <v>172</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y12" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Z12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA12">
         <v>101</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC12" t="s">
         <v>217</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AD12" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="AE12" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF12" t="s">
         <v>245</v>
       </c>
-      <c r="AF12" t="s">
-        <v>246</v>
-      </c>
       <c r="AG12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AH12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6624,93 +6594,93 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
         <v>204</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" t="s">
         <v>205</v>
       </c>
-      <c r="F13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" t="s">
-        <v>206</v>
-      </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" t="s">
         <v>248</v>
       </c>
-      <c r="M13" t="s">
-        <v>172</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA13">
         <v>101</v>
       </c>
       <c r="AB13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC13" t="s">
         <v>217</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AD13" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="AE13" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF13" t="s">
         <v>252</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>253</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>254</v>
       </c>
-      <c r="AH13" t="s">
-        <v>255</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6721,87 +6691,87 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
         <v>204</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H14" t="s">
         <v>205</v>
       </c>
-      <c r="F14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" t="s">
-        <v>206</v>
-      </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s">
         <v>257</v>
       </c>
-      <c r="M14" t="s">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA14">
         <v>101</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC14" t="s">
         <v>217</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="AD14" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="AE14" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF14" t="s">
         <v>261</v>
       </c>
-      <c r="AF14" t="s">
-        <v>262</v>
-      </c>
       <c r="AK14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6812,82 +6782,82 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>451</v>
+        <v>204</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>445</v>
       </c>
       <c r="H15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I15" t="s">
-        <v>369</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="K15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s">
         <v>267</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M15" t="s">
-        <v>172</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s">
+        <v>269</v>
+      </c>
+      <c r="R15" t="s">
         <v>270</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="T15" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="U15" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="V15" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X15" s="28">
         <v>2880</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15">
         <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC15" t="s">
         <v>276</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" s="25" t="s">
         <v>277</v>
-      </c>
-      <c r="AD15" s="25" t="s">
-        <v>278</v>
       </c>
       <c r="AE15" s="25"/>
       <c r="AK15" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6898,87 +6868,87 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" t="s">
-        <v>206</v>
-      </c>
-      <c r="I16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="K16" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" t="s">
         <v>282</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M16" t="s">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R16" t="s">
         <v>285</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="V16" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X16" s="28">
         <v>1547</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16">
         <v>201</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC16" t="s">
         <v>289</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AE16" t="s">
         <v>291</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>292</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>293</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>294</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AK16" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6989,81 +6959,81 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="I17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="K17" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" t="s">
         <v>299</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M17" t="s">
-        <v>172</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="S17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="V17" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X17" s="28">
         <v>2245</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="31">
         <v>201</v>
       </c>
       <c r="AB17" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC17" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC17" s="31" t="s">
+      <c r="AD17" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="AD17" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="AE17" s="25"/>
       <c r="AK17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7074,59 +7044,59 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N18" t="s">
         <v>309</v>
       </c>
-      <c r="M18" t="s">
-        <v>172</v>
-      </c>
-      <c r="N18" t="s">
-        <v>310</v>
-      </c>
       <c r="O18" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="S18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="V18" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="30"/>
@@ -7135,17 +7105,17 @@
         <v>201</v>
       </c>
       <c r="AB18" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC18" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC18" s="31" t="s">
+      <c r="AD18" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="AD18" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="AE18" s="25"/>
       <c r="AK18" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7156,59 +7126,59 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s">
         <v>311</v>
       </c>
-      <c r="M19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N19" t="s">
-        <v>312</v>
-      </c>
       <c r="O19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="S19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="V19" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X19" s="28"/>
       <c r="Y19" s="30"/>
@@ -7217,17 +7187,17 @@
         <v>201</v>
       </c>
       <c r="AB19" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC19" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC19" s="31" t="s">
+      <c r="AD19" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="AD19" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AK19" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7238,59 +7208,59 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" t="s">
         <v>313</v>
       </c>
-      <c r="M20" t="s">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s">
-        <v>314</v>
-      </c>
       <c r="O20" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="R20" s="29" t="s">
+      <c r="S20" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="V20" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="30"/>
@@ -7299,17 +7269,17 @@
         <v>201</v>
       </c>
       <c r="AB20" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC20" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC20" s="31" t="s">
+      <c r="AD20" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="AD20" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="AE20" s="25"/>
       <c r="AK20" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7320,59 +7290,59 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" t="s">
         <v>315</v>
       </c>
-      <c r="M21" t="s">
-        <v>172</v>
-      </c>
-      <c r="N21" t="s">
-        <v>316</v>
-      </c>
       <c r="O21" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="S21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="V21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X21" s="28"/>
       <c r="Y21" s="30"/>
@@ -7381,17 +7351,17 @@
         <v>201</v>
       </c>
       <c r="AB21" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC21" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC21" s="31" t="s">
+      <c r="AD21" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="AD21" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="AE21" s="25"/>
       <c r="AK21" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7402,59 +7372,59 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="R22" s="29" t="s">
+      <c r="S22" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X22" s="28"/>
       <c r="Y22" s="30"/>
@@ -7463,17 +7433,17 @@
         <v>201</v>
       </c>
       <c r="AB22" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC22" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC22" s="31" t="s">
+      <c r="AD22" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="AE22" s="25"/>
       <c r="AK22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7492,72 +7462,72 @@
       <c r="F23" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>447</v>
+      <c r="G23" s="24" t="s">
+        <v>445</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="L23" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="N23" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="L23" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="N23" s="34" t="s">
+      <c r="O23" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="Q23" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="R23" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="Q23" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="R23" s="34" t="s">
+      <c r="S23" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="S23" s="34" t="s">
-        <v>323</v>
-      </c>
       <c r="T23" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="U23" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="U23" s="34" t="s">
-        <v>179</v>
-      </c>
       <c r="V23" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X23" s="28"/>
       <c r="AA23" s="34">
         <v>30</v>
       </c>
       <c r="AB23" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC23" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="AC23" s="34" t="s">
+      <c r="AD23" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="AD23" s="39" t="s">
-        <v>326</v>
-      </c>
       <c r="AE23" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF23" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK23" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7568,7 +7538,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>166</v>
@@ -7579,72 +7549,72 @@
       <c r="F24" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>447</v>
+      <c r="G24" s="24" t="s">
+        <v>445</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="K24" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="L24" s="38" t="s">
+      <c r="M24" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="M24" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>329</v>
-      </c>
       <c r="O24" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="R24" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="Q24" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" s="40" t="s">
+      <c r="S24" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="S24" s="40" t="s">
-        <v>323</v>
-      </c>
       <c r="T24" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="U24" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="U24" s="40" t="s">
-        <v>179</v>
-      </c>
       <c r="V24" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X24" s="28"/>
       <c r="AA24" s="40">
         <v>30</v>
       </c>
       <c r="AB24" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC24" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="AC24" s="40" t="s">
+      <c r="AD24" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="AD24" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="AE24" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF24" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK24" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7655,58 +7625,58 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" t="s">
         <v>204</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H25" t="s">
         <v>205</v>
       </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="H25" t="s">
-        <v>206</v>
-      </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J25" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" t="s">
         <v>331</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M25" t="s">
-        <v>172</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="S25" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V25" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="7"/>
@@ -7715,15 +7685,15 @@
         <v>130</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC25" s="31" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
       <c r="AK25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7734,90 +7704,90 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
         <v>204</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" t="s">
         <v>205</v>
       </c>
-      <c r="F26" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="H26" t="s">
-        <v>206</v>
-      </c>
       <c r="I26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J26" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M26" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" t="s">
         <v>338</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M26" t="s">
-        <v>172</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="Q26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="S26" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V26" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26">
         <v>130</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AC26" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AD26" s="25" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AE26" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH26" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7828,84 +7798,84 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M27" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" t="s">
         <v>344</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M27" t="s">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" t="s">
         <v>347</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="V27" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X27" s="28"/>
       <c r="Y27" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27">
         <v>201</v>
       </c>
       <c r="AB27" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC27" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD27" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="AD27" s="25" t="s">
+      <c r="AE27" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="AE27" s="25" t="s">
+      <c r="AF27" t="s">
         <v>354</v>
       </c>
-      <c r="AF27" t="s">
-        <v>355</v>
-      </c>
       <c r="AK27" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7925,46 +7895,46 @@
         <v>166</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M28" t="s">
-        <v>172</v>
-      </c>
-      <c r="N28" s="44" t="s">
+      <c r="O28" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" t="s">
+        <v>285</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="R28" t="s">
-        <v>286</v>
-      </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="V28" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X28" s="28">
         <v>1635</v>
@@ -7975,28 +7945,28 @@
         <v>61</v>
       </c>
       <c r="AB28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC28" t="s">
         <v>363</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="AD28" s="25" t="s">
+      <c r="AE28" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF28" t="s">
         <v>365</v>
       </c>
-      <c r="AE28" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH28" t="s">
         <v>366</v>
       </c>
-      <c r="AG28" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH28" t="s">
+      <c r="AK28" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8007,52 +7977,52 @@
         <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I29" t="s">
+        <v>368</v>
+      </c>
+      <c r="J29" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="K29" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N29" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="M29" t="s">
-        <v>172</v>
-      </c>
-      <c r="N29" s="44" t="s">
+      <c r="O29" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="Q29" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="R29" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="X29" s="28">
         <v>5900</v>
@@ -8063,22 +8033,22 @@
         <v>160</v>
       </c>
       <c r="AB29" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC29" t="s">
         <v>379</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="AD29" s="25" t="s">
+      <c r="AE29" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="AE29" s="25" t="s">
+      <c r="AF29" t="s">
         <v>382</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AK29" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8089,49 +8059,49 @@
         <v>161</v>
       </c>
       <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" t="s">
         <v>205</v>
       </c>
-      <c r="E30" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="I30" t="s">
+        <v>368</v>
+      </c>
+      <c r="J30" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="H30" t="s">
-        <v>206</v>
-      </c>
-      <c r="I30" t="s">
-        <v>369</v>
-      </c>
-      <c r="J30" s="24" t="s">
+      <c r="K30" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M30" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="M30" t="s">
-        <v>172</v>
-      </c>
-      <c r="N30" s="44" t="s">
+      <c r="O30" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="T30" s="2"/>
       <c r="X30" s="28"/>
@@ -8141,22 +8111,22 @@
         <v>160</v>
       </c>
       <c r="AB30" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC30" t="s">
         <v>379</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="AD30" s="25" t="s">
-        <v>381</v>
-      </c>
       <c r="AE30" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8167,53 +8137,53 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J31" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M31" t="s">
+        <v>171</v>
+      </c>
+      <c r="N31" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M31" t="s">
-        <v>172</v>
-      </c>
-      <c r="N31" s="44" t="s">
+      <c r="O31" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="V31" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X31" s="28">
         <v>2400</v>
@@ -8224,17 +8194,17 @@
         <v>161</v>
       </c>
       <c r="AB31" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC31" t="s">
         <v>400</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="AD31" s="25" t="s">
-        <v>402</v>
       </c>
       <c r="AE31" s="25"/>
       <c r="AK31" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8245,55 +8215,55 @@
         <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" t="s">
         <v>404</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M32" t="s">
-        <v>172</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="O32" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" t="s">
         <v>407</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="V32" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="X32" s="28">
         <v>4397.05</v>
@@ -8304,28 +8274,28 @@
         <v>201</v>
       </c>
       <c r="AB32" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC32" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC32" s="31" t="s">
+      <c r="AD32" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="AD32" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="AE32" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF32" t="s">
         <v>411</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>412</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>413</v>
       </c>
-      <c r="AH32" t="s">
-        <v>414</v>
-      </c>
       <c r="AK32" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8336,55 +8306,55 @@
         <v>265</v>
       </c>
       <c r="D33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" t="s">
-        <v>280</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="H33" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>281</v>
-      </c>
       <c r="K33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M33" t="s">
+        <v>171</v>
+      </c>
+      <c r="N33" t="s">
         <v>415</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="M33" t="s">
-        <v>172</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="O33" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" t="s">
+        <v>285</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="R33" t="s">
-        <v>286</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="T33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="X33" s="28">
         <v>2195.5500000000002</v>
@@ -8395,22 +8365,22 @@
         <v>201</v>
       </c>
       <c r="AB33" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC33" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC33" s="31" t="s">
+      <c r="AD33" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="AD33" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="AE33" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF33" t="s">
         <v>420</v>
       </c>
-      <c r="AF33" t="s">
-        <v>421</v>
-      </c>
       <c r="AK33" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8421,52 +8391,52 @@
         <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J34" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M34" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" t="s">
         <v>423</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M34" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="O34" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" t="s">
+        <v>285</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="R34" t="s">
-        <v>286</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="T34" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X34" s="28">
         <v>1362.55</v>
@@ -8477,28 +8447,28 @@
         <v>201</v>
       </c>
       <c r="AB34" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC34" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AC34" s="31" t="s">
+      <c r="AD34" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="AD34" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="AE34" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG34" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH34" t="s">
         <v>428</v>
       </c>
-      <c r="AG34" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>429</v>
-      </c>
       <c r="AK34" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8622,20 +8592,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a02612f-c061-4319-bfdb-b5863aa27d0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8868,6 +8838,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9107FA45-FCDD-42C9-8B94-F455BA9BA50E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8880,14 +8858,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="0a02612f-c061-4319-bfdb-b5863aa27d0a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D77567D-EF8B-449E-AB9D-98DD6B7BC045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
